--- a/Quanto CDS/Quanto CDS.xlsx
+++ b/Quanto CDS/Quanto CDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26818"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburg\Desktop\QCDS\QCDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburg\Documents\MY_DOCUMENTS\QUANT\PAPERS\.QUANT_RESEARCH\Quanto CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C4F26-C2CC-4419-A5CA-1F862EBFE2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553D02B-FDA2-4874-9BA2-D2D4FDDD5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1965" windowWidth="30240" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="18555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDS" sheetId="1" r:id="rId1"/>
@@ -18679,115 +18679,115 @@
         <v>26</v>
       </c>
       <c r="R3" s="33">
-        <f ca="1">YearFraction</f>
+        <f>YearFraction</f>
         <v>0.25</v>
       </c>
       <c r="S3" s="17">
-        <f t="shared" ref="S3:S44" ca="1" si="0">IF(R3&gt;Maturity,"-",-Phi*Notional)</f>
+        <f t="shared" ref="S3:S44" si="0">IF(R3&gt;Maturity,"-",-Phi*Notional)</f>
         <v>-1000000</v>
       </c>
       <c r="T3" s="19">
-        <f t="shared" ref="T3:T44" ca="1" si="1">IF(R3&gt;Maturity,"-",Premium)</f>
+        <f t="shared" ref="T3:T44" si="1">IF(R3&gt;Maturity,"-",Premium)</f>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U3" s="34">
-        <f t="shared" ref="U3:U44" ca="1" si="2">IF(R3&gt;Maturity,"-",YearFraction)</f>
+        <f t="shared" ref="U3:U44" si="2">IF(R3&gt;Maturity,"-",YearFraction)</f>
         <v>0.25</v>
       </c>
       <c r="V3" s="17">
-        <f ca="1">IF(R3&gt;Maturity,"-",S3*T3*U3)</f>
+        <f>IF(R3&gt;Maturity,"-",S3*T3*U3)</f>
         <v>-4650</v>
       </c>
       <c r="W3" s="49">
-        <f t="shared" ref="W3:W44" ca="1" si="3">IF(R3&gt;Maturity,"-",EXP(-DomesticHazardRate*R3))</f>
+        <f t="shared" ref="W3:W44" si="3">IF(R3&gt;Maturity,"-",EXP(-DomesticHazardRate*R3))</f>
         <v>0.99252805481913842</v>
       </c>
       <c r="X3" s="49">
-        <f t="shared" ref="X3:X44" ca="1" si="4">IF(R3&gt;Maturity,"-",EXP(-QuantoHazardRate*R3))</f>
+        <f t="shared" ref="X3:X44" si="4">IF(R3&gt;Maturity,"-",EXP(-QuantoHazardRate*R3))</f>
         <v>0.99176552803828566</v>
       </c>
       <c r="Y3" s="18">
-        <f t="shared" ref="Y3:Y44" ca="1" si="5">IF(R3&gt;Maturity,"-",EXP(-ZeroRate*R3))</f>
+        <f t="shared" ref="Y3:Y44" si="5">IF(R3&gt;Maturity,"-",EXP(-ZeroRate*R3))</f>
         <v>0.97530991202833262</v>
       </c>
       <c r="Z3" s="17">
-        <f t="shared" ref="Z3:Z44" ca="1" si="6">IF(R3&gt;Maturity,"-",V3*W3*Y3)</f>
+        <f t="shared" ref="Z3:Z44" si="6">IF(R3&gt;Maturity,"-",V3*W3*Y3)</f>
         <v>-4501.3043917155728</v>
       </c>
       <c r="AA3" s="20">
-        <f t="shared" ref="AA3:AA44" ca="1" si="7">IF(R3&gt;Maturity,"-",Z3*EXP(-(QuantoHazardRate-DomesticHazardRate)*R3))</f>
+        <f t="shared" ref="AA3:AA44" si="7">IF(R3&gt;Maturity,"-",Z3*EXP(-(QuantoHazardRate-DomesticHazardRate)*R3))</f>
         <v>-4497.8461870524525</v>
       </c>
       <c r="AC3" s="16">
-        <f ca="1">YearFraction</f>
+        <f>YearFraction</f>
         <v>0.25</v>
       </c>
       <c r="AD3" s="17">
-        <f t="shared" ref="AD3:AD22" ca="1" si="8">IF(AC3&gt;Maturity,"-",-Phi*Notional)</f>
+        <f t="shared" ref="AD3:AD22" si="8">IF(AC3&gt;Maturity,"-",-Phi*Notional)</f>
         <v>-1000000</v>
       </c>
       <c r="AE3" s="19">
-        <f t="shared" ref="AE3:AE22" ca="1" si="9">IF(AC3&gt;Maturity,"-",Premium)</f>
+        <f t="shared" ref="AE3:AE22" si="9">IF(AC3&gt;Maturity,"-",Premium)</f>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF3" s="40">
-        <f t="shared" ref="AF3:AF22" ca="1" si="10">IF(AC3&gt;Maturity,"-",YearFraction/2)</f>
+        <f t="shared" ref="AF3:AF22" si="10">IF(AC3&gt;Maturity,"-",YearFraction/2)</f>
         <v>0.125</v>
       </c>
       <c r="AG3" s="17">
-        <f t="shared" ref="AG3:AG22" ca="1" si="11">IF(AC3&gt;Maturity,"-",AD3*AE3*AF3)</f>
+        <f t="shared" ref="AG3:AG22" si="11">IF(AC3&gt;Maturity,"-",AD3*AE3*AF3)</f>
         <v>-2325</v>
       </c>
       <c r="AH3" s="18">
-        <f t="shared" ref="AH3:AH44" ca="1" si="12">IF(AC3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AC3))</f>
+        <f t="shared" ref="AH3:AH44" si="12">IF(AC3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AC3))</f>
         <v>7.4719451808615833E-3</v>
       </c>
       <c r="AI3" s="18">
-        <f t="shared" ref="AI3:AI44" ca="1" si="13">IF(AC3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AC3))</f>
+        <f t="shared" ref="AI3:AI44" si="13">IF(AC3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AC3))</f>
         <v>8.2344719617143403E-3</v>
       </c>
       <c r="AJ3" s="18">
-        <f t="shared" ref="AJ3:AJ22" ca="1" si="14">IF(AC3&gt;Maturity,"-",EXP(-ZeroRate*AC3))</f>
+        <f t="shared" ref="AJ3:AJ22" si="14">IF(AC3&gt;Maturity,"-",EXP(-ZeroRate*AC3))</f>
         <v>0.97530991202833262</v>
       </c>
       <c r="AK3" s="17">
-        <f t="shared" ref="AK3:AK22" ca="1" si="15">IF(AC3&gt;Maturity,"-",AG3*AH3*AJ3)</f>
+        <f t="shared" ref="AK3:AK22" si="15">IF(AC3&gt;Maturity,"-",AG3*AH3*AJ3)</f>
         <v>-16.943349608086926</v>
       </c>
       <c r="AL3" s="20">
-        <f t="shared" ref="AL3:AL44" ca="1" si="16">IF(AC3&gt;Maturity,"-",AK3/AH3*AI3)</f>
+        <f t="shared" ref="AL3:AL44" si="16">IF(AC3&gt;Maturity,"-",AK3/AH3*AI3)</f>
         <v>-18.672451939647068</v>
       </c>
       <c r="AN3" s="16">
-        <f ca="1">YearFraction</f>
+        <f>YearFraction</f>
         <v>0.25</v>
       </c>
       <c r="AO3" s="17">
-        <f t="shared" ref="AO3:AO22" ca="1" si="17">IF(AN3&gt;Maturity,"-",Phi*Notional)</f>
+        <f t="shared" ref="AO3:AO22" si="17">IF(AN3&gt;Maturity,"-",Phi*Notional)</f>
         <v>1000000</v>
       </c>
       <c r="AP3" s="17">
-        <f t="shared" ref="AP3:AP22" ca="1" si="18">IF(AN3&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
+        <f t="shared" ref="AP3:AP22" si="18">IF(AN3&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
         <v>600000</v>
       </c>
       <c r="AQ3" s="18">
-        <f t="shared" ref="AQ3:AQ44" ca="1" si="19">IF(AN3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AN3))</f>
+        <f t="shared" ref="AQ3:AQ44" si="19">IF(AN3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AN3))</f>
         <v>7.4719451808615833E-3</v>
       </c>
       <c r="AR3" s="18">
-        <f t="shared" ref="AR3:AR44" ca="1" si="20">IF(AN3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AN3))</f>
+        <f t="shared" ref="AR3:AR44" si="20">IF(AN3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AN3))</f>
         <v>8.2344719617143403E-3</v>
       </c>
       <c r="AS3" s="18">
-        <f t="shared" ref="AS3:AS22" ca="1" si="21">IF(AN3&gt;Maturity,"-",EXP(-ZeroRate*AN3))</f>
+        <f t="shared" ref="AS3:AS22" si="21">IF(AN3&gt;Maturity,"-",EXP(-ZeroRate*AN3))</f>
         <v>0.97530991202833262</v>
       </c>
       <c r="AT3" s="17">
-        <f t="shared" ref="AT3:AT22" ca="1" si="22">IF(AN3&gt;Maturity,"-",AP3*AQ3*AS3)</f>
+        <f t="shared" ref="AT3:AT22" si="22">IF(AN3&gt;Maturity,"-",AP3*AQ3*AS3)</f>
         <v>4372.4773182159806</v>
       </c>
       <c r="AU3" s="20">
-        <f t="shared" ref="AU3:AU44" ca="1" si="23">IF(AN3&gt;Maturity,"-",AT3/AQ3*AR3)</f>
+        <f t="shared" ref="AU3:AU44" si="23">IF(AN3&gt;Maturity,"-",AT3/AQ3*AR3)</f>
         <v>4818.6972747476311</v>
       </c>
     </row>
@@ -18796,7 +18796,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="9">
-        <f ca="1">IF(UPPER(C3)="BUY",1,-1)</f>
+        <f>IF(UPPER(C3)="BUY",1,-1)</f>
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
@@ -18813,116 +18813,116 @@
       <c r="O4" s="67"/>
       <c r="P4" s="3"/>
       <c r="R4" s="35">
-        <f t="shared" ref="R4:R10" ca="1" si="24">R3+YearFraction</f>
+        <f t="shared" ref="R4:R10" si="24">R3+YearFraction</f>
         <v>0.5</v>
       </c>
       <c r="S4" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T4" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U4" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V4" s="22">
-        <f t="shared" ref="V4:V44" ca="1" si="25">IF(R4&gt;Maturity,"-",S4*T4*U4)</f>
+        <f t="shared" ref="V4:V44" si="25">IF(R4&gt;Maturity,"-",S4*T4*U4)</f>
         <v>-4650</v>
       </c>
       <c r="W4" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.98511193960306265</v>
       </c>
       <c r="X4" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.98359886260505958</v>
       </c>
       <c r="Y4" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.95122942450071402</v>
       </c>
       <c r="Z4" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-4357.3637047049251</v>
       </c>
       <c r="AA4" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-4350.6710370714591</v>
       </c>
       <c r="AC4" s="21">
-        <f t="shared" ref="AC4:AC10" ca="1" si="26">AC3+YearFraction</f>
+        <f t="shared" ref="AC4:AC10" si="26">AC3+YearFraction</f>
         <v>0.5</v>
       </c>
       <c r="AD4" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE4" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF4" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG4" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH4" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.4888060396937353E-2</v>
+        <f>IF(AC4&gt;Maturity,"-",EXP(-DomesticHazardRate*AC3)-EXP(-DomesticHazardRate*AC4))</f>
+        <v>7.4161152160757693E-3</v>
       </c>
       <c r="AI4" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.6401137394940424E-2</v>
+        <f>IF(AC4&gt;Maturity,"-",EXP(-QuantoHazardRate*AC3)-EXP(-QuantoHazardRate*AC4))</f>
+        <v>8.1666654332260835E-3</v>
       </c>
       <c r="AJ4" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.95122942450071402</v>
       </c>
       <c r="AK4" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-32.926559611697122</v>
+        <f t="shared" si="15"/>
+        <v>-16.401542795968577</v>
       </c>
       <c r="AL4" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-36.272893428430194</v>
+        <f t="shared" si="16"/>
+        <v>-18.061465969819739</v>
       </c>
       <c r="AN4" s="21">
-        <f t="shared" ref="AN4:AN10" ca="1" si="27">AN3+YearFraction</f>
+        <f t="shared" ref="AN4:AN10" si="27">AN3+YearFraction</f>
         <v>0.5</v>
       </c>
       <c r="AO4" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP4" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ4" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>1.4888060396937353E-2</v>
+        <f>IF(AN4&gt;Maturity,"-",EXP(-DomesticHazardRate*AN3)-EXP(-DomesticHazardRate*AN4))</f>
+        <v>7.4161152160757693E-3</v>
       </c>
       <c r="AR4" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.6401137394940424E-2</v>
+        <f>IF(AN4&gt;Maturity,"-",EXP(-QuantoHazardRate*AN3)-EXP(-QuantoHazardRate*AN4))</f>
+        <v>8.1666654332260835E-3</v>
       </c>
       <c r="AS4" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.95122942450071402</v>
       </c>
       <c r="AT4" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>8497.1766739863542</v>
+        <f t="shared" si="22"/>
+        <v>4232.6562054112455</v>
       </c>
       <c r="AU4" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>9360.7466912077925</v>
+        <f t="shared" si="23"/>
+        <v>4661.0234760825133</v>
       </c>
     </row>
     <row r="5" spans="2:48">
@@ -18933,148 +18933,148 @@
         <v>1000000</v>
       </c>
       <c r="H5" s="59">
-        <f ca="1">E24</f>
-        <v>62828.975045336992</v>
+        <f>E24</f>
+        <v>6666.1812065362392</v>
       </c>
       <c r="I5" s="58">
         <v>0</v>
       </c>
       <c r="J5" s="58">
-        <f t="shared" ref="J5:O5" ca="1" si="28">I5+5%</f>
+        <f t="shared" ref="J5:O5" si="28">I5+5%</f>
         <v>0.05</v>
       </c>
       <c r="K5" s="58">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" si="28"/>
         <v>0.1</v>
       </c>
       <c r="L5" s="58">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" si="28"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="M5" s="58">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="N5" s="58">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" si="28"/>
         <v>0.25</v>
       </c>
       <c r="O5" s="58">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" si="28"/>
         <v>0.3</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="35">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="S5" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T5" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U5" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V5" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W5" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.97775123719333634</v>
       </c>
       <c r="X5" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.97549944534936406</v>
       </c>
       <c r="Y5" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.92774348632855286</v>
       </c>
       <c r="Z5" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-4218.025888234477</v>
       </c>
       <c r="AA5" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-4208.3116419809467</v>
       </c>
       <c r="AC5" s="21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="AD5" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE5" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF5" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG5" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH5" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.2248762806663658E-2</v>
+        <f>IF(AC5&gt;Maturity,"-",EXP(-DomesticHazardRate*AC4)-EXP(-DomesticHazardRate*AC5))</f>
+        <v>7.3607024097263052E-3</v>
       </c>
       <c r="AI5" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.4500554650635942E-2</v>
+        <f>IF(AC5&gt;Maturity,"-",EXP(-QuantoHazardRate*AC4)-EXP(-QuantoHazardRate*AC5))</f>
+        <v>8.099417255695518E-3</v>
       </c>
       <c r="AJ5" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.92774348632855286</v>
       </c>
       <c r="AK5" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-47.990661596646497</v>
+        <f t="shared" si="15"/>
+        <v>-15.877061638366524</v>
       </c>
       <c r="AL5" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-52.847784723411834</v>
+        <f t="shared" si="16"/>
+        <v>-17.470472224716492</v>
       </c>
       <c r="AN5" s="21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>0.75</v>
       </c>
       <c r="AO5" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP5" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ5" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>2.2248762806663658E-2</v>
+        <f>IF(AN5&gt;Maturity,"-",EXP(-DomesticHazardRate*AN4)-EXP(-DomesticHazardRate*AN5))</f>
+        <v>7.3607024097263052E-3</v>
       </c>
       <c r="AR5" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.4500554650635942E-2</v>
+        <f>IF(AN5&gt;Maturity,"-",EXP(-QuantoHazardRate*AN4)-EXP(-QuantoHazardRate*AN5))</f>
+        <v>8.099417255695518E-3</v>
       </c>
       <c r="AS5" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.92774348632855286</v>
       </c>
       <c r="AT5" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>12384.686863650708</v>
+        <f t="shared" si="22"/>
+        <v>4097.306229255877</v>
       </c>
       <c r="AU5" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>13638.137993138536</v>
+        <f t="shared" si="23"/>
+        <v>4508.5089612171596</v>
       </c>
     </row>
     <row r="6" spans="2:48" ht="17.25">
@@ -19091,139 +19091,139 @@
         <v>1</v>
       </c>
       <c r="I6" s="53">
-        <f t="dataTable" ref="I6:O14" dt2D="1" dtr="1" r1="C15" r2="C16" ca="1"/>
-        <v>4619.4770215831231</v>
+        <f t="dataTable" ref="I6:O14" dt2D="1" dtr="1" r1="C15" r2="C16"/>
+        <v>490.9938538943461</v>
       </c>
       <c r="J6" s="53">
-        <v>35560.40574549872</v>
+        <v>3776.0985597739273</v>
       </c>
       <c r="K6" s="53">
-        <v>66351.254414112191</v>
+        <v>7039.1426896475823</v>
       </c>
       <c r="L6" s="53">
-        <v>96992.860807133722</v>
+        <v>10280.282902775049</v>
       </c>
       <c r="M6" s="53">
-        <v>127486.05765715323</v>
+        <v>13499.674719701194</v>
       </c>
       <c r="N6" s="53">
-        <v>157831.67268152139</v>
+        <v>16697.472530630701</v>
       </c>
       <c r="O6" s="53">
-        <v>188030.52861402684</v>
+        <v>19873.829603741651</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="35">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S6" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T6" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U6" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V6" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W6" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.97044553354850815</v>
       </c>
       <c r="X6" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.96746672251796684</v>
       </c>
       <c r="Y6" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.90483741803595952</v>
       </c>
       <c r="Z6" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-4083.14375378061</v>
       </c>
       <c r="AA6" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-4070.6104242607416</v>
       </c>
       <c r="AC6" s="21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AD6" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE6" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF6" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG6" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH6" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.9554466451491845E-2</v>
+        <f>IF(AC6&gt;Maturity,"-",EXP(-DomesticHazardRate*AC5)-EXP(-DomesticHazardRate*AC6))</f>
+        <v>7.3057036448281876E-3</v>
       </c>
       <c r="AI6" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.2533277482033163E-2</v>
+        <f>IF(AC6&gt;Maturity,"-",EXP(-QuantoHazardRate*AC5)-EXP(-QuantoHazardRate*AC6))</f>
+        <v>8.032722831397221E-3</v>
       </c>
       <c r="AJ6" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.90483741803595952</v>
       </c>
       <c r="AK6" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-62.175120043300971</v>
+        <f t="shared" si="15"/>
+        <v>-15.369352103294197</v>
       </c>
       <c r="AL6" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-68.441784803234967</v>
+        <f t="shared" si="16"/>
+        <v>-16.898816533751916</v>
       </c>
       <c r="AN6" s="21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AO6" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP6" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ6" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>2.9554466451491845E-2</v>
+        <f>IF(AN6&gt;Maturity,"-",EXP(-DomesticHazardRate*AN5)-EXP(-DomesticHazardRate*AN6))</f>
+        <v>7.3057036448281876E-3</v>
       </c>
       <c r="AR6" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>3.2533277482033163E-2</v>
+        <f>IF(AN6&gt;Maturity,"-",EXP(-QuantoHazardRate*AN5)-EXP(-QuantoHazardRate*AN6))</f>
+        <v>8.032722831397221E-3</v>
       </c>
       <c r="AS6" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.90483741803595952</v>
       </c>
       <c r="AT6" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>16045.19226923896</v>
+        <f t="shared" si="22"/>
+        <v>3966.2844137533416</v>
       </c>
       <c r="AU6" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>17662.396078254187</v>
+        <f t="shared" si="23"/>
+        <v>4360.9849119359778</v>
       </c>
     </row>
     <row r="7" spans="2:48">
@@ -19235,142 +19235,142 @@
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="57">
-        <f t="shared" ref="H7:H13" ca="1" si="29">H6-0.25</f>
+        <f t="shared" ref="H7:H13" si="29">H6-0.25</f>
         <v>0.75</v>
       </c>
       <c r="I7" s="53">
-        <v>3464.9215052289655</v>
+        <v>368.29158237140655</v>
       </c>
       <c r="J7" s="53">
-        <v>34353.999456416233</v>
+        <v>3648.1257321535013</v>
       </c>
       <c r="K7" s="53">
-        <v>65093.522721903282</v>
+        <v>6905.9752182797747</v>
       </c>
       <c r="L7" s="53">
-        <v>95684.324614139507</v>
+        <v>10141.995872467327</v>
       </c>
       <c r="M7" s="53">
-        <v>126127.23343462055</v>
+        <v>13356.342395829874</v>
       </c>
       <c r="N7" s="53">
-        <v>156423.07250548387</v>
+        <v>16549.168367177474</v>
       </c>
       <c r="O7" s="53">
-        <v>186572.66020089807</v>
+        <v>19720.626251255548</v>
       </c>
       <c r="P7" s="3"/>
       <c r="R7" s="35">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" si="24"/>
         <v>1.25</v>
       </c>
       <c r="S7" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T7" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U7" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V7" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W7" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.96319441772082182</v>
       </c>
       <c r="X7" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.95950014491750091</v>
       </c>
       <c r="Y7" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.88249690258459546</v>
       </c>
       <c r="Z7" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3952.5748195481015</v>
       </c>
       <c r="AA7" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3937.4149625241171</v>
       </c>
       <c r="AC7" s="21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" si="26"/>
         <v>1.25</v>
       </c>
       <c r="AD7" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE7" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF7" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG7" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH7" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.6805582279178184E-2</v>
+        <f>IF(AC7&gt;Maturity,"-",EXP(-DomesticHazardRate*AC6)-EXP(-DomesticHazardRate*AC7))</f>
+        <v>7.2511158276863386E-3</v>
       </c>
       <c r="AI7" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.0499855082499092E-2</v>
+        <f>IF(AC7&gt;Maturity,"-",EXP(-QuantoHazardRate*AC6)-EXP(-QuantoHazardRate*AC7))</f>
+        <v>7.9665776004659294E-3</v>
       </c>
       <c r="AJ7" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.88249690258459546</v>
       </c>
       <c r="AK7" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-75.517888735133553</v>
+        <f t="shared" si="15"/>
+        <v>-14.87787787535064</v>
       </c>
       <c r="AL7" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-83.097817247125775</v>
+        <f t="shared" si="16"/>
+        <v>-16.345866131620578</v>
       </c>
       <c r="AN7" s="21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>1.25</v>
       </c>
       <c r="AO7" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP7" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ7" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>3.6805582279178184E-2</v>
+        <f>IF(AN7&gt;Maturity,"-",EXP(-DomesticHazardRate*AN6)-EXP(-DomesticHazardRate*AN7))</f>
+        <v>7.2511158276863386E-3</v>
       </c>
       <c r="AR7" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>4.0499855082499092E-2</v>
+        <f>IF(AN7&gt;Maturity,"-",EXP(-QuantoHazardRate*AN6)-EXP(-QuantoHazardRate*AN7))</f>
+        <v>7.9665776004659294E-3</v>
       </c>
       <c r="AS7" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.88249690258459546</v>
       </c>
       <c r="AT7" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>19488.487415518335</v>
+        <f t="shared" si="22"/>
+        <v>3839.4523549291971</v>
       </c>
       <c r="AU7" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>21444.597999258265</v>
+        <f t="shared" si="23"/>
+        <v>4218.2880339666008</v>
       </c>
     </row>
     <row r="8" spans="2:48">
@@ -19382,142 +19382,142 @@
       </c>
       <c r="G8" s="68"/>
       <c r="H8" s="57">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>0.5</v>
       </c>
       <c r="I8" s="53">
-        <v>2310.1568585875211</v>
+        <v>245.55852166194381</v>
       </c>
       <c r="J8" s="53">
-        <v>33147.363886465901</v>
+        <v>3520.1192001048257</v>
       </c>
       <c r="K8" s="53">
-        <v>63835.540794752771</v>
+        <v>6772.7710183090749</v>
       </c>
       <c r="L8" s="53">
-        <v>94375.516443814733</v>
+        <v>10003.668983204196</v>
       </c>
       <c r="M8" s="53">
-        <v>124768.1147190429</v>
+        <v>13212.966979185549</v>
       </c>
       <c r="N8" s="53">
-        <v>155014.15456216095</v>
+        <v>16400.817776339703</v>
       </c>
       <c r="O8" s="53">
-        <v>185114.45000233408</v>
+        <v>19567.373038609636</v>
       </c>
       <c r="P8" s="3"/>
       <c r="R8" s="35">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="S8" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T8" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U8" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V8" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W8" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.95599748183309996</v>
       </c>
       <c r="X8" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.9515991678769169</v>
       </c>
       <c r="Y8" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.86070797642505781</v>
       </c>
       <c r="Z8" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3826.1811599604862</v>
       </c>
       <c r="AA8" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3808.5778228026625</v>
       </c>
       <c r="AC8" s="21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
       <c r="AD8" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE8" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF8" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG8" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH8" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.400251816690004E-2</v>
+        <f>IF(AC8&gt;Maturity,"-",EXP(-DomesticHazardRate*AC7)-EXP(-DomesticHazardRate*AC8))</f>
+        <v>7.1969358877218559E-3</v>
       </c>
       <c r="AI8" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.8400832123083104E-2</v>
+        <f>IF(AC8&gt;Maturity,"-",EXP(-QuantoHazardRate*AC7)-EXP(-QuantoHazardRate*AC8))</f>
+        <v>7.9009770405840118E-3</v>
       </c>
       <c r="AJ8" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.86070797642505781</v>
       </c>
       <c r="AK8" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-88.055465208016557</v>
+        <f t="shared" si="15"/>
+        <v>-14.402119789188045</v>
       </c>
       <c r="AL8" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-96.857133786928614</v>
+        <f t="shared" si="16"/>
+        <v>-15.811008957887932</v>
       </c>
       <c r="AN8" s="21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>1.5</v>
       </c>
       <c r="AO8" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP8" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ8" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.400251816690004E-2</v>
+        <f>IF(AN8&gt;Maturity,"-",EXP(-DomesticHazardRate*AN7)-EXP(-DomesticHazardRate*AN8))</f>
+        <v>7.1969358877218559E-3</v>
       </c>
       <c r="AR8" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>4.8400832123083104E-2</v>
+        <f>IF(AN8&gt;Maturity,"-",EXP(-QuantoHazardRate*AN7)-EXP(-QuantoHazardRate*AN8))</f>
+        <v>7.9009770405840118E-3</v>
       </c>
       <c r="AS8" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.86070797642505781</v>
       </c>
       <c r="AT8" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>22723.991021423626</v>
+        <f t="shared" si="22"/>
+        <v>3716.6760746291739</v>
       </c>
       <c r="AU8" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>24995.389364368675</v>
+        <f t="shared" si="23"/>
+        <v>4080.2603762291446</v>
       </c>
     </row>
     <row r="9" spans="2:48">
@@ -19529,142 +19529,142 @@
       </c>
       <c r="G9" s="68"/>
       <c r="H9" s="57">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>0.25</v>
       </c>
       <c r="I9" s="53">
-        <v>1155.1830380506581</v>
+        <v>122.79466359566868</v>
       </c>
       <c r="J9" s="53">
-        <v>31940.498985469458</v>
+        <v>3392.0789542382336</v>
       </c>
       <c r="K9" s="53">
-        <v>62577.308575313073</v>
+        <v>6639.5300790178226</v>
       </c>
       <c r="L9" s="53">
-        <v>93066.436231025495</v>
+        <v>9865.3022228277769</v>
       </c>
       <c r="M9" s="53">
-        <v>123408.70143685979</v>
+        <v>13069.548456054712</v>
       </c>
       <c r="N9" s="53">
-        <v>153604.91876890778</v>
+        <v>16252.42074272973</v>
       </c>
       <c r="O9" s="53">
-        <v>183655.89792592649</v>
+        <v>19414.069948620199</v>
       </c>
       <c r="P9" s="3"/>
       <c r="R9" s="35">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" si="24"/>
         <v>1.75</v>
       </c>
       <c r="S9" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T9" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U9" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V9" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W9" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.94885432105580125</v>
       </c>
       <c r="X9" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.94376325121024374</v>
       </c>
       <c r="Y9" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.83945702076920736</v>
       </c>
       <c r="Z9" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3703.8292599633369</v>
       </c>
       <c r="AA9" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3683.9563953517163</v>
       </c>
       <c r="AC9" s="21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" si="26"/>
         <v>1.75</v>
       </c>
       <c r="AD9" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE9" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF9" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG9" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH9" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.1145678944198747E-2</v>
+        <f>IF(AC9&gt;Maturity,"-",EXP(-DomesticHazardRate*AC8)-EXP(-DomesticHazardRate*AC9))</f>
+        <v>7.1431607772987071E-3</v>
       </c>
       <c r="AI9" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.6236748789756263E-2</v>
+        <f>IF(AC9&gt;Maturity,"-",EXP(-QuantoHazardRate*AC8)-EXP(-QuantoHazardRate*AC9))</f>
+        <v>7.8359166666731594E-3</v>
       </c>
       <c r="AJ9" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.83945702076920736</v>
       </c>
       <c r="AK9" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-99.822943306738438</v>
+        <f t="shared" si="15"/>
+        <v>-13.941575281093909</v>
       </c>
       <c r="AL9" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-109.75937561254865</v>
+        <f t="shared" si="16"/>
+        <v>-15.293652979502856</v>
       </c>
       <c r="AN9" s="21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>1.75</v>
       </c>
       <c r="AO9" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP9" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ9" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.1145678944198747E-2</v>
+        <f>IF(AN9&gt;Maturity,"-",EXP(-DomesticHazardRate*AN8)-EXP(-DomesticHazardRate*AN9))</f>
+        <v>7.1431607772987071E-3</v>
       </c>
       <c r="AR9" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>5.6236748789756263E-2</v>
+        <f>IF(AN9&gt;Maturity,"-",EXP(-QuantoHazardRate*AN8)-EXP(-QuantoHazardRate*AN9))</f>
+        <v>7.8359166666731594E-3</v>
       </c>
       <c r="AS9" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.83945702076920736</v>
       </c>
       <c r="AT9" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>25760.759563029274</v>
+        <f t="shared" si="22"/>
+        <v>3597.8258789919769</v>
       </c>
       <c r="AU9" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>28325.000158077073</v>
+        <f t="shared" si="23"/>
+        <v>3946.749156000737</v>
       </c>
     </row>
     <row r="10" spans="2:48">
@@ -19676,142 +19676,142 @@
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="57">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I10" s="53">
         <v>0</v>
       </c>
       <c r="J10" s="53">
-        <v>30733.404703235021</v>
+        <v>3264.0049851614385</v>
       </c>
       <c r="K10" s="53">
-        <v>61318.826006222982</v>
+        <v>6506.252389685098</v>
       </c>
       <c r="L10" s="53">
-        <v>91757.083910619491</v>
+        <v>9726.8955791764383</v>
       </c>
       <c r="M10" s="53">
-        <v>122048.99351448996</v>
+        <v>12926.086812719434</v>
       </c>
       <c r="N10" s="53">
-        <v>152195.36504305538</v>
+        <v>16103.977250954507</v>
       </c>
       <c r="O10" s="53">
-        <v>182197.00387924223</v>
+        <v>19260.716964097512</v>
       </c>
       <c r="P10" s="3"/>
       <c r="R10" s="35">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S10" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T10" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U10" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V10" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W10" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.94176453358424872</v>
       </c>
       <c r="X10" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.93599185917965655</v>
       </c>
       <c r="Y10" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.81873075307798182</v>
       </c>
       <c r="Z10" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3585.3898739865831</v>
       </c>
       <c r="AA10" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3563.4127367957453</v>
       </c>
       <c r="AC10" s="21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AD10" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE10" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF10" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG10" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH10" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.823546641575128E-2</v>
+        <f>IF(AC10&gt;Maturity,"-",EXP(-DomesticHazardRate*AC9)-EXP(-DomesticHazardRate*AC10))</f>
+        <v>7.0897874715525333E-3</v>
       </c>
       <c r="AI10" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.4008140820343451E-2</v>
+        <f>IF(AC10&gt;Maturity,"-",EXP(-QuantoHazardRate*AC9)-EXP(-QuantoHazardRate*AC10))</f>
+        <v>7.7713920305871875E-3</v>
       </c>
       <c r="AJ10" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.81873075307798182</v>
       </c>
       <c r="AK10" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-110.85406391301619</v>
+        <f t="shared" si="15"/>
+        <v>-13.495757858111883</v>
       </c>
       <c r="AL10" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-121.84263250843503</v>
+        <f t="shared" si="16"/>
+        <v>-14.793225535475484</v>
       </c>
       <c r="AN10" s="21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AO10" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP10" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ10" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.823546641575128E-2</v>
+        <f>IF(AN10&gt;Maturity,"-",EXP(-DomesticHazardRate*AN9)-EXP(-DomesticHazardRate*AN10))</f>
+        <v>7.0897874715525333E-3</v>
       </c>
       <c r="AR10" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>6.4008140820343451E-2</v>
+        <f>IF(AN10&gt;Maturity,"-",EXP(-QuantoHazardRate*AN9)-EXP(-QuantoHazardRate*AN10))</f>
+        <v>7.7713920305871875E-3</v>
       </c>
       <c r="AS10" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.81873075307798182</v>
       </c>
       <c r="AT10" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>28607.500364649339</v>
+        <f t="shared" si="22"/>
+        <v>3482.7762214482277</v>
       </c>
       <c r="AU10" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>31443.260002176783</v>
+        <f t="shared" si="23"/>
+        <v>3817.6065898001248</v>
       </c>
     </row>
     <row r="11" spans="2:48">
@@ -19825,142 +19825,142 @@
       <c r="F11" s="1"/>
       <c r="G11" s="68"/>
       <c r="H11" s="57">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>-0.25</v>
       </c>
       <c r="I11" s="53">
-        <v>-1155.392299193074</v>
+        <v>-122.82547729997168</v>
       </c>
       <c r="J11" s="53">
-        <v>29526.080989561393</v>
+        <v>3135.8972834793603</v>
       </c>
       <c r="K11" s="53">
-        <v>60060.093030106626</v>
+        <v>6372.9379395869255</v>
       </c>
       <c r="L11" s="53">
-        <v>90447.459417429054</v>
+        <v>9588.4490400848081</v>
       </c>
       <c r="M11" s="53">
-        <v>120688.99087833287</v>
+        <v>12782.582035457272</v>
       </c>
       <c r="N11" s="53">
-        <v>150785.49330191256</v>
+        <v>15955.487285615898</v>
       </c>
       <c r="O11" s="53">
-        <v>180737.76776982052</v>
+        <v>19107.314067845764</v>
       </c>
       <c r="P11" s="3"/>
       <c r="R11" s="35">
-        <f t="shared" ref="R11:R44" ca="1" si="30">R10+YearFraction</f>
+        <f t="shared" ref="R11:R44" si="30">R10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="S11" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T11" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U11" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V11" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W11" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.93472772061602749</v>
       </c>
       <c r="X11" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.92828446045884883</v>
       </c>
       <c r="Y11" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.79851621875937706</v>
       </c>
       <c r="Z11" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3470.7378894168496</v>
       </c>
       <c r="AA11" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3446.8134174389006</v>
       </c>
       <c r="AC11" s="21">
-        <f t="shared" ref="AC11:AC44" ca="1" si="31">AC10+YearFraction</f>
+        <f t="shared" ref="AC11:AC44" si="31">AC10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="AD11" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE11" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF11" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG11" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH11" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.5272279383972509E-2</v>
+        <f>IF(AC11&gt;Maturity,"-",EXP(-DomesticHazardRate*AC10)-EXP(-DomesticHazardRate*AC11))</f>
+        <v>7.0368129682212288E-3</v>
       </c>
       <c r="AI11" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.1715539541151174E-2</v>
+        <f>IF(AC11&gt;Maturity,"-",EXP(-QuantoHazardRate*AC10)-EXP(-QuantoHazardRate*AC11))</f>
+        <v>7.7073987208077233E-3</v>
       </c>
       <c r="AJ11" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.79851621875937706</v>
       </c>
       <c r="AK11" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-121.18126390712675</v>
+        <f t="shared" si="15"/>
+        <v>-13.064196584139744</v>
       </c>
       <c r="AL11" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-133.14349989610108</v>
+        <f t="shared" si="16"/>
+        <v>-14.309172702998817</v>
       </c>
       <c r="AN11" s="21">
-        <f t="shared" ref="AN11:AN44" ca="1" si="32">AN10+YearFraction</f>
+        <f t="shared" ref="AN11:AN44" si="32">AN10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="AO11" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP11" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ11" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>6.5272279383972509E-2</v>
+        <f>IF(AN11&gt;Maturity,"-",EXP(-DomesticHazardRate*AN10)-EXP(-DomesticHazardRate*AN11))</f>
+        <v>7.0368129682212288E-3</v>
       </c>
       <c r="AR11" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>7.1715539541151174E-2</v>
+        <f>IF(AN11&gt;Maturity,"-",EXP(-QuantoHazardRate*AN10)-EXP(-QuantoHazardRate*AN11))</f>
+        <v>7.7073987208077233E-3</v>
       </c>
       <c r="AS11" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.79851621875937706</v>
       </c>
       <c r="AT11" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>31272.584234097219</v>
+        <f t="shared" si="22"/>
+        <v>3371.4055701005786</v>
       </c>
       <c r="AU11" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>34359.612876413172</v>
+        <f t="shared" si="23"/>
+        <v>3692.6897298061458</v>
       </c>
     </row>
     <row r="12" spans="2:48">
@@ -19974,142 +19974,142 @@
       <c r="F12" s="1"/>
       <c r="G12" s="68"/>
       <c r="H12" s="57">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>-0.5</v>
       </c>
       <c r="I12" s="53">
-        <v>-2310.993903165916</v>
+        <v>-245.68177648117853</v>
       </c>
       <c r="J12" s="53">
-        <v>28318.527794233174</v>
+        <v>3007.755839794343</v>
       </c>
       <c r="K12" s="53">
-        <v>58801.109589574044</v>
+        <v>6239.5867179959241</v>
       </c>
       <c r="L12" s="53">
-        <v>89137.562686267891</v>
+        <v>9449.9625933835414</v>
       </c>
       <c r="M12" s="53">
-        <v>119328.69345476886</v>
+        <v>12639.034110541361</v>
       </c>
       <c r="N12" s="53">
-        <v>149375.3034627639</v>
+        <v>15806.950831310394</v>
       </c>
       <c r="O12" s="53">
-        <v>179278.18950517348</v>
+        <v>18953.861242662962</v>
       </c>
       <c r="P12" s="3"/>
       <c r="R12" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
       <c r="S12" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T12" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U12" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V12" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W12" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.92774348632855286</v>
       </c>
       <c r="X12" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.92064052809670527</v>
       </c>
       <c r="Y12" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.77880078307140488</v>
       </c>
       <c r="Z12" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3359.7521944356358</v>
       </c>
       <c r="AA12" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3334.0293735717842</v>
       </c>
       <c r="AC12" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
       <c r="AD12" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE12" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF12" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG12" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH12" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.2256513671447142E-2</v>
+        <f>IF(AC12&gt;Maturity,"-",EXP(-DomesticHazardRate*AC11)-EXP(-DomesticHazardRate*AC12))</f>
+        <v>6.9842342874746333E-3</v>
       </c>
       <c r="AI12" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.9359471903294732E-2</v>
+        <f>IF(AC12&gt;Maturity,"-",EXP(-QuantoHazardRate*AC11)-EXP(-QuantoHazardRate*AC12))</f>
+        <v>7.6439323621435573E-3</v>
       </c>
       <c r="AJ12" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.77880078307140488</v>
       </c>
       <c r="AK12" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-130.83572342319854</v>
+        <f t="shared" si="15"/>
+        <v>-12.646435582456604</v>
       </c>
       <c r="AL12" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-143.69713385512438</v>
+        <f t="shared" si="16"/>
+        <v>-13.840958684313744</v>
       </c>
       <c r="AN12" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="AO12" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP12" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ12" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>7.2256513671447142E-2</v>
+        <f>IF(AN12&gt;Maturity,"-",EXP(-DomesticHazardRate*AN11)-EXP(-DomesticHazardRate*AN12))</f>
+        <v>6.9842342874746333E-3</v>
       </c>
       <c r="AR12" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>7.9359471903294732E-2</v>
+        <f>IF(AN12&gt;Maturity,"-",EXP(-QuantoHazardRate*AN11)-EXP(-QuantoHazardRate*AN12))</f>
+        <v>7.6439323621435573E-3</v>
       </c>
       <c r="AS12" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.77880078307140488</v>
       </c>
       <c r="AT12" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>33764.057657599624</v>
+        <f t="shared" si="22"/>
+        <v>3263.5962793436397</v>
       </c>
       <c r="AU12" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>37083.131317451451</v>
+        <f t="shared" si="23"/>
+        <v>3571.8603056293532</v>
       </c>
     </row>
     <row r="13" spans="2:48">
@@ -20117,142 +20117,142 @@
       <c r="F13" s="1"/>
       <c r="G13" s="68"/>
       <c r="H13" s="57">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>-0.75</v>
       </c>
       <c r="I13" s="53">
-        <v>-3466.8048555663554</v>
+        <v>-368.56890572292468</v>
       </c>
       <c r="J13" s="53">
-        <v>27110.745067024254</v>
+        <v>2879.5806447060095</v>
       </c>
       <c r="K13" s="53">
-        <v>57541.87562722119</v>
+        <v>6106.1987141816862</v>
       </c>
       <c r="L13" s="53">
-        <v>87827.393651935156</v>
+        <v>9311.4362268996701</v>
       </c>
       <c r="M13" s="53">
-        <v>117968.10117015673</v>
+        <v>12495.44302424034</v>
       </c>
       <c r="N13" s="53">
-        <v>147964.79544287187</v>
+        <v>15658.367872629409</v>
       </c>
       <c r="O13" s="53">
-        <v>177818.26899278641</v>
+        <v>18800.358471341249</v>
       </c>
       <c r="P13" s="3"/>
       <c r="R13" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>2.75</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T13" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U13" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V13" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W13" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.92081143785680453</v>
       </c>
       <c r="X13" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.91305953948127505</v>
       </c>
       <c r="Y13" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.75957212322496848</v>
       </c>
       <c r="Z13" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3252.3155500836906</v>
       </c>
       <c r="AA13" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3224.9357646109083</v>
       </c>
       <c r="AC13" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>2.75</v>
       </c>
       <c r="AD13" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE13" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF13" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG13" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH13" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.9188562143195473E-2</v>
+        <f>IF(AC13&gt;Maturity,"-",EXP(-DomesticHazardRate*AC12)-EXP(-DomesticHazardRate*AC13))</f>
+        <v>6.9320484717483311E-3</v>
       </c>
       <c r="AI13" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>8.6940460518724949E-2</v>
+        <f>IF(AC13&gt;Maturity,"-",EXP(-QuantoHazardRate*AC12)-EXP(-QuantoHazardRate*AC13))</f>
+        <v>7.5809886154302175E-3</v>
       </c>
       <c r="AJ13" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.75957212322496848</v>
       </c>
       <c r="AK13" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-139.84741145620646</v>
+        <f t="shared" si="15"/>
+        <v>-12.242033554163445</v>
       </c>
       <c r="AL13" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-153.53730419259733</v>
+        <f t="shared" si="16"/>
+        <v>-13.388065213632448</v>
       </c>
       <c r="AN13" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>2.75</v>
       </c>
       <c r="AO13" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP13" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ13" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>7.9188562143195473E-2</v>
+        <f>IF(AN13&gt;Maturity,"-",EXP(-DomesticHazardRate*AN12)-EXP(-DomesticHazardRate*AN13))</f>
+        <v>6.9320484717483311E-3</v>
       </c>
       <c r="AR13" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>8.6940460518724949E-2</v>
+        <f>IF(AN13&gt;Maturity,"-",EXP(-QuantoHazardRate*AN12)-EXP(-QuantoHazardRate*AN13))</f>
+        <v>7.5809886154302175E-3</v>
       </c>
       <c r="AS13" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.75957212322496848</v>
       </c>
       <c r="AT13" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>36089.654569343606</v>
+        <f t="shared" si="22"/>
+        <v>3159.2344655905663</v>
       </c>
       <c r="AU13" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>39622.530114218673</v>
+        <f t="shared" si="23"/>
+        <v>3454.9845712599863</v>
       </c>
     </row>
     <row r="14" spans="2:48">
@@ -20263,142 +20263,142 @@
       <c r="F14" s="1"/>
       <c r="G14" s="68"/>
       <c r="H14" s="57">
-        <f ca="1">H13-0.25</f>
+        <f>H13-0.25</f>
         <v>-1</v>
       </c>
       <c r="I14" s="53">
-        <v>-4622.825200052117</v>
+        <v>-491.48687320666795</v>
       </c>
       <c r="J14" s="53">
-        <v>25902.732757696882</v>
+        <v>2751.3716888113195</v>
       </c>
       <c r="K14" s="53">
-        <v>56282.391085629701</v>
+        <v>5972.7739174105009</v>
       </c>
       <c r="L14" s="53">
-        <v>86516.952249211143</v>
+        <v>9172.8699284563845</v>
       </c>
       <c r="M14" s="53">
-        <v>116607.21395083715</v>
+        <v>12351.808762818422</v>
       </c>
       <c r="N14" s="53">
-        <v>146553.96915947483</v>
+        <v>15509.73839415906</v>
       </c>
       <c r="O14" s="53">
-        <v>176358.00614011765</v>
+        <v>18646.805736666494</v>
       </c>
       <c r="P14" s="3"/>
       <c r="R14" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T14" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U14" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V14" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W14" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.91393118527122819</v>
       </c>
       <c r="X14" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.90554097630404062</v>
       </c>
       <c r="Y14" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.74081822068171788</v>
       </c>
       <c r="Z14" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3148.3144664164661</v>
       </c>
       <c r="AA14" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3119.4118349127448</v>
       </c>
       <c r="AC14" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AD14" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE14" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF14" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG14" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH14" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>8.6068814728771814E-2</v>
+        <f>IF(AC14&gt;Maturity,"-",EXP(-DomesticHazardRate*AC13)-EXP(-DomesticHazardRate*AC14))</f>
+        <v>6.8802525855763408E-3</v>
       </c>
       <c r="AI14" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>9.4459023695959377E-2</v>
+        <f>IF(AC14&gt;Maturity,"-",EXP(-QuantoHazardRate*AC13)-EXP(-QuantoHazardRate*AC14))</f>
+        <v>7.5185631772344275E-3</v>
       </c>
       <c r="AJ14" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.74081822068171788</v>
       </c>
       <c r="AK14" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-148.24512987676113</v>
+        <f t="shared" si="15"/>
+        <v>-11.850563312018329</v>
       </c>
       <c r="AL14" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-162.69644562862189</v>
+        <f t="shared" si="16"/>
+        <v>-12.949990983472398</v>
       </c>
       <c r="AN14" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AO14" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP14" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ14" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>8.6068814728771814E-2</v>
+        <f>IF(AN14&gt;Maturity,"-",EXP(-DomesticHazardRate*AN13)-EXP(-DomesticHazardRate*AN14))</f>
+        <v>6.8802525855763408E-3</v>
       </c>
       <c r="AR14" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>9.4459023695959377E-2</v>
+        <f>IF(AN14&gt;Maturity,"-",EXP(-QuantoHazardRate*AN13)-EXP(-QuantoHazardRate*AN14))</f>
+        <v>7.5185631772344275E-3</v>
       </c>
       <c r="AS14" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.74081822068171788</v>
       </c>
       <c r="AT14" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>38256.8077101319</v>
+        <f t="shared" si="22"/>
+        <v>3058.2098869724723</v>
       </c>
       <c r="AU14" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>41986.179517063712</v>
+        <f t="shared" si="23"/>
+        <v>3341.9331570251352</v>
       </c>
     </row>
     <row r="15" spans="2:48" ht="18">
@@ -20415,145 +20415,145 @@
         <v>47</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:O15" ca="1" si="33">I6-I14</f>
-        <v>9242.3022216352401</v>
+        <f t="shared" ref="I15:O15" si="33">I6-I14</f>
+        <v>982.48072710101405</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" ca="1" si="33"/>
-        <v>9657.6729878018377</v>
+        <f t="shared" si="33"/>
+        <v>1024.7268709626078</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" ca="1" si="33"/>
-        <v>10068.86332848249</v>
+        <f t="shared" si="33"/>
+        <v>1066.3687722370814</v>
       </c>
       <c r="L15" s="65">
-        <f t="shared" ca="1" si="33"/>
-        <v>10475.908557922579</v>
+        <f t="shared" si="33"/>
+        <v>1107.4129743186641</v>
       </c>
       <c r="M15" s="65">
-        <f t="shared" ca="1" si="33"/>
-        <v>10878.843706316082</v>
+        <f t="shared" si="33"/>
+        <v>1147.8659568827716</v>
       </c>
       <c r="N15" s="65">
-        <f t="shared" ca="1" si="33"/>
-        <v>11277.703522046562</v>
+        <f t="shared" si="33"/>
+        <v>1187.7341364716412</v>
       </c>
       <c r="O15" s="65">
-        <f t="shared" ca="1" si="33"/>
-        <v>11672.522473909194</v>
+        <f t="shared" si="33"/>
+        <v>1227.0238670751569</v>
       </c>
       <c r="P15" s="3"/>
       <c r="R15" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>3.25</v>
       </c>
       <c r="S15" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T15" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U15" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V15" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W15" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.90710234155580172</v>
       </c>
       <c r="X15" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.89808432452448161</v>
       </c>
       <c r="Y15" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.72252735364207221</v>
       </c>
       <c r="Z15" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-3047.6390826198085</v>
       </c>
       <c r="AA15" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-3017.3407801093726</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>3.25</v>
       </c>
       <c r="AD15" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE15" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF15" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG15" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH15" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>9.2897658444198283E-2</v>
+        <f>IF(AC15&gt;Maturity,"-",EXP(-DomesticHazardRate*AC14)-EXP(-DomesticHazardRate*AC15))</f>
+        <v>6.8288437154264692E-3</v>
       </c>
       <c r="AI15" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.10191567547551839</v>
+        <f>IF(AC15&gt;Maturity,"-",EXP(-QuantoHazardRate*AC14)-EXP(-QuantoHazardRate*AC15))</f>
+        <v>7.4566517795590093E-3</v>
       </c>
       <c r="AJ15" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.72252735364207221</v>
       </c>
       <c r="AK15" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-156.05655590791369</v>
+        <f t="shared" si="15"/>
+        <v>-11.471611329181041</v>
       </c>
       <c r="AL15" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-171.20570716313154</v>
+        <f t="shared" si="16"/>
+        <v>-12.526251089757885</v>
       </c>
       <c r="AN15" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>3.25</v>
       </c>
       <c r="AO15" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP15" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ15" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>9.2897658444198283E-2</v>
+        <f>IF(AN15&gt;Maturity,"-",EXP(-DomesticHazardRate*AN14)-EXP(-DomesticHazardRate*AN15))</f>
+        <v>6.8288437154264692E-3</v>
       </c>
       <c r="AR15" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.10191567547551839</v>
+        <f>IF(AN15&gt;Maturity,"-",EXP(-QuantoHazardRate*AN14)-EXP(-QuantoHazardRate*AN15))</f>
+        <v>7.4566517795590093E-3</v>
       </c>
       <c r="AS15" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.72252735364207221</v>
       </c>
       <c r="AT15" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>40272.65958913901</v>
+        <f t="shared" si="22"/>
+        <v>2960.4158268854299</v>
       </c>
       <c r="AU15" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>44182.117977582318</v>
+        <f t="shared" si="23"/>
+        <v>3232.5809263891315</v>
       </c>
     </row>
     <row r="16" spans="2:48" ht="18">
@@ -20568,116 +20568,116 @@
       <c r="G16" s="1"/>
       <c r="P16" s="3"/>
       <c r="R16" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
       <c r="S16" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U16" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V16" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W16" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.90032452258626561</v>
       </c>
       <c r="X16" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.8906890743349295</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.70468808971871344</v>
       </c>
       <c r="Z16" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2950.1830509592614</v>
       </c>
       <c r="AA16" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2918.6096178178095</v>
       </c>
       <c r="AC16" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>3.5</v>
       </c>
       <c r="AD16" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE16" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF16" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG16" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH16" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>9.9675477413734392E-2</v>
+        <f>IF(AC16&gt;Maturity,"-",EXP(-DomesticHazardRate*AC15)-EXP(-DomesticHazardRate*AC16))</f>
+        <v>6.7778189695361091E-3</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.1093109256650705</v>
+        <f>IF(AC16&gt;Maturity,"-",EXP(-QuantoHazardRate*AC15)-EXP(-QuantoHazardRate*AC16))</f>
+        <v>7.3952501895521161E-3</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.70468808971871344</v>
       </c>
       <c r="AK16" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-163.30828311637822</v>
+        <f t="shared" si="15"/>
+        <v>-11.104777302386358</v>
       </c>
       <c r="AL16" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-179.09499968710406</v>
+        <f t="shared" si="16"/>
+        <v>-12.116376495081782</v>
       </c>
       <c r="AN16" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>3.5</v>
       </c>
       <c r="AO16" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP16" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ16" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>9.9675477413734392E-2</v>
+        <f>IF(AN16&gt;Maturity,"-",EXP(-DomesticHazardRate*AN15)-EXP(-DomesticHazardRate*AN16))</f>
+        <v>6.7778189695361091E-3</v>
       </c>
       <c r="AR16" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.1093109256650705</v>
+        <f>IF(AN16&gt;Maturity,"-",EXP(-QuantoHazardRate*AN15)-EXP(-QuantoHazardRate*AN16))</f>
+        <v>7.3952501895521161E-3</v>
       </c>
       <c r="AS16" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.70468808971871344</v>
       </c>
       <c r="AT16" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>42144.073062291158</v>
+        <f t="shared" si="22"/>
+        <v>2865.7489812609956</v>
       </c>
       <c r="AU16" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>46218.064435381697</v>
+        <f t="shared" si="23"/>
+        <v>3126.8068374404602</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="18">
@@ -20692,116 +20692,116 @@
       <c r="G17" s="1"/>
       <c r="P17" s="3"/>
       <c r="R17" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>3.75</v>
       </c>
       <c r="S17" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U17" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V17" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W17" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.89359734710851568</v>
       </c>
       <c r="X17" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.88335472012571326</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.68728927879097224</v>
       </c>
       <c r="Z17" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2855.8434244403807</v>
       </c>
       <c r="AA17" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2823.109062579882</v>
       </c>
       <c r="AC17" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="AD17" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE17" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF17" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG17" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.10640265289148432</v>
+        <f>IF(AC17&gt;Maturity,"-",EXP(-DomesticHazardRate*AC16)-EXP(-DomesticHazardRate*AC17))</f>
+        <v>6.7271754777499249E-3</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.11664527987428674</v>
+        <f>IF(AC17&gt;Maturity,"-",EXP(-QuantoHazardRate*AC16)-EXP(-QuantoHazardRate*AC17))</f>
+        <v>7.3343542092162428E-3</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.68728927879097224</v>
       </c>
       <c r="AK17" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-170.02586096882001</v>
+        <f t="shared" si="15"/>
+        <v>-10.749673729087116</v>
       </c>
       <c r="AL17" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-186.39304189906943</v>
+        <f t="shared" si="16"/>
+        <v>-11.7199135095257</v>
       </c>
       <c r="AN17" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>3.75</v>
       </c>
       <c r="AO17" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP17" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ17" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.10640265289148432</v>
+        <f>IF(AN17&gt;Maturity,"-",EXP(-DomesticHazardRate*AN16)-EXP(-DomesticHazardRate*AN17))</f>
+        <v>6.7271754777499249E-3</v>
       </c>
       <c r="AR17" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.11664527987428674</v>
+        <f>IF(AN17&gt;Maturity,"-",EXP(-QuantoHazardRate*AN16)-EXP(-QuantoHazardRate*AN17))</f>
+        <v>7.3343542092162428E-3</v>
       </c>
       <c r="AS17" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.68728927879097224</v>
       </c>
       <c r="AT17" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>43877.64154034065</v>
+        <f t="shared" si="22"/>
+        <v>2774.109349441836</v>
       </c>
       <c r="AU17" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>48101.430167501792</v>
+        <f t="shared" si="23"/>
+        <v>3024.4938089098578</v>
       </c>
     </row>
     <row r="18" spans="2:47" ht="18">
@@ -20816,116 +20816,116 @@
       <c r="G18" s="1"/>
       <c r="P18" s="3"/>
       <c r="R18" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="S18" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U18" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V18" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.88692043671715748</v>
       </c>
       <c r="X18" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.87608076045059002</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.67032004603563933</v>
       </c>
       <c r="Z18" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2764.5205480614036</v>
       </c>
       <c r="AA18" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2730.7334048942248</v>
       </c>
       <c r="AC18" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AD18" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE18" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF18" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG18" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.11307956328284252</v>
+        <f>IF(AC18&gt;Maturity,"-",EXP(-DomesticHazardRate*AC17)-EXP(-DomesticHazardRate*AC18))</f>
+        <v>6.676910391358204E-3</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.12391923954940998</v>
+        <f>IF(AC18&gt;Maturity,"-",EXP(-QuantoHazardRate*AC17)-EXP(-QuantoHazardRate*AC18))</f>
+        <v>7.2739596751232316E-3</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.67032004603563933</v>
       </c>
       <c r="AK18" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-176.23383300215963</v>
+        <f t="shared" si="15"/>
+        <v>-10.405925498118238</v>
       </c>
       <c r="AL18" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-193.12740458574896</v>
+        <f t="shared" si="16"/>
+        <v>-11.336423288474226</v>
       </c>
       <c r="AN18" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="AO18" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP18" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ18" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.11307956328284252</v>
+        <f>IF(AN18&gt;Maturity,"-",EXP(-DomesticHazardRate*AN17)-EXP(-DomesticHazardRate*AN18))</f>
+        <v>6.676910391358204E-3</v>
       </c>
       <c r="AR18" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.12391923954940998</v>
+        <f>IF(AN18&gt;Maturity,"-",EXP(-QuantoHazardRate*AN17)-EXP(-QuantoHazardRate*AN18))</f>
+        <v>7.2739596751232316E-3</v>
       </c>
       <c r="AS18" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.67032004603563933</v>
       </c>
       <c r="AT18" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>45479.698839266995</v>
+        <f t="shared" si="22"/>
+        <v>2685.400128546642</v>
       </c>
       <c r="AU18" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>49839.330215677146</v>
+        <f t="shared" si="23"/>
+        <v>2925.5285905739934</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="17.25">
@@ -20933,7 +20933,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="60">
-        <f ca="1">(1+FX_Jump)*(1+0.5*Correlation*Volatility_Credit*Volatility_FX)*DomesticHazardRate</f>
+        <f>(1+FX_Jump)*(1+0.5*Correlation*Volatility_Credit*Volatility_FX)*DomesticHazardRate</f>
         <v>3.3074249999999999E-2</v>
       </c>
       <c r="E19" s="66"/>
@@ -20941,461 +20941,461 @@
       <c r="G19" s="1"/>
       <c r="P19" s="3"/>
       <c r="R19" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>4.25</v>
       </c>
       <c r="S19" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U19" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V19" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.88029341583422116</v>
       </c>
       <c r="X19" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.8688666979924623</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.65376978512984729</v>
       </c>
       <c r="Z19" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2676.1179535433853</v>
       </c>
       <c r="AA19" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2641.380394206506</v>
       </c>
       <c r="AC19" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>4.25</v>
       </c>
       <c r="AD19" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE19" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF19" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG19" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH19" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.11970658416577884</v>
+        <f>IF(AC19&gt;Maturity,"-",EXP(-DomesticHazardRate*AC18)-EXP(-DomesticHazardRate*AC19))</f>
+        <v>6.6270208829363186E-3</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.1311333020075377</v>
+        <f>IF(AC19&gt;Maturity,"-",EXP(-QuantoHazardRate*AC18)-EXP(-QuantoHazardRate*AC19))</f>
+        <v>7.2140624581277235E-3</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.65376978512984729</v>
       </c>
       <c r="AK19" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-181.95577365520242</v>
+        <f t="shared" si="15"/>
+        <v>-10.073169493450269</v>
       </c>
       <c r="AL19" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-199.32455332364208</v>
+        <f t="shared" si="16"/>
+        <v>-10.965481346855043</v>
       </c>
       <c r="AN19" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>4.25</v>
       </c>
       <c r="AO19" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP19" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ19" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.11970658416577884</v>
+        <f>IF(AN19&gt;Maturity,"-",EXP(-DomesticHazardRate*AN18)-EXP(-DomesticHazardRate*AN19))</f>
+        <v>6.6270208829363186E-3</v>
       </c>
       <c r="AR19" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.1311333020075377</v>
+        <f>IF(AN19&gt;Maturity,"-",EXP(-QuantoHazardRate*AN18)-EXP(-QuantoHazardRate*AN19))</f>
+        <v>7.2140624581277235E-3</v>
       </c>
       <c r="AS19" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.65376978512984729</v>
       </c>
       <c r="AT19" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>46956.328685213528</v>
+        <f t="shared" si="22"/>
+        <v>2599.5276112129727</v>
       </c>
       <c r="AU19" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>51438.594406101176</v>
+        <f t="shared" si="23"/>
+        <v>2829.801637898076</v>
       </c>
     </row>
     <row r="20" spans="2:47">
       <c r="P20" s="3"/>
       <c r="R20" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U20" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V20" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W20" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.87371591168803442</v>
       </c>
       <c r="X20" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.86171203952937603</v>
       </c>
       <c r="Y20" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.63762815162177333</v>
       </c>
       <c r="Z20" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2590.5422574266086</v>
       </c>
       <c r="AA20" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2554.9511257283516</v>
       </c>
       <c r="AC20" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>4.5</v>
       </c>
       <c r="AD20" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE20" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF20" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG20" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH20" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.12628408831196558</v>
+        <f>IF(AC20&gt;Maturity,"-",EXP(-DomesticHazardRate*AC19)-EXP(-DomesticHazardRate*AC20))</f>
+        <v>6.5775041461867412E-3</v>
       </c>
       <c r="AI20" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.13828796047062397</v>
+        <f>IF(AC20&gt;Maturity,"-",EXP(-QuantoHazardRate*AC19)-EXP(-QuantoHazardRate*AC20))</f>
+        <v>7.154658463086272E-3</v>
       </c>
       <c r="AJ20" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.63762815162177333</v>
       </c>
       <c r="AK20" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-187.21432380731864</v>
+        <f t="shared" si="15"/>
+        <v>-9.7510542106159246</v>
       </c>
       <c r="AL20" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-205.00988965644703</v>
+        <f t="shared" si="16"/>
+        <v>-10.606677089278955</v>
       </c>
       <c r="AN20" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>4.5</v>
       </c>
       <c r="AO20" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP20" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ20" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.12628408831196558</v>
+        <f>IF(AN20&gt;Maturity,"-",EXP(-DomesticHazardRate*AN19)-EXP(-DomesticHazardRate*AN20))</f>
+        <v>6.5775041461867412E-3</v>
       </c>
       <c r="AR20" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.13828796047062397</v>
+        <f>IF(AN20&gt;Maturity,"-",EXP(-QuantoHazardRate*AN19)-EXP(-QuantoHazardRate*AN20))</f>
+        <v>7.154658463086272E-3</v>
       </c>
       <c r="AS20" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.63762815162177333</v>
       </c>
       <c r="AT20" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>48313.37388575964</v>
+        <f t="shared" si="22"/>
+        <v>2516.4010866105614</v>
       </c>
       <c r="AU20" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>52905.777975857294</v>
+        <f t="shared" si="23"/>
+        <v>2737.2069907816663</v>
       </c>
     </row>
     <row r="21" spans="2:47">
       <c r="P21" s="3"/>
       <c r="R21" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>4.75</v>
       </c>
       <c r="S21" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U21" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V21" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W21" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.86718755429225491</v>
       </c>
       <c r="X21" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.85461629590079957</v>
       </c>
       <c r="Y21" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.62188505646502001</v>
       </c>
       <c r="Z21" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2507.7030624256272</v>
       </c>
       <c r="AA21" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2471.3499309597069</v>
       </c>
       <c r="AC21" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>4.75</v>
       </c>
       <c r="AD21" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE21" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG21" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH21" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.13281244570774509</v>
+        <f>IF(AC21&gt;Maturity,"-",EXP(-DomesticHazardRate*AC20)-EXP(-DomesticHazardRate*AC21))</f>
+        <v>6.5283573957795049E-3</v>
       </c>
       <c r="AI21" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.14538370409920043</v>
+        <f>IF(AC21&gt;Maturity,"-",EXP(-QuantoHazardRate*AC20)-EXP(-QuantoHazardRate*AC21))</f>
+        <v>7.0957436285764564E-3</v>
       </c>
       <c r="AJ21" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.62188505646502001</v>
       </c>
       <c r="AK21" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-192.03122506835794</v>
+        <f t="shared" si="15"/>
+        <v>-9.4392393853982419</v>
       </c>
       <c r="AL21" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-210.2077908013182</v>
+        <f t="shared" si="16"/>
+        <v>-10.259613355550689</v>
       </c>
       <c r="AN21" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>4.75</v>
       </c>
       <c r="AO21" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP21" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ21" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.13281244570774509</v>
+        <f>IF(AN21&gt;Maturity,"-",EXP(-DomesticHazardRate*AN20)-EXP(-DomesticHazardRate*AN21))</f>
+        <v>6.5283573957795049E-3</v>
       </c>
       <c r="AR21" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.14538370409920043</v>
+        <f>IF(AN21&gt;Maturity,"-",EXP(-QuantoHazardRate*AN20)-EXP(-QuantoHazardRate*AN21))</f>
+        <v>7.0957436285764564E-3</v>
       </c>
       <c r="AS21" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.62188505646502001</v>
       </c>
       <c r="AT21" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>49556.445178931077</v>
+        <f t="shared" si="22"/>
+        <v>2435.9327446189009</v>
       </c>
       <c r="AU21" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>54247.171819695017</v>
+        <f t="shared" si="23"/>
+        <v>2647.6421562711453</v>
       </c>
     </row>
     <row r="22" spans="2:47">
       <c r="P22" s="3"/>
       <c r="R22" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="S22" s="22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="T22" s="24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="U22" s="36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="V22" s="22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-4650</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.86070797642505781</v>
       </c>
       <c r="X22" s="50">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.84757898197418036</v>
       </c>
       <c r="Y22" s="23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.60653065971263342</v>
       </c>
       <c r="Z22" s="22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-2427.5128619387247</v>
       </c>
       <c r="AA22" s="25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-2390.4842717934325</v>
       </c>
       <c r="AC22" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AD22" s="22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>-1000000</v>
       </c>
       <c r="AE22" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="AF22" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="AG22" s="22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>-2325</v>
       </c>
       <c r="AH22" s="23">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.13929202357494219</v>
+        <f>IF(AC22&gt;Maturity,"-",EXP(-DomesticHazardRate*AC21)-EXP(-DomesticHazardRate*AC22))</f>
+        <v>6.479577867197106E-3</v>
       </c>
       <c r="AI22" s="23">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.15242101802581964</v>
+        <f>IF(AC22&gt;Maturity,"-",EXP(-QuantoHazardRate*AC21)-EXP(-QuantoHazardRate*AC22))</f>
+        <v>7.0373139266192153E-3</v>
       </c>
       <c r="AJ22" s="23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0.60653065971263342</v>
       </c>
       <c r="AK22" s="22">
-        <f t="shared" ca="1" si="15"/>
-        <v>-196.42735286251042</v>
+        <f t="shared" si="15"/>
+        <v>-9.1373956343972704</v>
       </c>
       <c r="AL22" s="25">
-        <f t="shared" ca="1" si="16"/>
-        <v>-214.94164793515645</v>
+        <f t="shared" si="16"/>
+        <v>-9.9239059810526182</v>
       </c>
       <c r="AN22" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="AO22" s="22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>1000000</v>
       </c>
       <c r="AP22" s="22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>600000</v>
       </c>
       <c r="AQ22" s="23">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.13929202357494219</v>
+        <f>IF(AN22&gt;Maturity,"-",EXP(-DomesticHazardRate*AN21)-EXP(-DomesticHazardRate*AN22))</f>
+        <v>6.479577867197106E-3</v>
       </c>
       <c r="AR22" s="23">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.15242101802581964</v>
+        <f>IF(AN22&gt;Maturity,"-",EXP(-QuantoHazardRate*AN21)-EXP(-QuantoHazardRate*AN22))</f>
+        <v>7.0373139266192153E-3</v>
       </c>
       <c r="AS22" s="23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="21"/>
         <v>0.60653065971263342</v>
       </c>
       <c r="AT22" s="22">
-        <f t="shared" ca="1" si="22"/>
-        <v>50690.929770970426</v>
+        <f t="shared" si="22"/>
+        <v>2358.0375830702633</v>
       </c>
       <c r="AU22" s="25">
-        <f t="shared" ca="1" si="23"/>
-        <v>55468.812370362946</v>
+        <f t="shared" si="23"/>
+        <v>2561.007995110353</v>
       </c>
     </row>
     <row r="23" spans="2:47">
@@ -21413,115 +21413,115 @@
       </c>
       <c r="P23" s="3"/>
       <c r="R23" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>5.25</v>
       </c>
       <c r="S23" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T23" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U23" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V23" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W23" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X23" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y23" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z23" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA23" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC23" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>5.25</v>
       </c>
       <c r="AD23" s="22" t="str">
-        <f t="shared" ref="AD23:AD44" ca="1" si="34">IF(AC23&gt;Maturity,"-",-Phi*Notional)</f>
+        <f t="shared" ref="AD23:AD44" si="34">IF(AC23&gt;Maturity,"-",-Phi*Notional)</f>
         <v>-</v>
       </c>
       <c r="AE23" s="24" t="str">
-        <f t="shared" ref="AE23:AE44" ca="1" si="35">IF(AC23&gt;Maturity,"-",Premium)</f>
+        <f t="shared" ref="AE23:AE44" si="35">IF(AC23&gt;Maturity,"-",Premium)</f>
         <v>-</v>
       </c>
       <c r="AF23" s="41" t="str">
-        <f t="shared" ref="AF23:AF44" ca="1" si="36">IF(AC23&gt;Maturity,"-",YearFraction/2)</f>
+        <f t="shared" ref="AF23:AF44" si="36">IF(AC23&gt;Maturity,"-",YearFraction/2)</f>
         <v>-</v>
       </c>
       <c r="AG23" s="22" t="str">
-        <f t="shared" ref="AG23:AG44" ca="1" si="37">IF(AC23&gt;Maturity,"-",AD23*AE23*AF23)</f>
+        <f t="shared" ref="AG23:AG44" si="37">IF(AC23&gt;Maturity,"-",AD23*AE23*AF23)</f>
         <v>-</v>
       </c>
       <c r="AH23" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC23&gt;Maturity,"-",EXP(-DomesticHazardRate*AC22)-EXP(-DomesticHazardRate*AC23))</f>
         <v>-</v>
       </c>
       <c r="AI23" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC23&gt;Maturity,"-",EXP(-QuantoHazardRate*AC22)-EXP(-QuantoHazardRate*AC23))</f>
         <v>-</v>
       </c>
       <c r="AJ23" s="23" t="str">
-        <f t="shared" ref="AJ23:AJ44" ca="1" si="38">IF(AC23&gt;Maturity,"-",EXP(-ZeroRate*AC23))</f>
+        <f t="shared" ref="AJ23:AJ44" si="38">IF(AC23&gt;Maturity,"-",EXP(-ZeroRate*AC23))</f>
         <v>-</v>
       </c>
       <c r="AK23" s="22" t="str">
-        <f t="shared" ref="AK23:AK44" ca="1" si="39">IF(AC23&gt;Maturity,"-",AG23*AH23*AJ23)</f>
+        <f t="shared" ref="AK23:AK44" si="39">IF(AC23&gt;Maturity,"-",AG23*AH23*AJ23)</f>
         <v>-</v>
       </c>
       <c r="AL23" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN23" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>5.25</v>
       </c>
       <c r="AO23" s="22" t="str">
-        <f t="shared" ref="AO23:AO44" ca="1" si="40">IF(AN23&gt;Maturity,"-",Phi*Notional)</f>
+        <f t="shared" ref="AO23:AO44" si="40">IF(AN23&gt;Maturity,"-",Phi*Notional)</f>
         <v>-</v>
       </c>
       <c r="AP23" s="22" t="str">
-        <f t="shared" ref="AP23:AP44" ca="1" si="41">IF(AN23&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
+        <f t="shared" ref="AP23:AP44" si="41">IF(AN23&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
         <v>-</v>
       </c>
       <c r="AQ23" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN23&gt;Maturity,"-",EXP(-DomesticHazardRate*AN22)-EXP(-DomesticHazardRate*AN23))</f>
         <v>-</v>
       </c>
       <c r="AR23" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN23&gt;Maturity,"-",EXP(-QuantoHazardRate*AN22)-EXP(-QuantoHazardRate*AN23))</f>
         <v>-</v>
       </c>
       <c r="AS23" s="23" t="str">
-        <f t="shared" ref="AS23:AS44" ca="1" si="42">IF(AN23&gt;Maturity,"-",EXP(-ZeroRate*AN23))</f>
+        <f t="shared" ref="AS23:AS44" si="42">IF(AN23&gt;Maturity,"-",EXP(-ZeroRate*AN23))</f>
         <v>-</v>
       </c>
       <c r="AT23" s="22" t="str">
-        <f t="shared" ref="AT23:AT44" ca="1" si="43">IF(AN23&gt;Maturity,"-",AP23*AQ23*AS23)</f>
+        <f t="shared" ref="AT23:AT44" si="43">IF(AN23&gt;Maturity,"-",AP23*AQ23*AS23)</f>
         <v>-</v>
       </c>
       <c r="AU23" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -21530,128 +21530,128 @@
         <v>6</v>
       </c>
       <c r="C24" s="61">
-        <f ca="1">SUM(C25:C27)</f>
-        <v>574777.88223006099</v>
+        <f>SUM(C25:C27)</f>
+        <v>-2178.7656959369269</v>
       </c>
       <c r="D24" s="61">
-        <f ca="1">SUM(D25:D27)</f>
-        <v>637606.85727539798</v>
+        <f>SUM(D25:D27)</f>
+        <v>4487.4155105993123</v>
       </c>
       <c r="E24" s="61">
-        <f ca="1">D24-C24</f>
-        <v>62828.975045336992</v>
+        <f>D24-C24</f>
+        <v>6666.1812065362392</v>
       </c>
       <c r="P24" s="3"/>
       <c r="R24" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>5.5</v>
       </c>
       <c r="S24" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T24" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U24" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V24" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W24" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X24" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y24" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z24" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA24" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC24" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>5.5</v>
       </c>
       <c r="AD24" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE24" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF24" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG24" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH24" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC24&gt;Maturity,"-",EXP(-DomesticHazardRate*AC23)-EXP(-DomesticHazardRate*AC24))</f>
         <v>-</v>
       </c>
       <c r="AI24" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC24&gt;Maturity,"-",EXP(-QuantoHazardRate*AC23)-EXP(-QuantoHazardRate*AC24))</f>
         <v>-</v>
       </c>
       <c r="AJ24" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK24" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL24" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN24" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>5.5</v>
       </c>
       <c r="AO24" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP24" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ24" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN24&gt;Maturity,"-",EXP(-DomesticHazardRate*AN23)-EXP(-DomesticHazardRate*AN24))</f>
         <v>-</v>
       </c>
       <c r="AR24" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN24&gt;Maturity,"-",EXP(-QuantoHazardRate*AN23)-EXP(-QuantoHazardRate*AN24))</f>
         <v>-</v>
       </c>
       <c r="AS24" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT24" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU24" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -21660,129 +21660,129 @@
         <v>1</v>
       </c>
       <c r="C25" s="14">
-        <f ca="1">PremiumLegTotalPV</f>
+        <f>PremiumLegTotalPV</f>
         <v>-67278.995193661933</v>
       </c>
       <c r="D25" s="14">
-        <f ca="1">QuantoPremiumLegTotalPV</f>
+        <f>QuantoPremiumLegTotalPV</f>
         <v>-66793.950186463466</v>
       </c>
       <c r="E25" s="14">
-        <f ca="1">D25-C25</f>
+        <f>D25-C25</f>
         <v>485.04500719846692</v>
       </c>
       <c r="I25" s="47"/>
       <c r="P25" s="3"/>
       <c r="R25" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>5.75</v>
       </c>
       <c r="S25" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T25" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U25" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V25" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W25" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X25" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y25" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z25" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA25" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC25" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>5.75</v>
       </c>
       <c r="AD25" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE25" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF25" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG25" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH25" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC25&gt;Maturity,"-",EXP(-DomesticHazardRate*AC24)-EXP(-DomesticHazardRate*AC25))</f>
         <v>-</v>
       </c>
       <c r="AI25" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC25&gt;Maturity,"-",EXP(-QuantoHazardRate*AC24)-EXP(-QuantoHazardRate*AC25))</f>
         <v>-</v>
       </c>
       <c r="AJ25" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK25" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL25" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN25" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>5.75</v>
       </c>
       <c r="AO25" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP25" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ25" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN25&gt;Maturity,"-",EXP(-DomesticHazardRate*AN24)-EXP(-DomesticHazardRate*AN25))</f>
         <v>-</v>
       </c>
       <c r="AR25" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN25&gt;Maturity,"-",EXP(-QuantoHazardRate*AN24)-EXP(-QuantoHazardRate*AN25))</f>
         <v>-</v>
       </c>
       <c r="AS25" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT25" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU25" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -21791,129 +21791,129 @@
         <v>16</v>
       </c>
       <c r="C26" s="14">
-        <f ca="1">AccruedInterestTotalPV</f>
-        <v>-2497.6487890745898</v>
+        <f>AccruedInterestTotalPV</f>
+        <v>-253.24471256487331</v>
       </c>
       <c r="D26" s="14">
-        <f ca="1">QuantoAccruedInterestTotalPV</f>
-        <v>-2740.1712926738246</v>
+        <f>QuantoAccruedInterestTotalPV</f>
+        <v>-277.28979001241635</v>
       </c>
       <c r="E26" s="14">
-        <f ca="1">D26-C26</f>
-        <v>-242.52250359923482</v>
+        <f>D26-C26</f>
+        <v>-24.045077447543036</v>
       </c>
       <c r="I26" s="44"/>
       <c r="P26" s="3"/>
       <c r="R26" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="S26" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T26" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U26" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V26" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W26" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X26" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y26" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z26" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA26" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC26" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AD26" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE26" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF26" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG26" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH26" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC26&gt;Maturity,"-",EXP(-DomesticHazardRate*AC25)-EXP(-DomesticHazardRate*AC26))</f>
         <v>-</v>
       </c>
       <c r="AI26" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC26&gt;Maturity,"-",EXP(-QuantoHazardRate*AC25)-EXP(-QuantoHazardRate*AC26))</f>
         <v>-</v>
       </c>
       <c r="AJ26" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK26" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL26" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN26" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="AO26" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP26" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ26" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN26&gt;Maturity,"-",EXP(-DomesticHazardRate*AN25)-EXP(-DomesticHazardRate*AN26))</f>
         <v>-</v>
       </c>
       <c r="AR26" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN26&gt;Maturity,"-",EXP(-QuantoHazardRate*AN25)-EXP(-QuantoHazardRate*AN26))</f>
         <v>-</v>
       </c>
       <c r="AS26" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT26" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU26" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -21922,244 +21922,244 @@
         <v>2</v>
       </c>
       <c r="C27" s="15">
-        <f ca="1">ProtectionLegTotalPV</f>
-        <v>644554.5262127975</v>
+        <f>ProtectionLegTotalPV</f>
+        <v>65353.474210289882</v>
       </c>
       <c r="D27" s="15">
-        <f ca="1">QuantoProtectionLegTotalPV</f>
-        <v>707140.97875453532</v>
+        <f>QuantoProtectionLegTotalPV</f>
+        <v>71558.655487075201</v>
       </c>
       <c r="E27" s="15">
-        <f ca="1">D27-C27</f>
-        <v>62586.452541737817</v>
+        <f>D27-C27</f>
+        <v>6205.1812767853189</v>
       </c>
       <c r="I27" s="63"/>
       <c r="P27" s="3"/>
       <c r="R27" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>6.25</v>
       </c>
       <c r="S27" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T27" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U27" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V27" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W27" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X27" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y27" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z27" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA27" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC27" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>6.25</v>
       </c>
       <c r="AD27" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE27" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF27" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG27" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH27" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC27&gt;Maturity,"-",EXP(-DomesticHazardRate*AC26)-EXP(-DomesticHazardRate*AC27))</f>
         <v>-</v>
       </c>
       <c r="AI27" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC27&gt;Maturity,"-",EXP(-QuantoHazardRate*AC26)-EXP(-QuantoHazardRate*AC27))</f>
         <v>-</v>
       </c>
       <c r="AJ27" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK27" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL27" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN27" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>6.25</v>
       </c>
       <c r="AO27" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP27" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ27" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN27&gt;Maturity,"-",EXP(-DomesticHazardRate*AN26)-EXP(-DomesticHazardRate*AN27))</f>
         <v>-</v>
       </c>
       <c r="AR27" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN27&gt;Maturity,"-",EXP(-QuantoHazardRate*AN26)-EXP(-QuantoHazardRate*AN27))</f>
         <v>-</v>
       </c>
       <c r="AS27" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT27" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU27" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="28" spans="2:47">
       <c r="P28" s="3"/>
       <c r="R28" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>6.5</v>
       </c>
       <c r="S28" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T28" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U28" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V28" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W28" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X28" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y28" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z28" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA28" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC28" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>6.5</v>
       </c>
       <c r="AD28" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE28" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF28" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG28" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH28" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC28&gt;Maturity,"-",EXP(-DomesticHazardRate*AC27)-EXP(-DomesticHazardRate*AC28))</f>
         <v>-</v>
       </c>
       <c r="AI28" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC28&gt;Maturity,"-",EXP(-QuantoHazardRate*AC27)-EXP(-QuantoHazardRate*AC28))</f>
         <v>-</v>
       </c>
       <c r="AJ28" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK28" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL28" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN28" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>6.5</v>
       </c>
       <c r="AO28" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP28" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ28" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN28&gt;Maturity,"-",EXP(-DomesticHazardRate*AN27)-EXP(-DomesticHazardRate*AN28))</f>
         <v>-</v>
       </c>
       <c r="AR28" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN28&gt;Maturity,"-",EXP(-QuantoHazardRate*AN27)-EXP(-QuantoHazardRate*AN28))</f>
         <v>-</v>
       </c>
       <c r="AS28" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT28" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU28" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -22178,115 +22178,115 @@
       </c>
       <c r="P29" s="3"/>
       <c r="R29" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>6.75</v>
       </c>
       <c r="S29" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T29" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U29" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V29" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W29" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X29" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y29" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z29" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA29" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC29" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>6.75</v>
       </c>
       <c r="AD29" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE29" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF29" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG29" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH29" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC29&gt;Maturity,"-",EXP(-DomesticHazardRate*AC28)-EXP(-DomesticHazardRate*AC29))</f>
         <v>-</v>
       </c>
       <c r="AI29" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC29&gt;Maturity,"-",EXP(-QuantoHazardRate*AC28)-EXP(-QuantoHazardRate*AC29))</f>
         <v>-</v>
       </c>
       <c r="AJ29" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK29" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL29" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN29" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>6.75</v>
       </c>
       <c r="AO29" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP29" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ29" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN29&gt;Maturity,"-",EXP(-DomesticHazardRate*AN28)-EXP(-DomesticHazardRate*AN29))</f>
         <v>-</v>
       </c>
       <c r="AR29" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN29&gt;Maturity,"-",EXP(-QuantoHazardRate*AN28)-EXP(-QuantoHazardRate*AN29))</f>
         <v>-</v>
       </c>
       <c r="AS29" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT29" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU29" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -22295,128 +22295,128 @@
         <v>22</v>
       </c>
       <c r="C30" s="62">
-        <f ca="1">C31/C32</f>
-        <v>0.17750351184207747</v>
+        <f>C31/C32</f>
+        <v>1.7997656849247288E-2</v>
       </c>
       <c r="D30" s="62">
-        <f ca="1">D31/D32</f>
-        <v>0.19615331900891017</v>
+        <f>D31/D32</f>
+        <v>1.984960311920678E-2</v>
       </c>
       <c r="E30" s="62">
-        <f ca="1">D30-C30</f>
-        <v>1.8649807166832705E-2</v>
+        <f>D30-C30</f>
+        <v>1.8519462699594924E-3</v>
       </c>
       <c r="P30" s="3"/>
       <c r="R30" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="S30" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T30" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U30" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V30" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W30" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X30" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y30" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z30" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA30" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC30" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AD30" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE30" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF30" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG30" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH30" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC30&gt;Maturity,"-",EXP(-DomesticHazardRate*AC29)-EXP(-DomesticHazardRate*AC30))</f>
         <v>-</v>
       </c>
       <c r="AI30" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC30&gt;Maturity,"-",EXP(-QuantoHazardRate*AC29)-EXP(-QuantoHazardRate*AC30))</f>
         <v>-</v>
       </c>
       <c r="AJ30" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK30" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL30" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN30" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="AO30" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP30" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ30" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN30&gt;Maturity,"-",EXP(-DomesticHazardRate*AN29)-EXP(-DomesticHazardRate*AN30))</f>
         <v>-</v>
       </c>
       <c r="AR30" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN30&gt;Maturity,"-",EXP(-QuantoHazardRate*AN29)-EXP(-QuantoHazardRate*AN30))</f>
         <v>-</v>
       </c>
       <c r="AS30" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT30" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU30" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -22425,128 +22425,128 @@
         <v>17</v>
       </c>
       <c r="C31" s="14">
-        <f ca="1">-ProtectionLegTotalPV-AccruedInterestTotalPV</f>
-        <v>-642056.87742372288</v>
+        <f>-ProtectionLegTotalPV-AccruedInterestTotalPV</f>
+        <v>-65100.229497725006</v>
       </c>
       <c r="D31" s="14">
-        <f ca="1">-QuantoProtectionLegTotalPV-QuantoAccruedInterestTotalPV</f>
-        <v>-704400.80746186152</v>
+        <f>-QuantoProtectionLegTotalPV-QuantoAccruedInterestTotalPV</f>
+        <v>-71281.365697062778</v>
       </c>
       <c r="E31" s="14">
-        <f ca="1">D31-C31</f>
-        <v>-62343.930038138642</v>
+        <f>D31-C31</f>
+        <v>-6181.1361993377723</v>
       </c>
       <c r="P31" s="3"/>
       <c r="R31" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>7.25</v>
       </c>
       <c r="S31" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T31" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U31" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V31" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W31" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X31" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y31" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z31" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA31" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC31" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>7.25</v>
       </c>
       <c r="AD31" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE31" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF31" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG31" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH31" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC31&gt;Maturity,"-",EXP(-DomesticHazardRate*AC30)-EXP(-DomesticHazardRate*AC31))</f>
         <v>-</v>
       </c>
       <c r="AI31" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC31&gt;Maturity,"-",EXP(-QuantoHazardRate*AC30)-EXP(-QuantoHazardRate*AC31))</f>
         <v>-</v>
       </c>
       <c r="AJ31" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK31" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL31" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN31" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>7.25</v>
       </c>
       <c r="AO31" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP31" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ31" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN31&gt;Maturity,"-",EXP(-DomesticHazardRate*AN30)-EXP(-DomesticHazardRate*AN31))</f>
         <v>-</v>
       </c>
       <c r="AR31" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN31&gt;Maturity,"-",EXP(-QuantoHazardRate*AN30)-EXP(-QuantoHazardRate*AN31))</f>
         <v>-</v>
       </c>
       <c r="AS31" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT31" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU31" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -22555,473 +22555,473 @@
         <v>7</v>
       </c>
       <c r="C32" s="52">
-        <f ca="1">SUMPRODUCT(S3:S44,U3:U44,W3:W44,Y3:Y44)</f>
+        <f>SUMPRODUCT(S3:S44,U3:U44,W3:W44,Y3:Y44)</f>
         <v>-3617150.2792291366</v>
       </c>
       <c r="D32" s="52">
-        <f ca="1">SUMPRODUCT(S3:S44,U3:U44,X3:X44,Y3:Y44)</f>
+        <f>SUMPRODUCT(S3:S44,U3:U44,X3:X44,Y3:Y44)</f>
         <v>-3591072.590670079</v>
       </c>
       <c r="E32" s="15">
-        <f ca="1">D32-C32</f>
+        <f>D32-C32</f>
         <v>26077.688559057657</v>
       </c>
       <c r="P32" s="3"/>
       <c r="R32" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>7.5</v>
       </c>
       <c r="S32" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T32" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U32" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V32" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W32" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X32" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y32" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z32" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA32" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC32" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>7.5</v>
       </c>
       <c r="AD32" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE32" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF32" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG32" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH32" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC32&gt;Maturity,"-",EXP(-DomesticHazardRate*AC31)-EXP(-DomesticHazardRate*AC32))</f>
         <v>-</v>
       </c>
       <c r="AI32" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC32&gt;Maturity,"-",EXP(-QuantoHazardRate*AC31)-EXP(-QuantoHazardRate*AC32))</f>
         <v>-</v>
       </c>
       <c r="AJ32" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK32" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL32" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN32" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>7.5</v>
       </c>
       <c r="AO32" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP32" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ32" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN32&gt;Maturity,"-",EXP(-DomesticHazardRate*AN31)-EXP(-DomesticHazardRate*AN32))</f>
         <v>-</v>
       </c>
       <c r="AR32" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN32&gt;Maturity,"-",EXP(-QuantoHazardRate*AN31)-EXP(-QuantoHazardRate*AN32))</f>
         <v>-</v>
       </c>
       <c r="AS32" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT32" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU32" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="33" spans="8:47">
       <c r="P33" s="3"/>
       <c r="R33" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>7.75</v>
       </c>
       <c r="S33" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T33" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U33" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V33" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W33" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X33" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y33" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z33" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA33" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC33" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>7.75</v>
       </c>
       <c r="AD33" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE33" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF33" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG33" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH33" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC33&gt;Maturity,"-",EXP(-DomesticHazardRate*AC32)-EXP(-DomesticHazardRate*AC33))</f>
         <v>-</v>
       </c>
       <c r="AI33" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC33&gt;Maturity,"-",EXP(-QuantoHazardRate*AC32)-EXP(-QuantoHazardRate*AC33))</f>
         <v>-</v>
       </c>
       <c r="AJ33" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK33" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL33" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN33" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>7.75</v>
       </c>
       <c r="AO33" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP33" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ33" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN33&gt;Maturity,"-",EXP(-DomesticHazardRate*AN32)-EXP(-DomesticHazardRate*AN33))</f>
         <v>-</v>
       </c>
       <c r="AR33" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN33&gt;Maturity,"-",EXP(-QuantoHazardRate*AN32)-EXP(-QuantoHazardRate*AN33))</f>
         <v>-</v>
       </c>
       <c r="AS33" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT33" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU33" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="34" spans="8:47">
       <c r="P34" s="3"/>
       <c r="R34" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="S34" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T34" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U34" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V34" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W34" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X34" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y34" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z34" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA34" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC34" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AD34" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE34" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF34" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG34" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH34" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC34&gt;Maturity,"-",EXP(-DomesticHazardRate*AC33)-EXP(-DomesticHazardRate*AC34))</f>
         <v>-</v>
       </c>
       <c r="AI34" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC34&gt;Maturity,"-",EXP(-QuantoHazardRate*AC33)-EXP(-QuantoHazardRate*AC34))</f>
         <v>-</v>
       </c>
       <c r="AJ34" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK34" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL34" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN34" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="AO34" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP34" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ34" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN34&gt;Maturity,"-",EXP(-DomesticHazardRate*AN33)-EXP(-DomesticHazardRate*AN34))</f>
         <v>-</v>
       </c>
       <c r="AR34" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN34&gt;Maturity,"-",EXP(-QuantoHazardRate*AN33)-EXP(-QuantoHazardRate*AN34))</f>
         <v>-</v>
       </c>
       <c r="AS34" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT34" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU34" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="35" spans="8:47">
       <c r="P35" s="3"/>
       <c r="R35" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>8.25</v>
       </c>
       <c r="S35" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T35" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U35" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V35" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W35" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X35" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y35" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z35" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA35" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC35" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>8.25</v>
       </c>
       <c r="AD35" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE35" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF35" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG35" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH35" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC35&gt;Maturity,"-",EXP(-DomesticHazardRate*AC34)-EXP(-DomesticHazardRate*AC35))</f>
         <v>-</v>
       </c>
       <c r="AI35" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC35&gt;Maturity,"-",EXP(-QuantoHazardRate*AC34)-EXP(-QuantoHazardRate*AC35))</f>
         <v>-</v>
       </c>
       <c r="AJ35" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK35" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL35" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN35" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>8.25</v>
       </c>
       <c r="AO35" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP35" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ35" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN35&gt;Maturity,"-",EXP(-DomesticHazardRate*AN34)-EXP(-DomesticHazardRate*AN35))</f>
         <v>-</v>
       </c>
       <c r="AR35" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN35&gt;Maturity,"-",EXP(-QuantoHazardRate*AN34)-EXP(-QuantoHazardRate*AN35))</f>
         <v>-</v>
       </c>
       <c r="AS35" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT35" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU35" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -23036,1035 +23036,1035 @@
       <c r="O36" s="44"/>
       <c r="P36" s="3"/>
       <c r="R36" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>8.5</v>
       </c>
       <c r="S36" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T36" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U36" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V36" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W36" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X36" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y36" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z36" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA36" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC36" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>8.5</v>
       </c>
       <c r="AD36" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE36" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF36" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG36" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH36" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC36&gt;Maturity,"-",EXP(-DomesticHazardRate*AC35)-EXP(-DomesticHazardRate*AC36))</f>
         <v>-</v>
       </c>
       <c r="AI36" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC36&gt;Maturity,"-",EXP(-QuantoHazardRate*AC35)-EXP(-QuantoHazardRate*AC36))</f>
         <v>-</v>
       </c>
       <c r="AJ36" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK36" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL36" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN36" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>8.5</v>
       </c>
       <c r="AO36" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP36" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ36" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN36&gt;Maturity,"-",EXP(-DomesticHazardRate*AN35)-EXP(-DomesticHazardRate*AN36))</f>
         <v>-</v>
       </c>
       <c r="AR36" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN36&gt;Maturity,"-",EXP(-QuantoHazardRate*AN35)-EXP(-QuantoHazardRate*AN36))</f>
         <v>-</v>
       </c>
       <c r="AS36" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT36" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU36" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="37" spans="8:47">
       <c r="P37" s="3"/>
       <c r="R37" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>8.75</v>
       </c>
       <c r="S37" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T37" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U37" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V37" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W37" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X37" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y37" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z37" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA37" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC37" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>8.75</v>
       </c>
       <c r="AD37" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE37" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF37" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG37" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH37" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC37&gt;Maturity,"-",EXP(-DomesticHazardRate*AC36)-EXP(-DomesticHazardRate*AC37))</f>
         <v>-</v>
       </c>
       <c r="AI37" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC37&gt;Maturity,"-",EXP(-QuantoHazardRate*AC36)-EXP(-QuantoHazardRate*AC37))</f>
         <v>-</v>
       </c>
       <c r="AJ37" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK37" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL37" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN37" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>8.75</v>
       </c>
       <c r="AO37" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP37" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ37" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN37&gt;Maturity,"-",EXP(-DomesticHazardRate*AN36)-EXP(-DomesticHazardRate*AN37))</f>
         <v>-</v>
       </c>
       <c r="AR37" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN37&gt;Maturity,"-",EXP(-QuantoHazardRate*AN36)-EXP(-QuantoHazardRate*AN37))</f>
         <v>-</v>
       </c>
       <c r="AS37" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT37" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU37" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="38" spans="8:47">
       <c r="P38" s="3"/>
       <c r="R38" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="S38" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T38" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U38" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V38" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W38" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X38" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y38" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z38" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA38" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC38" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AD38" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE38" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF38" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG38" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH38" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC38&gt;Maturity,"-",EXP(-DomesticHazardRate*AC37)-EXP(-DomesticHazardRate*AC38))</f>
         <v>-</v>
       </c>
       <c r="AI38" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC38&gt;Maturity,"-",EXP(-QuantoHazardRate*AC37)-EXP(-QuantoHazardRate*AC38))</f>
         <v>-</v>
       </c>
       <c r="AJ38" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK38" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL38" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN38" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="AO38" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP38" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ38" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN38&gt;Maturity,"-",EXP(-DomesticHazardRate*AN37)-EXP(-DomesticHazardRate*AN38))</f>
         <v>-</v>
       </c>
       <c r="AR38" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN38&gt;Maturity,"-",EXP(-QuantoHazardRate*AN37)-EXP(-QuantoHazardRate*AN38))</f>
         <v>-</v>
       </c>
       <c r="AS38" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT38" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU38" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="39" spans="8:47">
       <c r="P39" s="3"/>
       <c r="R39" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>9.25</v>
       </c>
       <c r="S39" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T39" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U39" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V39" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W39" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X39" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y39" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z39" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA39" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC39" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>9.25</v>
       </c>
       <c r="AD39" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE39" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF39" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG39" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH39" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC39&gt;Maturity,"-",EXP(-DomesticHazardRate*AC38)-EXP(-DomesticHazardRate*AC39))</f>
         <v>-</v>
       </c>
       <c r="AI39" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC39&gt;Maturity,"-",EXP(-QuantoHazardRate*AC38)-EXP(-QuantoHazardRate*AC39))</f>
         <v>-</v>
       </c>
       <c r="AJ39" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK39" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL39" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN39" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>9.25</v>
       </c>
       <c r="AO39" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP39" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ39" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN39&gt;Maturity,"-",EXP(-DomesticHazardRate*AN38)-EXP(-DomesticHazardRate*AN39))</f>
         <v>-</v>
       </c>
       <c r="AR39" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN39&gt;Maturity,"-",EXP(-QuantoHazardRate*AN38)-EXP(-QuantoHazardRate*AN39))</f>
         <v>-</v>
       </c>
       <c r="AS39" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT39" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU39" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="40" spans="8:47">
       <c r="P40" s="3"/>
       <c r="R40" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>9.5</v>
       </c>
       <c r="S40" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T40" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U40" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V40" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W40" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X40" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y40" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z40" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA40" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC40" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>9.5</v>
       </c>
       <c r="AD40" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE40" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF40" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG40" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH40" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC40&gt;Maturity,"-",EXP(-DomesticHazardRate*AC39)-EXP(-DomesticHazardRate*AC40))</f>
         <v>-</v>
       </c>
       <c r="AI40" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC40&gt;Maturity,"-",EXP(-QuantoHazardRate*AC39)-EXP(-QuantoHazardRate*AC40))</f>
         <v>-</v>
       </c>
       <c r="AJ40" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK40" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL40" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN40" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>9.5</v>
       </c>
       <c r="AO40" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP40" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ40" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN40&gt;Maturity,"-",EXP(-DomesticHazardRate*AN39)-EXP(-DomesticHazardRate*AN40))</f>
         <v>-</v>
       </c>
       <c r="AR40" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN40&gt;Maturity,"-",EXP(-QuantoHazardRate*AN39)-EXP(-QuantoHazardRate*AN40))</f>
         <v>-</v>
       </c>
       <c r="AS40" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT40" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU40" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="41" spans="8:47">
       <c r="P41" s="3"/>
       <c r="R41" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>9.75</v>
       </c>
       <c r="S41" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T41" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U41" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V41" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W41" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X41" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y41" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z41" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA41" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC41" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>9.75</v>
       </c>
       <c r="AD41" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE41" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF41" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG41" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH41" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC41&gt;Maturity,"-",EXP(-DomesticHazardRate*AC40)-EXP(-DomesticHazardRate*AC41))</f>
         <v>-</v>
       </c>
       <c r="AI41" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC41&gt;Maturity,"-",EXP(-QuantoHazardRate*AC40)-EXP(-QuantoHazardRate*AC41))</f>
         <v>-</v>
       </c>
       <c r="AJ41" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK41" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL41" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN41" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>9.75</v>
       </c>
       <c r="AO41" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP41" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ41" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN41&gt;Maturity,"-",EXP(-DomesticHazardRate*AN40)-EXP(-DomesticHazardRate*AN41))</f>
         <v>-</v>
       </c>
       <c r="AR41" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN41&gt;Maturity,"-",EXP(-QuantoHazardRate*AN40)-EXP(-QuantoHazardRate*AN41))</f>
         <v>-</v>
       </c>
       <c r="AS41" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT41" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU41" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="42" spans="8:47">
       <c r="P42" s="3"/>
       <c r="R42" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="S42" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T42" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U42" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V42" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W42" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X42" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y42" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z42" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA42" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC42" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AD42" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE42" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF42" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG42" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH42" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC42&gt;Maturity,"-",EXP(-DomesticHazardRate*AC41)-EXP(-DomesticHazardRate*AC42))</f>
         <v>-</v>
       </c>
       <c r="AI42" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC42&gt;Maturity,"-",EXP(-QuantoHazardRate*AC41)-EXP(-QuantoHazardRate*AC42))</f>
         <v>-</v>
       </c>
       <c r="AJ42" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK42" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL42" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN42" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="AO42" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP42" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ42" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN42&gt;Maturity,"-",EXP(-DomesticHazardRate*AN41)-EXP(-DomesticHazardRate*AN42))</f>
         <v>-</v>
       </c>
       <c r="AR42" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN42&gt;Maturity,"-",EXP(-QuantoHazardRate*AN41)-EXP(-QuantoHazardRate*AN42))</f>
         <v>-</v>
       </c>
       <c r="AS42" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT42" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU42" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="43" spans="8:47">
       <c r="P43" s="3"/>
       <c r="R43" s="35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>10.25</v>
       </c>
       <c r="S43" s="22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T43" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U43" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V43" s="22" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W43" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X43" s="50" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y43" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z43" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA43" s="25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC43" s="21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>10.25</v>
       </c>
       <c r="AD43" s="22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE43" s="24" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF43" s="41" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG43" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH43" s="23" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC43&gt;Maturity,"-",EXP(-DomesticHazardRate*AC42)-EXP(-DomesticHazardRate*AC43))</f>
         <v>-</v>
       </c>
       <c r="AI43" s="23" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC43&gt;Maturity,"-",EXP(-QuantoHazardRate*AC42)-EXP(-QuantoHazardRate*AC43))</f>
         <v>-</v>
       </c>
       <c r="AJ43" s="23" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK43" s="22" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL43" s="25" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN43" s="21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>10.25</v>
       </c>
       <c r="AO43" s="22" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP43" s="22" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ43" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN43&gt;Maturity,"-",EXP(-DomesticHazardRate*AN42)-EXP(-DomesticHazardRate*AN43))</f>
         <v>-</v>
       </c>
       <c r="AR43" s="23" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN43&gt;Maturity,"-",EXP(-QuantoHazardRate*AN42)-EXP(-QuantoHazardRate*AN43))</f>
         <v>-</v>
       </c>
       <c r="AS43" s="23" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT43" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU43" s="25" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
     <row r="44" spans="8:47">
       <c r="P44" s="3"/>
       <c r="R44" s="37">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" si="30"/>
         <v>10.5</v>
       </c>
       <c r="S44" s="27" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="T44" s="29" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="U44" s="38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V44" s="27" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="W44" s="28" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="X44" s="51" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Y44" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Z44" s="27" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="AA44" s="30" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AC44" s="26">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>10.5</v>
       </c>
       <c r="AD44" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>-</v>
       </c>
       <c r="AE44" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="AF44" s="42" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v>-</v>
       </c>
       <c r="AG44" s="27" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>-</v>
       </c>
       <c r="AH44" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f>IF(AC44&gt;Maturity,"-",EXP(-DomesticHazardRate*AC43)-EXP(-DomesticHazardRate*AC44))</f>
         <v>-</v>
       </c>
       <c r="AI44" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f>IF(AC44&gt;Maturity,"-",EXP(-QuantoHazardRate*AC43)-EXP(-QuantoHazardRate*AC44))</f>
         <v>-</v>
       </c>
       <c r="AJ44" s="28" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AK44" s="27" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AL44" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AN44" s="26">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>10.5</v>
       </c>
       <c r="AO44" s="27" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AP44" s="27" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AQ44" s="28" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f>IF(AN44&gt;Maturity,"-",EXP(-DomesticHazardRate*AN43)-EXP(-DomesticHazardRate*AN44))</f>
         <v>-</v>
       </c>
       <c r="AR44" s="28" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f>IF(AN44&gt;Maturity,"-",EXP(-QuantoHazardRate*AN43)-EXP(-QuantoHazardRate*AN44))</f>
         <v>-</v>
       </c>
       <c r="AS44" s="28" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AT44" s="27" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AU44" s="30" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
     </row>
@@ -24089,28 +24089,28 @@
     <row r="47" spans="8:47">
       <c r="P47" s="3"/>
       <c r="Z47" s="43">
-        <f ca="1">SUM(Z3:Z44)</f>
+        <f>SUM(Z3:Z44)</f>
         <v>-67278.995193661933</v>
       </c>
       <c r="AA47" s="43">
-        <f ca="1">SUM(AA3:AA44)</f>
+        <f>SUM(AA3:AA44)</f>
         <v>-66793.950186463466</v>
       </c>
       <c r="AK47" s="43">
-        <f ca="1">SUM(AK3:AK44)</f>
-        <v>-2497.6487890745898</v>
+        <f>SUM(AK3:AK44)</f>
+        <v>-253.24471256487331</v>
       </c>
       <c r="AL47" s="43">
-        <f ca="1">SUM(AL3:AL44)</f>
-        <v>-2740.1712926738246</v>
+        <f>SUM(AL3:AL44)</f>
+        <v>-277.28979001241635</v>
       </c>
       <c r="AT47" s="43">
-        <f ca="1">SUM(AT3:AT44)</f>
-        <v>644554.5262127975</v>
+        <f>SUM(AT3:AT44)</f>
+        <v>65353.474210289882</v>
       </c>
       <c r="AU47" s="43">
-        <f ca="1">SUM(AU3:AU44)</f>
-        <v>707140.97875453532</v>
+        <f>SUM(AU3:AU44)</f>
+        <v>71558.655487075201</v>
       </c>
     </row>
     <row r="48" spans="8:47">

--- a/Quanto CDS/Quanto CDS.xlsx
+++ b/Quanto CDS/Quanto CDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburg\Documents\MY_DOCUMENTS\QUANT\PAPERS\.QUANT_RESEARCH\Quanto CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553D02B-FDA2-4874-9BA2-D2D4FDDD5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F5F77-5E2E-4FF7-8EFD-9D7B91950A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="18555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDS" sheetId="1" r:id="rId1"/>
@@ -18704,7 +18704,7 @@
       </c>
       <c r="X3" s="49">
         <f t="shared" ref="X3:X44" si="4">IF(R3&gt;Maturity,"-",EXP(-QuantoHazardRate*R3))</f>
-        <v>0.99176552803828566</v>
+        <v>0.99169189218159381</v>
       </c>
       <c r="Y3" s="18">
         <f t="shared" ref="Y3:Y44" si="5">IF(R3&gt;Maturity,"-",EXP(-ZeroRate*R3))</f>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="AA3" s="20">
         <f t="shared" ref="AA3:AA44" si="7">IF(R3&gt;Maturity,"-",Z3*EXP(-(QuantoHazardRate-DomesticHazardRate)*R3))</f>
-        <v>-4497.8461870524525</v>
+        <v>-4497.5122343712101</v>
       </c>
       <c r="AC3" s="16">
         <f>YearFraction</f>
@@ -18739,12 +18739,12 @@
         <v>-2325</v>
       </c>
       <c r="AH3" s="18">
-        <f t="shared" ref="AH3:AH44" si="12">IF(AC3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AC3))</f>
+        <f t="shared" ref="AH3" si="12">IF(AC3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AC3))</f>
         <v>7.4719451808615833E-3</v>
       </c>
       <c r="AI3" s="18">
-        <f t="shared" ref="AI3:AI44" si="13">IF(AC3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AC3))</f>
-        <v>8.2344719617143403E-3</v>
+        <f t="shared" ref="AI3" si="13">IF(AC3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AC3))</f>
+        <v>8.3081078184061852E-3</v>
       </c>
       <c r="AJ3" s="18">
         <f t="shared" ref="AJ3:AJ22" si="14">IF(AC3&gt;Maturity,"-",EXP(-ZeroRate*AC3))</f>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="AL3" s="20">
         <f t="shared" ref="AL3:AL44" si="16">IF(AC3&gt;Maturity,"-",AK3/AH3*AI3)</f>
-        <v>-18.672451939647068</v>
+        <v>-18.839428280268059</v>
       </c>
       <c r="AN3" s="16">
         <f>YearFraction</f>
@@ -18771,12 +18771,12 @@
         <v>600000</v>
       </c>
       <c r="AQ3" s="18">
-        <f t="shared" ref="AQ3:AQ44" si="19">IF(AN3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AN3))</f>
+        <f t="shared" ref="AQ3" si="19">IF(AN3&gt;Maturity,"-",1-EXP(-DomesticHazardRate*AN3))</f>
         <v>7.4719451808615833E-3</v>
       </c>
       <c r="AR3" s="18">
-        <f t="shared" ref="AR3:AR44" si="20">IF(AN3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AN3))</f>
-        <v>8.2344719617143403E-3</v>
+        <f t="shared" ref="AR3" si="20">IF(AN3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AN3))</f>
+        <v>8.3081078184061852E-3</v>
       </c>
       <c r="AS3" s="18">
         <f t="shared" ref="AS3:AS22" si="21">IF(AN3&gt;Maturity,"-",EXP(-ZeroRate*AN3))</f>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="AU3" s="20">
         <f t="shared" ref="AU3:AU44" si="23">IF(AN3&gt;Maturity,"-",AT3/AQ3*AR3)</f>
-        <v>4818.6972747476311</v>
+        <v>4861.787943294984</v>
       </c>
     </row>
     <row r="4" spans="2:48">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="X4" s="50">
         <f t="shared" si="4"/>
-        <v>0.98359886260505958</v>
+        <v>0.98345280901870991</v>
       </c>
       <c r="Y4" s="23">
         <f t="shared" si="5"/>
@@ -18850,7 +18850,7 @@
       </c>
       <c r="AA4" s="25">
         <f t="shared" si="7"/>
-        <v>-4350.6710370714591</v>
+        <v>-4350.0250103911221</v>
       </c>
       <c r="AC4" s="21">
         <f t="shared" ref="AC4:AC10" si="26">AC3+YearFraction</f>
@@ -18873,12 +18873,12 @@
         <v>-2325</v>
       </c>
       <c r="AH4" s="23">
-        <f>IF(AC4&gt;Maturity,"-",EXP(-DomesticHazardRate*AC3)-EXP(-DomesticHazardRate*AC4))</f>
+        <f t="shared" ref="AH4:AH44" si="27">IF(AC4&gt;Maturity,"-",EXP(-DomesticHazardRate*AC3)-EXP(-DomesticHazardRate*AC4))</f>
         <v>7.4161152160757693E-3</v>
       </c>
       <c r="AI4" s="23">
-        <f>IF(AC4&gt;Maturity,"-",EXP(-QuantoHazardRate*AC3)-EXP(-QuantoHazardRate*AC4))</f>
-        <v>8.1666654332260835E-3</v>
+        <f t="shared" ref="AI4:AI44" si="28">IF(AC4&gt;Maturity,"-",EXP(-QuantoHazardRate*AC3)-EXP(-QuantoHazardRate*AC4))</f>
+        <v>8.239083162883909E-3</v>
       </c>
       <c r="AJ4" s="23">
         <f t="shared" si="14"/>
@@ -18890,10 +18890,10 @@
       </c>
       <c r="AL4" s="25">
         <f t="shared" si="16"/>
-        <v>-18.061465969819739</v>
+        <v>-18.221625629906331</v>
       </c>
       <c r="AN4" s="21">
-        <f t="shared" ref="AN4:AN10" si="27">AN3+YearFraction</f>
+        <f t="shared" ref="AN4:AN10" si="29">AN3+YearFraction</f>
         <v>0.5</v>
       </c>
       <c r="AO4" s="22">
@@ -18905,12 +18905,12 @@
         <v>600000</v>
       </c>
       <c r="AQ4" s="23">
-        <f>IF(AN4&gt;Maturity,"-",EXP(-DomesticHazardRate*AN3)-EXP(-DomesticHazardRate*AN4))</f>
+        <f t="shared" ref="AQ4:AQ44" si="30">IF(AN4&gt;Maturity,"-",EXP(-DomesticHazardRate*AN3)-EXP(-DomesticHazardRate*AN4))</f>
         <v>7.4161152160757693E-3</v>
       </c>
       <c r="AR4" s="23">
-        <f>IF(AN4&gt;Maturity,"-",EXP(-QuantoHazardRate*AN3)-EXP(-QuantoHazardRate*AN4))</f>
-        <v>8.1666654332260835E-3</v>
+        <f t="shared" ref="AR4:AR44" si="31">IF(AN4&gt;Maturity,"-",EXP(-QuantoHazardRate*AN3)-EXP(-QuantoHazardRate*AN4))</f>
+        <v>8.239083162883909E-3</v>
       </c>
       <c r="AS4" s="23">
         <f t="shared" si="21"/>
@@ -18922,7 +18922,7 @@
       </c>
       <c r="AU4" s="25">
         <f t="shared" si="23"/>
-        <v>4661.0234760825133</v>
+        <v>4702.3550012661508</v>
       </c>
     </row>
     <row r="5" spans="2:48">
@@ -18934,33 +18934,33 @@
       </c>
       <c r="H5" s="59">
         <f>E24</f>
-        <v>6666.1812065362392</v>
+        <v>7305.3674894290962</v>
       </c>
       <c r="I5" s="58">
         <v>0</v>
       </c>
       <c r="J5" s="58">
-        <f t="shared" ref="J5:O5" si="28">I5+5%</f>
+        <f t="shared" ref="J5:O5" si="32">I5+5%</f>
         <v>0.05</v>
       </c>
       <c r="K5" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
       <c r="L5" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="M5" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.2</v>
       </c>
       <c r="N5" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
       <c r="O5" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.3</v>
       </c>
       <c r="P5" s="3"/>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="X5" s="50">
         <f t="shared" si="4"/>
-        <v>0.97549944534936406</v>
+        <v>0.97528217704706799</v>
       </c>
       <c r="Y5" s="23">
         <f t="shared" si="5"/>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="AA5" s="25">
         <f t="shared" si="7"/>
-        <v>-4208.3116419809467</v>
+        <v>-4207.3743449580261</v>
       </c>
       <c r="AC5" s="21">
         <f t="shared" si="26"/>
@@ -19025,12 +19025,12 @@
         <v>-2325</v>
       </c>
       <c r="AH5" s="23">
-        <f>IF(AC5&gt;Maturity,"-",EXP(-DomesticHazardRate*AC4)-EXP(-DomesticHazardRate*AC5))</f>
+        <f t="shared" si="27"/>
         <v>7.3607024097263052E-3</v>
       </c>
       <c r="AI5" s="23">
-        <f>IF(AC5&gt;Maturity,"-",EXP(-QuantoHazardRate*AC4)-EXP(-QuantoHazardRate*AC5))</f>
-        <v>8.099417255695518E-3</v>
+        <f t="shared" si="28"/>
+        <v>8.1706319716419173E-3</v>
       </c>
       <c r="AJ5" s="23">
         <f t="shared" si="14"/>
@@ -19042,10 +19042,10 @@
       </c>
       <c r="AL5" s="25">
         <f t="shared" si="16"/>
-        <v>-17.470472224716492</v>
+        <v>-17.624082623792766</v>
       </c>
       <c r="AN5" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.75</v>
       </c>
       <c r="AO5" s="22">
@@ -19057,12 +19057,12 @@
         <v>600000</v>
       </c>
       <c r="AQ5" s="23">
-        <f>IF(AN5&gt;Maturity,"-",EXP(-DomesticHazardRate*AN4)-EXP(-DomesticHazardRate*AN5))</f>
+        <f t="shared" si="30"/>
         <v>7.3607024097263052E-3</v>
       </c>
       <c r="AR5" s="23">
-        <f>IF(AN5&gt;Maturity,"-",EXP(-QuantoHazardRate*AN4)-EXP(-QuantoHazardRate*AN5))</f>
-        <v>8.099417255695518E-3</v>
+        <f t="shared" si="31"/>
+        <v>8.1706319716419173E-3</v>
       </c>
       <c r="AS5" s="23">
         <f t="shared" si="21"/>
@@ -19074,7 +19074,7 @@
       </c>
       <c r="AU5" s="25">
         <f t="shared" si="23"/>
-        <v>4508.5089612171596</v>
+        <v>4548.1503545271662</v>
       </c>
     </row>
     <row r="6" spans="2:48" ht="17.25">
@@ -19092,25 +19092,25 @@
       </c>
       <c r="I6" s="53">
         <f t="dataTable" ref="I6:O14" dt2D="1" dtr="1" r1="C15" r2="C16"/>
-        <v>490.9938538943461</v>
+        <v>2450.0495273290071</v>
       </c>
       <c r="J6" s="53">
-        <v>3776.0985597739273</v>
+        <v>5819.0876510507587</v>
       </c>
       <c r="K6" s="53">
-        <v>7039.1426896475823</v>
+        <v>9164.8358747583334</v>
       </c>
       <c r="L6" s="53">
-        <v>10280.282902775049</v>
+        <v>12487.464475857727</v>
       </c>
       <c r="M6" s="53">
-        <v>13499.674719701194</v>
+        <v>15787.142457408794</v>
       </c>
       <c r="N6" s="53">
-        <v>16697.472530630701</v>
+        <v>19064.037557776224</v>
       </c>
       <c r="O6" s="53">
-        <v>19873.829603741651</v>
+        <v>22318.316260206069</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="35">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="X6" s="50">
         <f t="shared" si="4"/>
-        <v>0.96746672251796684</v>
+        <v>0.96717942756679098</v>
       </c>
       <c r="Y6" s="23">
         <f t="shared" si="5"/>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="AA6" s="25">
         <f t="shared" si="7"/>
-        <v>-4070.6104242607416</v>
+        <v>-4069.4016324792015</v>
       </c>
       <c r="AC6" s="21">
         <f t="shared" si="26"/>
@@ -19174,12 +19174,12 @@
         <v>-2325</v>
       </c>
       <c r="AH6" s="23">
-        <f>IF(AC6&gt;Maturity,"-",EXP(-DomesticHazardRate*AC5)-EXP(-DomesticHazardRate*AC6))</f>
+        <f t="shared" si="27"/>
         <v>7.3057036448281876E-3</v>
       </c>
       <c r="AI6" s="23">
-        <f>IF(AC6&gt;Maturity,"-",EXP(-QuantoHazardRate*AC5)-EXP(-QuantoHazardRate*AC6))</f>
-        <v>8.032722831397221E-3</v>
+        <f t="shared" si="28"/>
+        <v>8.102749480277005E-3</v>
       </c>
       <c r="AJ6" s="23">
         <f t="shared" si="14"/>
@@ -19191,10 +19191,10 @@
       </c>
       <c r="AL6" s="25">
         <f t="shared" si="16"/>
-        <v>-16.898816533751916</v>
+        <v>-17.046134886038082</v>
       </c>
       <c r="AN6" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AO6" s="22">
@@ -19206,12 +19206,12 @@
         <v>600000</v>
       </c>
       <c r="AQ6" s="23">
-        <f>IF(AN6&gt;Maturity,"-",EXP(-DomesticHazardRate*AN5)-EXP(-DomesticHazardRate*AN6))</f>
+        <f t="shared" si="30"/>
         <v>7.3057036448281876E-3</v>
       </c>
       <c r="AR6" s="23">
-        <f>IF(AN6&gt;Maturity,"-",EXP(-QuantoHazardRate*AN5)-EXP(-QuantoHazardRate*AN6))</f>
-        <v>8.032722831397221E-3</v>
+        <f t="shared" si="31"/>
+        <v>8.102749480277005E-3</v>
       </c>
       <c r="AS6" s="23">
         <f t="shared" si="21"/>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="AU6" s="25">
         <f t="shared" si="23"/>
-        <v>4360.9849119359778</v>
+        <v>4399.0025512356351</v>
       </c>
     </row>
     <row r="7" spans="2:48">
@@ -19235,29 +19235,29 @@
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="57">
-        <f t="shared" ref="H7:H13" si="29">H6-0.25</f>
+        <f t="shared" ref="H7:H13" si="33">H6-0.25</f>
         <v>0.75</v>
       </c>
       <c r="I7" s="53">
-        <v>368.29158237140655</v>
+        <v>1838.6890888449489</v>
       </c>
       <c r="J7" s="53">
-        <v>3648.1257321535013</v>
+        <v>5181.5778540973915</v>
       </c>
       <c r="K7" s="53">
-        <v>6905.9752182797747</v>
+        <v>8501.5638489523044</v>
       </c>
       <c r="L7" s="53">
-        <v>10141.995872467327</v>
+        <v>11798.813018445966</v>
       </c>
       <c r="M7" s="53">
-        <v>13356.342395829874</v>
+        <v>15073.490076850918</v>
       </c>
       <c r="N7" s="53">
-        <v>16549.168367177474</v>
+        <v>18325.758516911963</v>
       </c>
       <c r="O7" s="53">
-        <v>19720.626251255548</v>
+        <v>21555.780619013465</v>
       </c>
       <c r="P7" s="3"/>
       <c r="R7" s="35">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="X7" s="50">
         <f t="shared" si="4"/>
-        <v>0.95950014491750091</v>
+        <v>0.95914399660282179</v>
       </c>
       <c r="Y7" s="23">
         <f t="shared" si="5"/>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="AA7" s="25">
         <f t="shared" si="7"/>
-        <v>-3937.4149625241171</v>
+        <v>-3935.9534685258895</v>
       </c>
       <c r="AC7" s="21">
         <f t="shared" si="26"/>
@@ -19321,12 +19321,12 @@
         <v>-2325</v>
       </c>
       <c r="AH7" s="23">
-        <f>IF(AC7&gt;Maturity,"-",EXP(-DomesticHazardRate*AC6)-EXP(-DomesticHazardRate*AC7))</f>
+        <f t="shared" si="27"/>
         <v>7.2511158276863386E-3</v>
       </c>
       <c r="AI7" s="23">
-        <f>IF(AC7&gt;Maturity,"-",EXP(-QuantoHazardRate*AC6)-EXP(-QuantoHazardRate*AC7))</f>
-        <v>7.9665776004659294E-3</v>
+        <f t="shared" si="28"/>
+        <v>8.0354309639691923E-3</v>
       </c>
       <c r="AJ7" s="23">
         <f t="shared" si="14"/>
@@ -19338,10 +19338,10 @@
       </c>
       <c r="AL7" s="25">
         <f t="shared" si="16"/>
-        <v>-16.345866131620578</v>
+        <v>-16.487139827676753</v>
       </c>
       <c r="AN7" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
       <c r="AO7" s="22">
@@ -19353,12 +19353,12 @@
         <v>600000</v>
       </c>
       <c r="AQ7" s="23">
-        <f>IF(AN7&gt;Maturity,"-",EXP(-DomesticHazardRate*AN6)-EXP(-DomesticHazardRate*AN7))</f>
+        <f t="shared" si="30"/>
         <v>7.2511158276863386E-3</v>
       </c>
       <c r="AR7" s="23">
-        <f>IF(AN7&gt;Maturity,"-",EXP(-QuantoHazardRate*AN6)-EXP(-QuantoHazardRate*AN7))</f>
-        <v>7.9665776004659294E-3</v>
+        <f t="shared" si="31"/>
+        <v>8.0354309639691923E-3</v>
       </c>
       <c r="AS7" s="23">
         <f t="shared" si="21"/>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="AU7" s="25">
         <f t="shared" si="23"/>
-        <v>4218.2880339666008</v>
+        <v>4254.7457619810966</v>
       </c>
     </row>
     <row r="8" spans="2:48">
@@ -19382,29 +19382,29 @@
       </c>
       <c r="G8" s="68"/>
       <c r="H8" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
       <c r="I8" s="53">
-        <v>245.55852166194381</v>
+        <v>1226.5613673771222</v>
       </c>
       <c r="J8" s="53">
-        <v>3520.1192001048257</v>
+        <v>4543.2282579866223</v>
       </c>
       <c r="K8" s="53">
-        <v>6772.7710183090749</v>
+        <v>7837.3768169795148</v>
       </c>
       <c r="L8" s="53">
-        <v>10003.668983204196</v>
+        <v>11109.168726918077</v>
       </c>
       <c r="M8" s="53">
-        <v>13212.966979185549</v>
+        <v>14358.764482087303</v>
       </c>
       <c r="N8" s="53">
-        <v>16400.817776339703</v>
+        <v>17586.323397331689</v>
       </c>
       <c r="O8" s="53">
-        <v>19567.373038609636</v>
+        <v>20792.003616825481</v>
       </c>
       <c r="P8" s="3"/>
       <c r="R8" s="35">
@@ -19433,7 +19433,7 @@
       </c>
       <c r="X8" s="50">
         <f t="shared" si="4"/>
-        <v>0.9515991678769169</v>
+        <v>0.95117532486566847</v>
       </c>
       <c r="Y8" s="23">
         <f t="shared" si="5"/>
@@ -19445,7 +19445,7 @@
       </c>
       <c r="AA8" s="25">
         <f t="shared" si="7"/>
-        <v>-3808.5778228026625</v>
+        <v>-3806.8814792711814</v>
       </c>
       <c r="AC8" s="21">
         <f t="shared" si="26"/>
@@ -19468,12 +19468,12 @@
         <v>-2325</v>
       </c>
       <c r="AH8" s="23">
-        <f>IF(AC8&gt;Maturity,"-",EXP(-DomesticHazardRate*AC7)-EXP(-DomesticHazardRate*AC8))</f>
+        <f t="shared" si="27"/>
         <v>7.1969358877218559E-3</v>
       </c>
       <c r="AI8" s="23">
-        <f>IF(AC8&gt;Maturity,"-",EXP(-QuantoHazardRate*AC7)-EXP(-QuantoHazardRate*AC8))</f>
-        <v>7.9009770405840118E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.9686717371533211E-3</v>
       </c>
       <c r="AJ8" s="23">
         <f t="shared" si="14"/>
@@ -19485,10 +19485,10 @@
       </c>
       <c r="AL8" s="25">
         <f t="shared" si="16"/>
-        <v>-15.811008957887932</v>
+        <v>-15.946475932207823</v>
       </c>
       <c r="AN8" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
       <c r="AO8" s="22">
@@ -19500,12 +19500,12 @@
         <v>600000</v>
       </c>
       <c r="AQ8" s="23">
-        <f>IF(AN8&gt;Maturity,"-",EXP(-DomesticHazardRate*AN7)-EXP(-DomesticHazardRate*AN8))</f>
+        <f t="shared" si="30"/>
         <v>7.1969358877218559E-3</v>
       </c>
       <c r="AR8" s="23">
-        <f>IF(AN8&gt;Maturity,"-",EXP(-QuantoHazardRate*AN7)-EXP(-QuantoHazardRate*AN8))</f>
-        <v>7.9009770405840118E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.9686717371533211E-3</v>
       </c>
       <c r="AS8" s="23">
         <f t="shared" si="21"/>
@@ -19517,7 +19517,7 @@
       </c>
       <c r="AU8" s="25">
         <f t="shared" si="23"/>
-        <v>4080.2603762291446</v>
+        <v>4115.2195954084718</v>
       </c>
     </row>
     <row r="9" spans="2:48">
@@ -19529,29 +19529,29 @@
       </c>
       <c r="G9" s="68"/>
       <c r="H9" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.25</v>
       </c>
       <c r="I9" s="53">
-        <v>122.79466359566868</v>
+        <v>613.66534439889801</v>
       </c>
       <c r="J9" s="53">
-        <v>3392.0789542382336</v>
+        <v>3904.0376923530348</v>
       </c>
       <c r="K9" s="53">
-        <v>6639.5300790178226</v>
+        <v>7172.2734431269128</v>
       </c>
       <c r="L9" s="53">
-        <v>9865.3022228277769</v>
+        <v>10418.530086281353</v>
       </c>
       <c r="M9" s="53">
-        <v>13069.548456054712</v>
+        <v>13642.963964508446</v>
       </c>
       <c r="N9" s="53">
-        <v>16252.42074272973</v>
+        <v>16845.730282081982</v>
       </c>
       <c r="O9" s="53">
-        <v>19414.069948620199</v>
+        <v>20026.983113245551</v>
       </c>
       <c r="P9" s="3"/>
       <c r="R9" s="35">
@@ -19580,7 +19580,7 @@
       </c>
       <c r="X9" s="50">
         <f t="shared" si="4"/>
-        <v>0.94376325121024374</v>
+        <v>0.94327285771247693</v>
       </c>
       <c r="Y9" s="23">
         <f t="shared" si="5"/>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="AA9" s="25">
         <f t="shared" si="7"/>
-        <v>-3683.9563953517163</v>
+        <v>-3682.0421565211409</v>
       </c>
       <c r="AC9" s="21">
         <f t="shared" si="26"/>
@@ -19615,12 +19615,12 @@
         <v>-2325</v>
       </c>
       <c r="AH9" s="23">
-        <f>IF(AC9&gt;Maturity,"-",EXP(-DomesticHazardRate*AC8)-EXP(-DomesticHazardRate*AC9))</f>
+        <f t="shared" si="27"/>
         <v>7.1431607772987071E-3</v>
       </c>
       <c r="AI9" s="23">
-        <f>IF(AC9&gt;Maturity,"-",EXP(-QuantoHazardRate*AC8)-EXP(-QuantoHazardRate*AC9))</f>
-        <v>7.8359166666731594E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.9024671531915391E-3</v>
       </c>
       <c r="AJ9" s="23">
         <f t="shared" si="14"/>
@@ -19632,10 +19632,10 @@
       </c>
       <c r="AL9" s="25">
         <f t="shared" si="16"/>
-        <v>-15.293652979502856</v>
+        <v>-15.423542064561401</v>
       </c>
       <c r="AN9" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.75</v>
       </c>
       <c r="AO9" s="22">
@@ -19647,12 +19647,12 @@
         <v>600000</v>
       </c>
       <c r="AQ9" s="23">
-        <f>IF(AN9&gt;Maturity,"-",EXP(-DomesticHazardRate*AN8)-EXP(-DomesticHazardRate*AN9))</f>
+        <f t="shared" si="30"/>
         <v>7.1431607772987071E-3</v>
       </c>
       <c r="AR9" s="23">
-        <f>IF(AN9&gt;Maturity,"-",EXP(-QuantoHazardRate*AN8)-EXP(-QuantoHazardRate*AN9))</f>
-        <v>7.8359166666731594E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.9024671531915391E-3</v>
       </c>
       <c r="AS9" s="23">
         <f t="shared" si="21"/>
@@ -19664,7 +19664,7 @@
       </c>
       <c r="AU9" s="25">
         <f t="shared" si="23"/>
-        <v>3946.749156000737</v>
+        <v>3980.2689198868134</v>
       </c>
     </row>
     <row r="10" spans="2:48">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I10" s="53">
@@ -19727,7 +19727,7 @@
       </c>
       <c r="X10" s="50">
         <f t="shared" si="4"/>
-        <v>0.93599185917965655</v>
+        <v>0.9354360451084256</v>
       </c>
       <c r="Y10" s="23">
         <f t="shared" si="5"/>
@@ -19739,7 +19739,7 @@
       </c>
       <c r="AA10" s="25">
         <f t="shared" si="7"/>
-        <v>-3563.4127367957453</v>
+        <v>-3561.2966981557829</v>
       </c>
       <c r="AC10" s="21">
         <f t="shared" si="26"/>
@@ -19762,12 +19762,12 @@
         <v>-2325</v>
       </c>
       <c r="AH10" s="23">
-        <f>IF(AC10&gt;Maturity,"-",EXP(-DomesticHazardRate*AC9)-EXP(-DomesticHazardRate*AC10))</f>
+        <f t="shared" si="27"/>
         <v>7.0897874715525333E-3</v>
       </c>
       <c r="AI10" s="23">
-        <f>IF(AC10&gt;Maturity,"-",EXP(-QuantoHazardRate*AC9)-EXP(-QuantoHazardRate*AC10))</f>
-        <v>7.7713920305871875E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.8368126040513353E-3</v>
       </c>
       <c r="AJ10" s="23">
         <f t="shared" si="14"/>
@@ -19779,10 +19779,10 @@
       </c>
       <c r="AL10" s="25">
         <f t="shared" si="16"/>
-        <v>-14.793225535475484</v>
+        <v>-14.91775680273188</v>
       </c>
       <c r="AN10" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AO10" s="22">
@@ -19794,12 +19794,12 @@
         <v>600000</v>
       </c>
       <c r="AQ10" s="23">
-        <f>IF(AN10&gt;Maturity,"-",EXP(-DomesticHazardRate*AN9)-EXP(-DomesticHazardRate*AN10))</f>
+        <f t="shared" si="30"/>
         <v>7.0897874715525333E-3</v>
       </c>
       <c r="AR10" s="23">
-        <f>IF(AN10&gt;Maturity,"-",EXP(-QuantoHazardRate*AN9)-EXP(-QuantoHazardRate*AN10))</f>
-        <v>7.7713920305871875E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.8368126040513353E-3</v>
       </c>
       <c r="AS10" s="23">
         <f t="shared" si="21"/>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="AU10" s="25">
         <f t="shared" si="23"/>
-        <v>3817.6065898001248</v>
+        <v>3849.7436910275819</v>
       </c>
     </row>
     <row r="11" spans="2:48">
@@ -19825,33 +19825,33 @@
       <c r="F11" s="1"/>
       <c r="G11" s="68"/>
       <c r="H11" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.25</v>
       </c>
       <c r="I11" s="53">
-        <v>-122.82547729997168</v>
+        <v>-614.43568711610715</v>
       </c>
       <c r="J11" s="53">
-        <v>3135.8972834793603</v>
+        <v>2623.1289627044825</v>
       </c>
       <c r="K11" s="53">
-        <v>6372.9379395869255</v>
+        <v>5839.3123169454702</v>
       </c>
       <c r="L11" s="53">
-        <v>9588.4490400848081</v>
+        <v>9034.263685873033</v>
       </c>
       <c r="M11" s="53">
-        <v>12782.582035457272</v>
+        <v>12208.131312535224</v>
       </c>
       <c r="N11" s="53">
-        <v>15955.487285615898</v>
+        <v>15361.062380480253</v>
       </c>
       <c r="O11" s="53">
-        <v>19107.314067845764</v>
+        <v>18493.203021418689</v>
       </c>
       <c r="P11" s="3"/>
       <c r="R11" s="35">
-        <f t="shared" ref="R11:R44" si="30">R10+YearFraction</f>
+        <f t="shared" ref="R11:R44" si="34">R10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="S11" s="22">
@@ -19876,7 +19876,7 @@
       </c>
       <c r="X11" s="50">
         <f t="shared" si="4"/>
-        <v>0.92828446045884883</v>
+        <v>0.92766434158844124</v>
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="5"/>
@@ -19888,10 +19888,10 @@
       </c>
       <c r="AA11" s="25">
         <f t="shared" si="7"/>
-        <v>-3446.8134174389006</v>
+        <v>-3444.5108538024579</v>
       </c>
       <c r="AC11" s="21">
-        <f t="shared" ref="AC11:AC44" si="31">AC10+YearFraction</f>
+        <f t="shared" ref="AC11:AC44" si="35">AC10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="AD11" s="22">
@@ -19911,12 +19911,12 @@
         <v>-2325</v>
       </c>
       <c r="AH11" s="23">
-        <f>IF(AC11&gt;Maturity,"-",EXP(-DomesticHazardRate*AC10)-EXP(-DomesticHazardRate*AC11))</f>
+        <f t="shared" si="27"/>
         <v>7.0368129682212288E-3</v>
       </c>
       <c r="AI11" s="23">
-        <f>IF(AC11&gt;Maturity,"-",EXP(-QuantoHazardRate*AC10)-EXP(-QuantoHazardRate*AC11))</f>
-        <v>7.7073987208077233E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.771703519984352E-3</v>
       </c>
       <c r="AJ11" s="23">
         <f t="shared" si="14"/>
@@ -19928,10 +19928,10 @@
       </c>
       <c r="AL11" s="25">
         <f t="shared" si="16"/>
-        <v>-14.309172702998817</v>
+        <v>-14.428557791325169</v>
       </c>
       <c r="AN11" s="21">
-        <f t="shared" ref="AN11:AN44" si="32">AN10+YearFraction</f>
+        <f t="shared" ref="AN11:AN44" si="36">AN10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="AO11" s="22">
@@ -19943,12 +19943,12 @@
         <v>600000</v>
       </c>
       <c r="AQ11" s="23">
-        <f>IF(AN11&gt;Maturity,"-",EXP(-DomesticHazardRate*AN10)-EXP(-DomesticHazardRate*AN11))</f>
+        <f t="shared" si="30"/>
         <v>7.0368129682212288E-3</v>
       </c>
       <c r="AR11" s="23">
-        <f>IF(AN11&gt;Maturity,"-",EXP(-QuantoHazardRate*AN10)-EXP(-QuantoHazardRate*AN11))</f>
-        <v>7.7073987208077233E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.771703519984352E-3</v>
       </c>
       <c r="AS11" s="23">
         <f t="shared" si="21"/>
@@ -19960,7 +19960,7 @@
       </c>
       <c r="AU11" s="25">
         <f t="shared" si="23"/>
-        <v>3692.6897298061458</v>
+        <v>3723.4987848581072</v>
       </c>
     </row>
     <row r="12" spans="2:48">
@@ -19974,33 +19974,33 @@
       <c r="F12" s="1"/>
       <c r="G12" s="68"/>
       <c r="H12" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.5</v>
       </c>
       <c r="I12" s="53">
-        <v>-245.68177648117853</v>
+        <v>-1229.6427396335494</v>
       </c>
       <c r="J12" s="53">
-        <v>3007.755839794343</v>
+        <v>1981.408449600327</v>
       </c>
       <c r="K12" s="53">
-        <v>6239.5867179959241</v>
+        <v>5171.4518831969108</v>
       </c>
       <c r="L12" s="53">
-        <v>9449.9625933835414</v>
+        <v>8340.6328842662551</v>
       </c>
       <c r="M12" s="53">
-        <v>12639.034110541361</v>
+        <v>11489.095746976287</v>
       </c>
       <c r="N12" s="53">
-        <v>15806.950831310394</v>
+        <v>14616.98374392384</v>
       </c>
       <c r="O12" s="53">
-        <v>18953.861242662962</v>
+        <v>17724.439133453161</v>
       </c>
       <c r="P12" s="3"/>
       <c r="R12" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.5</v>
       </c>
       <c r="S12" s="22">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="X12" s="50">
         <f t="shared" si="4"/>
-        <v>0.92064052809670527</v>
+        <v>0.91995720621923371</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="5"/>
@@ -20037,10 +20037,10 @@
       </c>
       <c r="AA12" s="25">
         <f t="shared" si="7"/>
-        <v>-3334.0293735717842</v>
+        <v>-3331.5547755701036</v>
       </c>
       <c r="AC12" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2.5</v>
       </c>
       <c r="AD12" s="22">
@@ -20060,12 +20060,12 @@
         <v>-2325</v>
       </c>
       <c r="AH12" s="23">
-        <f>IF(AC12&gt;Maturity,"-",EXP(-DomesticHazardRate*AC11)-EXP(-DomesticHazardRate*AC12))</f>
+        <f t="shared" si="27"/>
         <v>6.9842342874746333E-3</v>
       </c>
       <c r="AI12" s="23">
-        <f>IF(AC12&gt;Maturity,"-",EXP(-QuantoHazardRate*AC11)-EXP(-QuantoHazardRate*AC12))</f>
-        <v>7.6439323621435573E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.7071353692075295E-3</v>
       </c>
       <c r="AJ12" s="23">
         <f t="shared" si="14"/>
@@ -20077,10 +20077,10 @@
       </c>
       <c r="AL12" s="25">
         <f t="shared" si="16"/>
-        <v>-13.840958684313744</v>
+        <v>-13.955401116304536</v>
       </c>
       <c r="AN12" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
       <c r="AO12" s="22">
@@ -20092,12 +20092,12 @@
         <v>600000</v>
       </c>
       <c r="AQ12" s="23">
-        <f>IF(AN12&gt;Maturity,"-",EXP(-DomesticHazardRate*AN11)-EXP(-DomesticHazardRate*AN12))</f>
+        <f t="shared" si="30"/>
         <v>6.9842342874746333E-3</v>
       </c>
       <c r="AR12" s="23">
-        <f>IF(AN12&gt;Maturity,"-",EXP(-QuantoHazardRate*AN11)-EXP(-QuantoHazardRate*AN12))</f>
-        <v>7.6439323621435573E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.7071353692075295E-3</v>
       </c>
       <c r="AS12" s="23">
         <f t="shared" si="21"/>
@@ -20109,7 +20109,7 @@
       </c>
       <c r="AU12" s="25">
         <f t="shared" si="23"/>
-        <v>3571.8603056293532</v>
+        <v>3601.3938364656869</v>
       </c>
     </row>
     <row r="13" spans="2:48">
@@ -20117,33 +20117,33 @@
       <c r="F13" s="1"/>
       <c r="G13" s="68"/>
       <c r="H13" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.75</v>
       </c>
       <c r="I13" s="53">
-        <v>-368.56890572292468</v>
+        <v>-1845.6221816261532</v>
       </c>
       <c r="J13" s="53">
-        <v>2879.5806447060095</v>
+        <v>1338.8422687901257</v>
       </c>
       <c r="K13" s="53">
-        <v>6106.1987141816862</v>
+        <v>4502.6697447231345</v>
       </c>
       <c r="L13" s="53">
-        <v>9311.4362268996701</v>
+        <v>7646.0016498733385</v>
       </c>
       <c r="M13" s="53">
-        <v>12495.44302424034</v>
+        <v>10768.978396263883</v>
       </c>
       <c r="N13" s="53">
-        <v>15658.367872629409</v>
+        <v>13871.739411277922</v>
       </c>
       <c r="O13" s="53">
-        <v>18800.358471341249</v>
+        <v>16954.423144645094</v>
       </c>
       <c r="P13" s="3"/>
       <c r="R13" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.75</v>
       </c>
       <c r="S13" s="22">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="X13" s="50">
         <f t="shared" si="4"/>
-        <v>0.91305953948127505</v>
+        <v>0.91231410256164458</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="5"/>
@@ -20180,10 +20180,10 @@
       </c>
       <c r="AA13" s="25">
         <f t="shared" si="7"/>
-        <v>-3224.9357646109083</v>
+        <v>-3222.3028736783599</v>
       </c>
       <c r="AC13" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2.75</v>
       </c>
       <c r="AD13" s="22">
@@ -20203,12 +20203,12 @@
         <v>-2325</v>
       </c>
       <c r="AH13" s="23">
-        <f>IF(AC13&gt;Maturity,"-",EXP(-DomesticHazardRate*AC12)-EXP(-DomesticHazardRate*AC13))</f>
+        <f t="shared" si="27"/>
         <v>6.9320484717483311E-3</v>
       </c>
       <c r="AI13" s="23">
-        <f>IF(AC13&gt;Maturity,"-",EXP(-QuantoHazardRate*AC12)-EXP(-QuantoHazardRate*AC13))</f>
-        <v>7.5809886154302175E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.6431036575891342E-3</v>
       </c>
       <c r="AJ13" s="23">
         <f t="shared" si="14"/>
@@ -20220,10 +20220,10 @@
       </c>
       <c r="AL13" s="25">
         <f t="shared" si="16"/>
-        <v>-13.388065213632448</v>
+        <v>-13.49776070024464</v>
       </c>
       <c r="AN13" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.75</v>
       </c>
       <c r="AO13" s="22">
@@ -20235,12 +20235,12 @@
         <v>600000</v>
       </c>
       <c r="AQ13" s="23">
-        <f>IF(AN13&gt;Maturity,"-",EXP(-DomesticHazardRate*AN12)-EXP(-DomesticHazardRate*AN13))</f>
+        <f t="shared" si="30"/>
         <v>6.9320484717483311E-3</v>
       </c>
       <c r="AR13" s="23">
-        <f>IF(AN13&gt;Maturity,"-",EXP(-QuantoHazardRate*AN12)-EXP(-QuantoHazardRate*AN13))</f>
-        <v>7.5809886154302175E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.6431036575891342E-3</v>
       </c>
       <c r="AS13" s="23">
         <f t="shared" si="21"/>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="AU13" s="25">
         <f t="shared" si="23"/>
-        <v>3454.9845712599863</v>
+        <v>3483.2930839341002</v>
       </c>
     </row>
     <row r="14" spans="2:48">
@@ -20267,29 +20267,29 @@
         <v>-1</v>
       </c>
       <c r="I14" s="53">
-        <v>-491.48687320666795</v>
+        <v>-2462.3750385594758</v>
       </c>
       <c r="J14" s="53">
-        <v>2751.3716888113195</v>
+        <v>695.4292415356249</v>
       </c>
       <c r="K14" s="53">
-        <v>5972.7739174105009</v>
+        <v>3832.9645557994736</v>
       </c>
       <c r="L14" s="53">
-        <v>9172.8699284563845</v>
+        <v>6950.3684558290624</v>
       </c>
       <c r="M14" s="53">
-        <v>12351.808762818422</v>
+        <v>10047.777537815309</v>
       </c>
       <c r="N14" s="53">
-        <v>15509.73839415906</v>
+        <v>13125.327449257857</v>
       </c>
       <c r="O14" s="53">
-        <v>18646.805736666494</v>
+        <v>16183.152895631916</v>
       </c>
       <c r="P14" s="3"/>
       <c r="R14" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="S14" s="22">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="X14" s="50">
         <f t="shared" si="4"/>
-        <v>0.90554097630404062</v>
+        <v>0.90473449863331001</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="5"/>
@@ -20326,10 +20326,10 @@
       </c>
       <c r="AA14" s="25">
         <f t="shared" si="7"/>
-        <v>-3119.4118349127448</v>
+        <v>-3116.6336768210608</v>
       </c>
       <c r="AC14" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="AD14" s="22">
@@ -20349,12 +20349,12 @@
         <v>-2325</v>
       </c>
       <c r="AH14" s="23">
-        <f>IF(AC14&gt;Maturity,"-",EXP(-DomesticHazardRate*AC13)-EXP(-DomesticHazardRate*AC14))</f>
+        <f t="shared" si="27"/>
         <v>6.8802525855763408E-3</v>
       </c>
       <c r="AI14" s="23">
-        <f>IF(AC14&gt;Maturity,"-",EXP(-QuantoHazardRate*AC13)-EXP(-QuantoHazardRate*AC14))</f>
-        <v>7.5185631772344275E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.5796039283345662E-3</v>
       </c>
       <c r="AJ14" s="23">
         <f t="shared" si="14"/>
@@ -20366,10 +20366,10 @@
       </c>
       <c r="AL14" s="25">
         <f t="shared" si="16"/>
-        <v>-12.949990983472398</v>
+        <v>-13.055127717411761</v>
       </c>
       <c r="AN14" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AO14" s="22">
@@ -20381,12 +20381,12 @@
         <v>600000</v>
       </c>
       <c r="AQ14" s="23">
-        <f>IF(AN14&gt;Maturity,"-",EXP(-DomesticHazardRate*AN13)-EXP(-DomesticHazardRate*AN14))</f>
+        <f t="shared" si="30"/>
         <v>6.8802525855763408E-3</v>
       </c>
       <c r="AR14" s="23">
-        <f>IF(AN14&gt;Maturity,"-",EXP(-QuantoHazardRate*AN13)-EXP(-QuantoHazardRate*AN14))</f>
-        <v>7.5185631772344275E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.5796039283345662E-3</v>
       </c>
       <c r="AS14" s="23">
         <f t="shared" si="21"/>
@@ -20398,7 +20398,7 @@
       </c>
       <c r="AU14" s="25">
         <f t="shared" si="23"/>
-        <v>3341.9331570251352</v>
+        <v>3369.0652173965836</v>
       </c>
     </row>
     <row r="15" spans="2:48" ht="18">
@@ -20415,36 +20415,36 @@
         <v>47</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:O15" si="33">I6-I14</f>
-        <v>982.48072710101405</v>
+        <f t="shared" ref="I15:O15" si="37">I6-I14</f>
+        <v>4912.4245658884829</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="33"/>
-        <v>1024.7268709626078</v>
+        <f t="shared" si="37"/>
+        <v>5123.6584095151338</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="33"/>
-        <v>1066.3687722370814</v>
+        <f t="shared" si="37"/>
+        <v>5331.8713189588598</v>
       </c>
       <c r="L15" s="65">
-        <f t="shared" si="33"/>
-        <v>1107.4129743186641</v>
+        <f t="shared" si="37"/>
+        <v>5537.0960200286645</v>
       </c>
       <c r="M15" s="65">
-        <f t="shared" si="33"/>
-        <v>1147.8659568827716</v>
+        <f t="shared" si="37"/>
+        <v>5739.364919593485</v>
       </c>
       <c r="N15" s="65">
-        <f t="shared" si="33"/>
-        <v>1187.7341364716412</v>
+        <f t="shared" si="37"/>
+        <v>5938.7101085183676</v>
       </c>
       <c r="O15" s="65">
-        <f t="shared" si="33"/>
-        <v>1227.0238670751569</v>
+        <f t="shared" si="37"/>
+        <v>6135.1633645741531</v>
       </c>
       <c r="P15" s="3"/>
       <c r="R15" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.25</v>
       </c>
       <c r="S15" s="22">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="X15" s="50">
         <f t="shared" si="4"/>
-        <v>0.89808432452448161</v>
+        <v>0.89721786687163274</v>
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="5"/>
@@ -20481,10 +20481,10 @@
       </c>
       <c r="AA15" s="25">
         <f t="shared" si="7"/>
-        <v>-3017.3407801093726</v>
+        <v>-3014.4296971088283</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="AD15" s="22">
@@ -20504,12 +20504,12 @@
         <v>-2325</v>
       </c>
       <c r="AH15" s="23">
-        <f>IF(AC15&gt;Maturity,"-",EXP(-DomesticHazardRate*AC14)-EXP(-DomesticHazardRate*AC15))</f>
+        <f t="shared" si="27"/>
         <v>6.8288437154264692E-3</v>
       </c>
       <c r="AI15" s="23">
-        <f>IF(AC15&gt;Maturity,"-",EXP(-QuantoHazardRate*AC14)-EXP(-QuantoHazardRate*AC15))</f>
-        <v>7.4566517795590093E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.5166317616772726E-3</v>
       </c>
       <c r="AJ15" s="23">
         <f t="shared" si="14"/>
@@ -20521,10 +20521,10 @@
       </c>
       <c r="AL15" s="25">
         <f t="shared" si="16"/>
-        <v>-12.526251089757885</v>
+        <v>-12.627010028029908</v>
       </c>
       <c r="AN15" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.25</v>
       </c>
       <c r="AO15" s="22">
@@ -20536,12 +20536,12 @@
         <v>600000</v>
       </c>
       <c r="AQ15" s="23">
-        <f>IF(AN15&gt;Maturity,"-",EXP(-DomesticHazardRate*AN14)-EXP(-DomesticHazardRate*AN15))</f>
+        <f t="shared" si="30"/>
         <v>6.8288437154264692E-3</v>
       </c>
       <c r="AR15" s="23">
-        <f>IF(AN15&gt;Maturity,"-",EXP(-QuantoHazardRate*AN14)-EXP(-QuantoHazardRate*AN15))</f>
-        <v>7.4566517795590093E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.5166317616772726E-3</v>
       </c>
       <c r="AS15" s="23">
         <f t="shared" si="21"/>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="AU15" s="25">
         <f t="shared" si="23"/>
-        <v>3232.5809263891315</v>
+        <v>3258.5832330399762</v>
       </c>
     </row>
     <row r="16" spans="2:48" ht="18">
@@ -20568,7 +20568,7 @@
       <c r="G16" s="1"/>
       <c r="P16" s="3"/>
       <c r="R16" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.5</v>
       </c>
       <c r="S16" s="22">
@@ -20593,7 +20593,7 @@
       </c>
       <c r="X16" s="50">
         <f t="shared" si="4"/>
-        <v>0.8906890743349295</v>
+        <v>0.88976368409706286</v>
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="5"/>
@@ -20605,10 +20605,10 @@
       </c>
       <c r="AA16" s="25">
         <f t="shared" si="7"/>
-        <v>-2918.6096178178095</v>
+        <v>-2915.5772994406148</v>
       </c>
       <c r="AC16" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.5</v>
       </c>
       <c r="AD16" s="22">
@@ -20628,12 +20628,12 @@
         <v>-2325</v>
       </c>
       <c r="AH16" s="23">
-        <f>IF(AC16&gt;Maturity,"-",EXP(-DomesticHazardRate*AC15)-EXP(-DomesticHazardRate*AC16))</f>
+        <f t="shared" si="27"/>
         <v>6.7778189695361091E-3</v>
       </c>
       <c r="AI16" s="23">
-        <f>IF(AC16&gt;Maturity,"-",EXP(-QuantoHazardRate*AC15)-EXP(-QuantoHazardRate*AC16))</f>
-        <v>7.3952501895521161E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.4541827745698841E-3</v>
       </c>
       <c r="AJ16" s="23">
         <f t="shared" si="14"/>
@@ -20645,10 +20645,10 @@
       </c>
       <c r="AL16" s="25">
         <f t="shared" si="16"/>
-        <v>-12.116376495081782</v>
+        <v>-12.212931631094962</v>
       </c>
       <c r="AN16" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.5</v>
       </c>
       <c r="AO16" s="22">
@@ -20660,12 +20660,12 @@
         <v>600000</v>
       </c>
       <c r="AQ16" s="23">
-        <f>IF(AN16&gt;Maturity,"-",EXP(-DomesticHazardRate*AN15)-EXP(-DomesticHazardRate*AN16))</f>
+        <f t="shared" si="30"/>
         <v>6.7778189695361091E-3</v>
       </c>
       <c r="AR16" s="23">
-        <f>IF(AN16&gt;Maturity,"-",EXP(-QuantoHazardRate*AN15)-EXP(-QuantoHazardRate*AN16))</f>
-        <v>7.3952501895521161E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.4541827745698841E-3</v>
       </c>
       <c r="AS16" s="23">
         <f t="shared" si="21"/>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="AU16" s="25">
         <f t="shared" si="23"/>
-        <v>3126.8068374404602</v>
+        <v>3151.7242918954744</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="18">
@@ -20692,7 +20692,7 @@
       <c r="G17" s="1"/>
       <c r="P17" s="3"/>
       <c r="R17" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.75</v>
       </c>
       <c r="S17" s="22">
@@ -20717,7 +20717,7 @@
       </c>
       <c r="X17" s="50">
         <f t="shared" si="4"/>
-        <v>0.88335472012571326</v>
+        <v>0.88237143147668207</v>
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="5"/>
@@ -20729,10 +20729,10 @@
       </c>
       <c r="AA17" s="25">
         <f t="shared" si="7"/>
-        <v>-2823.109062579882</v>
+        <v>-2819.9665751589546</v>
       </c>
       <c r="AC17" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.75</v>
       </c>
       <c r="AD17" s="22">
@@ -20752,12 +20752,12 @@
         <v>-2325</v>
       </c>
       <c r="AH17" s="23">
-        <f>IF(AC17&gt;Maturity,"-",EXP(-DomesticHazardRate*AC16)-EXP(-DomesticHazardRate*AC17))</f>
+        <f t="shared" si="27"/>
         <v>6.7271754777499249E-3</v>
       </c>
       <c r="AI17" s="23">
-        <f>IF(AC17&gt;Maturity,"-",EXP(-QuantoHazardRate*AC16)-EXP(-QuantoHazardRate*AC17))</f>
-        <v>7.3343542092162428E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.3922526203807903E-3</v>
       </c>
       <c r="AJ17" s="23">
         <f t="shared" si="14"/>
@@ -20769,10 +20769,10 @@
       </c>
       <c r="AL17" s="25">
         <f t="shared" si="16"/>
-        <v>-11.7199135095257</v>
+        <v>-11.812432135137589</v>
       </c>
       <c r="AN17" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.75</v>
       </c>
       <c r="AO17" s="22">
@@ -20784,12 +20784,12 @@
         <v>600000</v>
       </c>
       <c r="AQ17" s="23">
-        <f>IF(AN17&gt;Maturity,"-",EXP(-DomesticHazardRate*AN16)-EXP(-DomesticHazardRate*AN17))</f>
+        <f t="shared" si="30"/>
         <v>6.7271754777499249E-3</v>
       </c>
       <c r="AR17" s="23">
-        <f>IF(AN17&gt;Maturity,"-",EXP(-QuantoHazardRate*AN16)-EXP(-QuantoHazardRate*AN17))</f>
-        <v>7.3343542092162428E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.3922526203807903E-3</v>
       </c>
       <c r="AS17" s="23">
         <f t="shared" si="21"/>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="AU17" s="25">
         <f t="shared" si="23"/>
-        <v>3024.4938089098578</v>
+        <v>3048.3695832613125</v>
       </c>
     </row>
     <row r="18" spans="2:47" ht="18">
@@ -20816,7 +20816,7 @@
       <c r="G18" s="1"/>
       <c r="P18" s="3"/>
       <c r="R18" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="S18" s="22">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="X18" s="50">
         <f t="shared" si="4"/>
-        <v>0.87608076045059002</v>
+        <v>0.87504059448809246</v>
       </c>
       <c r="Y18" s="23">
         <f t="shared" si="5"/>
@@ -20853,10 +20853,10 @@
       </c>
       <c r="AA18" s="25">
         <f t="shared" si="7"/>
-        <v>-2730.7334048942248</v>
+        <v>-2727.4912198484476</v>
       </c>
       <c r="AC18" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="AD18" s="22">
@@ -20876,12 +20876,12 @@
         <v>-2325</v>
       </c>
       <c r="AH18" s="23">
-        <f>IF(AC18&gt;Maturity,"-",EXP(-DomesticHazardRate*AC17)-EXP(-DomesticHazardRate*AC18))</f>
+        <f t="shared" si="27"/>
         <v>6.676910391358204E-3</v>
       </c>
       <c r="AI18" s="23">
-        <f>IF(AC18&gt;Maturity,"-",EXP(-QuantoHazardRate*AC17)-EXP(-QuantoHazardRate*AC18))</f>
-        <v>7.2739596751232316E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.3308369885896063E-3</v>
       </c>
       <c r="AJ18" s="23">
         <f t="shared" si="14"/>
@@ -20893,10 +20893,10 @@
       </c>
       <c r="AL18" s="25">
         <f t="shared" si="16"/>
-        <v>-11.336423288474226</v>
+        <v>-11.425066246335431</v>
       </c>
       <c r="AN18" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="AO18" s="22">
@@ -20908,12 +20908,12 @@
         <v>600000</v>
       </c>
       <c r="AQ18" s="23">
-        <f>IF(AN18&gt;Maturity,"-",EXP(-DomesticHazardRate*AN17)-EXP(-DomesticHazardRate*AN18))</f>
+        <f t="shared" si="30"/>
         <v>6.676910391358204E-3</v>
       </c>
       <c r="AR18" s="23">
-        <f>IF(AN18&gt;Maturity,"-",EXP(-QuantoHazardRate*AN17)-EXP(-QuantoHazardRate*AN18))</f>
-        <v>7.2739596751232316E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.3308369885896063E-3</v>
       </c>
       <c r="AS18" s="23">
         <f t="shared" si="21"/>
@@ -20925,7 +20925,7 @@
       </c>
       <c r="AU18" s="25">
         <f t="shared" si="23"/>
-        <v>2925.5285905739934</v>
+        <v>2948.4041926026916</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="17.25">
@@ -20933,15 +20933,15 @@
         <v>33</v>
       </c>
       <c r="C19" s="60">
-        <f>(1+FX_Jump)*(1+0.5*Correlation*Volatility_Credit*Volatility_FX)*DomesticHazardRate</f>
-        <v>3.3074249999999999E-2</v>
+        <f>(1+FX_Jump)*(1+0.5*Correlation*Volatility_Credit*Volatility_FX*Maturity)*DomesticHazardRate</f>
+        <v>3.3371250000000005E-2</v>
       </c>
       <c r="E19" s="66"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="P19" s="3"/>
       <c r="R19" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.25</v>
       </c>
       <c r="S19" s="22">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="X19" s="50">
         <f t="shared" si="4"/>
-        <v>0.8688666979924623</v>
+        <v>0.86777066288360305</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="5"/>
@@ -20978,10 +20978,10 @@
       </c>
       <c r="AA19" s="25">
         <f t="shared" si="7"/>
-        <v>-2641.380394206506</v>
+        <v>-2638.0484151416026</v>
       </c>
       <c r="AC19" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.25</v>
       </c>
       <c r="AD19" s="22">
@@ -21001,12 +21001,12 @@
         <v>-2325</v>
       </c>
       <c r="AH19" s="23">
-        <f>IF(AC19&gt;Maturity,"-",EXP(-DomesticHazardRate*AC18)-EXP(-DomesticHazardRate*AC19))</f>
+        <f t="shared" si="27"/>
         <v>6.6270208829363186E-3</v>
       </c>
       <c r="AI19" s="23">
-        <f>IF(AC19&gt;Maturity,"-",EXP(-QuantoHazardRate*AC18)-EXP(-QuantoHazardRate*AC19))</f>
-        <v>7.2140624581277235E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.2699316044894102E-3</v>
       </c>
       <c r="AJ19" s="23">
         <f t="shared" si="14"/>
@@ -21018,10 +21018,10 @@
       </c>
       <c r="AL19" s="25">
         <f t="shared" si="16"/>
-        <v>-10.965481346855043</v>
+        <v>-11.050403273418565</v>
       </c>
       <c r="AN19" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.25</v>
       </c>
       <c r="AO19" s="22">
@@ -21033,12 +21033,12 @@
         <v>600000</v>
       </c>
       <c r="AQ19" s="23">
-        <f>IF(AN19&gt;Maturity,"-",EXP(-DomesticHazardRate*AN18)-EXP(-DomesticHazardRate*AN19))</f>
+        <f t="shared" si="30"/>
         <v>6.6270208829363186E-3</v>
       </c>
       <c r="AR19" s="23">
-        <f>IF(AN19&gt;Maturity,"-",EXP(-QuantoHazardRate*AN18)-EXP(-QuantoHazardRate*AN19))</f>
-        <v>7.2140624581277235E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.2699316044894102E-3</v>
       </c>
       <c r="AS19" s="23">
         <f t="shared" si="21"/>
@@ -21050,13 +21050,13 @@
       </c>
       <c r="AU19" s="25">
         <f t="shared" si="23"/>
-        <v>2829.801637898076</v>
+        <v>2851.7169737854365</v>
       </c>
     </row>
     <row r="20" spans="2:47">
       <c r="P20" s="3"/>
       <c r="R20" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="S20" s="22">
@@ -21081,7 +21081,7 @@
       </c>
       <c r="X20" s="50">
         <f t="shared" si="4"/>
-        <v>0.86171203952937603</v>
+        <v>0.86056113065471629</v>
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="5"/>
@@ -21093,10 +21093,10 @@
       </c>
       <c r="AA20" s="25">
         <f t="shared" si="7"/>
-        <v>-2554.9511257283516</v>
+        <v>-2551.5387144006318</v>
       </c>
       <c r="AC20" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="AD20" s="22">
@@ -21116,12 +21116,12 @@
         <v>-2325</v>
       </c>
       <c r="AH20" s="23">
-        <f>IF(AC20&gt;Maturity,"-",EXP(-DomesticHazardRate*AC19)-EXP(-DomesticHazardRate*AC20))</f>
+        <f t="shared" si="27"/>
         <v>6.5775041461867412E-3</v>
       </c>
       <c r="AI20" s="23">
-        <f>IF(AC20&gt;Maturity,"-",EXP(-QuantoHazardRate*AC19)-EXP(-QuantoHazardRate*AC20))</f>
-        <v>7.154658463086272E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.2095322288867614E-3</v>
       </c>
       <c r="AJ20" s="23">
         <f t="shared" si="14"/>
@@ -21133,10 +21133,10 @@
       </c>
       <c r="AL20" s="25">
         <f t="shared" si="16"/>
-        <v>-10.606677089278955</v>
+        <v>-10.688026648803206</v>
       </c>
       <c r="AN20" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="AO20" s="22">
@@ -21148,12 +21148,12 @@
         <v>600000</v>
       </c>
       <c r="AQ20" s="23">
-        <f>IF(AN20&gt;Maturity,"-",EXP(-DomesticHazardRate*AN19)-EXP(-DomesticHazardRate*AN20))</f>
+        <f t="shared" si="30"/>
         <v>6.5775041461867412E-3</v>
       </c>
       <c r="AR20" s="23">
-        <f>IF(AN20&gt;Maturity,"-",EXP(-QuantoHazardRate*AN19)-EXP(-QuantoHazardRate*AN20))</f>
-        <v>7.154658463086272E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.2095322288867614E-3</v>
       </c>
       <c r="AS20" s="23">
         <f t="shared" si="21"/>
@@ -21165,13 +21165,13 @@
       </c>
       <c r="AU20" s="25">
         <f t="shared" si="23"/>
-        <v>2737.2069907816663</v>
+        <v>2758.2004254976018</v>
       </c>
     </row>
     <row r="21" spans="2:47">
       <c r="P21" s="3"/>
       <c r="R21" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.75</v>
       </c>
       <c r="S21" s="22">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="X21" s="50">
         <f t="shared" si="4"/>
-        <v>0.85461629590079957</v>
+        <v>0.85341149599690735</v>
       </c>
       <c r="Y21" s="23">
         <f t="shared" si="5"/>
@@ -21208,10 +21208,10 @@
       </c>
       <c r="AA21" s="25">
         <f t="shared" si="7"/>
-        <v>-2471.3499309597069</v>
+        <v>-2467.8659321480927</v>
       </c>
       <c r="AC21" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.75</v>
       </c>
       <c r="AD21" s="22">
@@ -21231,12 +21231,12 @@
         <v>-2325</v>
       </c>
       <c r="AH21" s="23">
-        <f>IF(AC21&gt;Maturity,"-",EXP(-DomesticHazardRate*AC20)-EXP(-DomesticHazardRate*AC21))</f>
+        <f t="shared" si="27"/>
         <v>6.5283573957795049E-3</v>
       </c>
       <c r="AI21" s="23">
-        <f>IF(AC21&gt;Maturity,"-",EXP(-QuantoHazardRate*AC20)-EXP(-QuantoHazardRate*AC21))</f>
-        <v>7.0957436285764564E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.1496346578089343E-3</v>
       </c>
       <c r="AJ21" s="23">
         <f t="shared" si="14"/>
@@ -21248,10 +21248,10 @@
       </c>
       <c r="AL21" s="25">
         <f t="shared" si="16"/>
-        <v>-10.259613355550689</v>
+        <v>-10.337533465436174</v>
       </c>
       <c r="AN21" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.75</v>
       </c>
       <c r="AO21" s="22">
@@ -21263,12 +21263,12 @@
         <v>600000</v>
       </c>
       <c r="AQ21" s="23">
-        <f>IF(AN21&gt;Maturity,"-",EXP(-DomesticHazardRate*AN20)-EXP(-DomesticHazardRate*AN21))</f>
+        <f t="shared" si="30"/>
         <v>6.5283573957795049E-3</v>
       </c>
       <c r="AR21" s="23">
-        <f>IF(AN21&gt;Maturity,"-",EXP(-QuantoHazardRate*AN20)-EXP(-QuantoHazardRate*AN21))</f>
-        <v>7.0957436285764564E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.1496346578089343E-3</v>
       </c>
       <c r="AS21" s="23">
         <f t="shared" si="21"/>
@@ -21280,13 +21280,13 @@
       </c>
       <c r="AU21" s="25">
         <f t="shared" si="23"/>
-        <v>2647.6421562711453</v>
+        <v>2667.7505717254635</v>
       </c>
     </row>
     <row r="22" spans="2:47">
       <c r="P22" s="3"/>
       <c r="R22" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="S22" s="22">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="X22" s="50">
         <f t="shared" si="4"/>
-        <v>0.84757898197418036</v>
+        <v>0.84632126127469776</v>
       </c>
       <c r="Y22" s="23">
         <f t="shared" si="5"/>
@@ -21323,10 +21323,10 @@
       </c>
       <c r="AA22" s="25">
         <f t="shared" si="7"/>
-        <v>-2390.4842717934325</v>
+        <v>-2386.9370371234322</v>
       </c>
       <c r="AC22" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="AD22" s="22">
@@ -21346,12 +21346,12 @@
         <v>-2325</v>
       </c>
       <c r="AH22" s="23">
-        <f>IF(AC22&gt;Maturity,"-",EXP(-DomesticHazardRate*AC21)-EXP(-DomesticHazardRate*AC22))</f>
+        <f t="shared" si="27"/>
         <v>6.479577867197106E-3</v>
       </c>
       <c r="AI22" s="23">
-        <f>IF(AC22&gt;Maturity,"-",EXP(-QuantoHazardRate*AC21)-EXP(-QuantoHazardRate*AC22))</f>
-        <v>7.0373139266192153E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.0902347222095985E-3</v>
       </c>
       <c r="AJ22" s="23">
         <f t="shared" si="14"/>
@@ -21363,10 +21363,10 @@
       </c>
       <c r="AL22" s="25">
         <f t="shared" si="16"/>
-        <v>-9.9239059810526182</v>
+        <v>-9.9985340288216591</v>
       </c>
       <c r="AN22" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="AO22" s="22">
@@ -21378,12 +21378,12 @@
         <v>600000</v>
       </c>
       <c r="AQ22" s="23">
-        <f>IF(AN22&gt;Maturity,"-",EXP(-DomesticHazardRate*AN21)-EXP(-DomesticHazardRate*AN22))</f>
+        <f t="shared" si="30"/>
         <v>6.479577867197106E-3</v>
       </c>
       <c r="AR22" s="23">
-        <f>IF(AN22&gt;Maturity,"-",EXP(-QuantoHazardRate*AN21)-EXP(-QuantoHazardRate*AN22))</f>
-        <v>7.0373139266192153E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.0902347222095985E-3</v>
       </c>
       <c r="AS22" s="23">
         <f t="shared" si="21"/>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="AU22" s="25">
         <f t="shared" si="23"/>
-        <v>2561.007995110353</v>
+        <v>2580.2668461475246</v>
       </c>
     </row>
     <row r="23" spans="2:47">
@@ -21413,7 +21413,7 @@
       </c>
       <c r="P23" s="3"/>
       <c r="R23" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5.25</v>
       </c>
       <c r="S23" s="22" t="str">
@@ -21453,39 +21453,39 @@
         <v>-</v>
       </c>
       <c r="AC23" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.25</v>
       </c>
       <c r="AD23" s="22" t="str">
-        <f t="shared" ref="AD23:AD44" si="34">IF(AC23&gt;Maturity,"-",-Phi*Notional)</f>
+        <f t="shared" ref="AD23:AD44" si="38">IF(AC23&gt;Maturity,"-",-Phi*Notional)</f>
         <v>-</v>
       </c>
       <c r="AE23" s="24" t="str">
-        <f t="shared" ref="AE23:AE44" si="35">IF(AC23&gt;Maturity,"-",Premium)</f>
+        <f t="shared" ref="AE23:AE44" si="39">IF(AC23&gt;Maturity,"-",Premium)</f>
         <v>-</v>
       </c>
       <c r="AF23" s="41" t="str">
-        <f t="shared" ref="AF23:AF44" si="36">IF(AC23&gt;Maturity,"-",YearFraction/2)</f>
+        <f t="shared" ref="AF23:AF44" si="40">IF(AC23&gt;Maturity,"-",YearFraction/2)</f>
         <v>-</v>
       </c>
       <c r="AG23" s="22" t="str">
-        <f t="shared" ref="AG23:AG44" si="37">IF(AC23&gt;Maturity,"-",AD23*AE23*AF23)</f>
+        <f t="shared" ref="AG23:AG44" si="41">IF(AC23&gt;Maturity,"-",AD23*AE23*AF23)</f>
         <v>-</v>
       </c>
       <c r="AH23" s="23" t="str">
-        <f>IF(AC23&gt;Maturity,"-",EXP(-DomesticHazardRate*AC22)-EXP(-DomesticHazardRate*AC23))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI23" s="23" t="str">
-        <f>IF(AC23&gt;Maturity,"-",EXP(-QuantoHazardRate*AC22)-EXP(-QuantoHazardRate*AC23))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ23" s="23" t="str">
-        <f t="shared" ref="AJ23:AJ44" si="38">IF(AC23&gt;Maturity,"-",EXP(-ZeroRate*AC23))</f>
+        <f t="shared" ref="AJ23:AJ44" si="42">IF(AC23&gt;Maturity,"-",EXP(-ZeroRate*AC23))</f>
         <v>-</v>
       </c>
       <c r="AK23" s="22" t="str">
-        <f t="shared" ref="AK23:AK44" si="39">IF(AC23&gt;Maturity,"-",AG23*AH23*AJ23)</f>
+        <f t="shared" ref="AK23:AK44" si="43">IF(AC23&gt;Maturity,"-",AG23*AH23*AJ23)</f>
         <v>-</v>
       </c>
       <c r="AL23" s="25" t="str">
@@ -21493,31 +21493,31 @@
         <v>-</v>
       </c>
       <c r="AN23" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.25</v>
       </c>
       <c r="AO23" s="22" t="str">
-        <f t="shared" ref="AO23:AO44" si="40">IF(AN23&gt;Maturity,"-",Phi*Notional)</f>
+        <f t="shared" ref="AO23:AO44" si="44">IF(AN23&gt;Maturity,"-",Phi*Notional)</f>
         <v>-</v>
       </c>
       <c r="AP23" s="22" t="str">
-        <f t="shared" ref="AP23:AP44" si="41">IF(AN23&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
+        <f t="shared" ref="AP23:AP44" si="45">IF(AN23&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
         <v>-</v>
       </c>
       <c r="AQ23" s="23" t="str">
-        <f>IF(AN23&gt;Maturity,"-",EXP(-DomesticHazardRate*AN22)-EXP(-DomesticHazardRate*AN23))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR23" s="23" t="str">
-        <f>IF(AN23&gt;Maturity,"-",EXP(-QuantoHazardRate*AN22)-EXP(-QuantoHazardRate*AN23))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS23" s="23" t="str">
-        <f t="shared" ref="AS23:AS44" si="42">IF(AN23&gt;Maturity,"-",EXP(-ZeroRate*AN23))</f>
+        <f t="shared" ref="AS23:AS44" si="46">IF(AN23&gt;Maturity,"-",EXP(-ZeroRate*AN23))</f>
         <v>-</v>
       </c>
       <c r="AT23" s="22" t="str">
-        <f t="shared" ref="AT23:AT44" si="43">IF(AN23&gt;Maturity,"-",AP23*AQ23*AS23)</f>
+        <f t="shared" ref="AT23:AT44" si="47">IF(AN23&gt;Maturity,"-",AP23*AQ23*AS23)</f>
         <v>-</v>
       </c>
       <c r="AU23" s="25" t="str">
@@ -21535,15 +21535,15 @@
       </c>
       <c r="D24" s="61">
         <f>SUM(D25:D27)</f>
-        <v>4487.4155105993123</v>
+        <v>5126.6017934921692</v>
       </c>
       <c r="E24" s="61">
         <f>D24-C24</f>
-        <v>6666.1812065362392</v>
+        <v>7305.3674894290962</v>
       </c>
       <c r="P24" s="3"/>
       <c r="R24" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5.5</v>
       </c>
       <c r="S24" s="22" t="str">
@@ -21583,39 +21583,39 @@
         <v>-</v>
       </c>
       <c r="AC24" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.5</v>
       </c>
       <c r="AD24" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE24" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF24" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG24" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH24" s="23" t="str">
-        <f>IF(AC24&gt;Maturity,"-",EXP(-DomesticHazardRate*AC23)-EXP(-DomesticHazardRate*AC24))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI24" s="23" t="str">
-        <f>IF(AC24&gt;Maturity,"-",EXP(-QuantoHazardRate*AC23)-EXP(-QuantoHazardRate*AC24))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ24" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK24" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL24" s="25" t="str">
@@ -21623,31 +21623,31 @@
         <v>-</v>
       </c>
       <c r="AN24" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.5</v>
       </c>
       <c r="AO24" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP24" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ24" s="23" t="str">
-        <f>IF(AN24&gt;Maturity,"-",EXP(-DomesticHazardRate*AN23)-EXP(-DomesticHazardRate*AN24))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR24" s="23" t="str">
-        <f>IF(AN24&gt;Maturity,"-",EXP(-QuantoHazardRate*AN23)-EXP(-QuantoHazardRate*AN24))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS24" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT24" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU24" s="25" t="str">
@@ -21665,16 +21665,16 @@
       </c>
       <c r="D25" s="14">
         <f>QuantoPremiumLegTotalPV</f>
-        <v>-66793.950186463466</v>
+        <v>-66747.344094916145</v>
       </c>
       <c r="E25" s="14">
         <f>D25-C25</f>
-        <v>485.04500719846692</v>
+        <v>531.65109874578775</v>
       </c>
       <c r="I25" s="47"/>
       <c r="P25" s="3"/>
       <c r="R25" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5.75</v>
       </c>
       <c r="S25" s="22" t="str">
@@ -21714,39 +21714,39 @@
         <v>-</v>
       </c>
       <c r="AC25" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.75</v>
       </c>
       <c r="AD25" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE25" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF25" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG25" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH25" s="23" t="str">
-        <f>IF(AC25&gt;Maturity,"-",EXP(-DomesticHazardRate*AC24)-EXP(-DomesticHazardRate*AC25))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI25" s="23" t="str">
-        <f>IF(AC25&gt;Maturity,"-",EXP(-QuantoHazardRate*AC24)-EXP(-QuantoHazardRate*AC25))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ25" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK25" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL25" s="25" t="str">
@@ -21754,31 +21754,31 @@
         <v>-</v>
       </c>
       <c r="AN25" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.75</v>
       </c>
       <c r="AO25" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP25" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ25" s="23" t="str">
-        <f>IF(AN25&gt;Maturity,"-",EXP(-DomesticHazardRate*AN24)-EXP(-DomesticHazardRate*AN25))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR25" s="23" t="str">
-        <f>IF(AN25&gt;Maturity,"-",EXP(-QuantoHazardRate*AN24)-EXP(-QuantoHazardRate*AN25))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS25" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT25" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU25" s="25" t="str">
@@ -21796,16 +21796,16 @@
       </c>
       <c r="D26" s="14">
         <f>QuantoAccruedInterestTotalPV</f>
-        <v>-277.28979001241635</v>
+        <v>-279.5949708295467</v>
       </c>
       <c r="E26" s="14">
         <f>D26-C26</f>
-        <v>-24.045077447543036</v>
+        <v>-26.350258264673386</v>
       </c>
       <c r="I26" s="44"/>
       <c r="P26" s="3"/>
       <c r="R26" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="S26" s="22" t="str">
@@ -21845,39 +21845,39 @@
         <v>-</v>
       </c>
       <c r="AC26" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="AD26" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE26" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF26" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG26" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH26" s="23" t="str">
-        <f>IF(AC26&gt;Maturity,"-",EXP(-DomesticHazardRate*AC25)-EXP(-DomesticHazardRate*AC26))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI26" s="23" t="str">
-        <f>IF(AC26&gt;Maturity,"-",EXP(-QuantoHazardRate*AC25)-EXP(-QuantoHazardRate*AC26))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ26" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK26" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL26" s="25" t="str">
@@ -21885,31 +21885,31 @@
         <v>-</v>
       </c>
       <c r="AN26" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="AO26" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP26" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ26" s="23" t="str">
-        <f>IF(AN26&gt;Maturity,"-",EXP(-DomesticHazardRate*AN25)-EXP(-DomesticHazardRate*AN26))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR26" s="23" t="str">
-        <f>IF(AN26&gt;Maturity,"-",EXP(-QuantoHazardRate*AN25)-EXP(-QuantoHazardRate*AN26))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS26" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT26" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU26" s="25" t="str">
@@ -21927,16 +21927,16 @@
       </c>
       <c r="D27" s="15">
         <f>QuantoProtectionLegTotalPV</f>
-        <v>71558.655487075201</v>
+        <v>72153.540859237866</v>
       </c>
       <c r="E27" s="15">
         <f>D27-C27</f>
-        <v>6205.1812767853189</v>
+        <v>6800.0666489479845</v>
       </c>
       <c r="I27" s="63"/>
       <c r="P27" s="3"/>
       <c r="R27" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6.25</v>
       </c>
       <c r="S27" s="22" t="str">
@@ -21976,39 +21976,39 @@
         <v>-</v>
       </c>
       <c r="AC27" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.25</v>
       </c>
       <c r="AD27" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE27" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF27" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG27" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH27" s="23" t="str">
-        <f>IF(AC27&gt;Maturity,"-",EXP(-DomesticHazardRate*AC26)-EXP(-DomesticHazardRate*AC27))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI27" s="23" t="str">
-        <f>IF(AC27&gt;Maturity,"-",EXP(-QuantoHazardRate*AC26)-EXP(-QuantoHazardRate*AC27))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ27" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK27" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL27" s="25" t="str">
@@ -22016,31 +22016,31 @@
         <v>-</v>
       </c>
       <c r="AN27" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6.25</v>
       </c>
       <c r="AO27" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP27" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ27" s="23" t="str">
-        <f>IF(AN27&gt;Maturity,"-",EXP(-DomesticHazardRate*AN26)-EXP(-DomesticHazardRate*AN27))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR27" s="23" t="str">
-        <f>IF(AN27&gt;Maturity,"-",EXP(-QuantoHazardRate*AN26)-EXP(-QuantoHazardRate*AN27))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS27" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT27" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU27" s="25" t="str">
@@ -22051,7 +22051,7 @@
     <row r="28" spans="2:47">
       <c r="P28" s="3"/>
       <c r="R28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6.5</v>
       </c>
       <c r="S28" s="22" t="str">
@@ -22091,39 +22091,39 @@
         <v>-</v>
       </c>
       <c r="AC28" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.5</v>
       </c>
       <c r="AD28" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE28" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF28" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG28" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH28" s="23" t="str">
-        <f>IF(AC28&gt;Maturity,"-",EXP(-DomesticHazardRate*AC27)-EXP(-DomesticHazardRate*AC28))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI28" s="23" t="str">
-        <f>IF(AC28&gt;Maturity,"-",EXP(-QuantoHazardRate*AC27)-EXP(-QuantoHazardRate*AC28))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ28" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK28" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL28" s="25" t="str">
@@ -22131,31 +22131,31 @@
         <v>-</v>
       </c>
       <c r="AN28" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6.5</v>
       </c>
       <c r="AO28" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP28" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ28" s="23" t="str">
-        <f>IF(AN28&gt;Maturity,"-",EXP(-DomesticHazardRate*AN27)-EXP(-DomesticHazardRate*AN28))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR28" s="23" t="str">
-        <f>IF(AN28&gt;Maturity,"-",EXP(-QuantoHazardRate*AN27)-EXP(-QuantoHazardRate*AN28))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS28" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT28" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU28" s="25" t="str">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="P29" s="3"/>
       <c r="R29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6.75</v>
       </c>
       <c r="S29" s="22" t="str">
@@ -22218,39 +22218,39 @@
         <v>-</v>
       </c>
       <c r="AC29" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.75</v>
       </c>
       <c r="AD29" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE29" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF29" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG29" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH29" s="23" t="str">
-        <f>IF(AC29&gt;Maturity,"-",EXP(-DomesticHazardRate*AC28)-EXP(-DomesticHazardRate*AC29))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI29" s="23" t="str">
-        <f>IF(AC29&gt;Maturity,"-",EXP(-QuantoHazardRate*AC28)-EXP(-QuantoHazardRate*AC29))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK29" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL29" s="25" t="str">
@@ -22258,31 +22258,31 @@
         <v>-</v>
       </c>
       <c r="AN29" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6.75</v>
       </c>
       <c r="AO29" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP29" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ29" s="23" t="str">
-        <f>IF(AN29&gt;Maturity,"-",EXP(-DomesticHazardRate*AN28)-EXP(-DomesticHazardRate*AN29))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR29" s="23" t="str">
-        <f>IF(AN29&gt;Maturity,"-",EXP(-QuantoHazardRate*AN28)-EXP(-QuantoHazardRate*AN29))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS29" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT29" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU29" s="25" t="str">
@@ -22300,15 +22300,15 @@
       </c>
       <c r="D30" s="62">
         <f>D31/D32</f>
-        <v>1.984960311920678E-2</v>
+        <v>2.0028593072158162E-2</v>
       </c>
       <c r="E30" s="62">
         <f>D30-C30</f>
-        <v>1.8519462699594924E-3</v>
+        <v>2.0309362229108743E-3</v>
       </c>
       <c r="P30" s="3"/>
       <c r="R30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="S30" s="22" t="str">
@@ -22348,39 +22348,39 @@
         <v>-</v>
       </c>
       <c r="AC30" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="AD30" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE30" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF30" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG30" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH30" s="23" t="str">
-        <f>IF(AC30&gt;Maturity,"-",EXP(-DomesticHazardRate*AC29)-EXP(-DomesticHazardRate*AC30))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI30" s="23" t="str">
-        <f>IF(AC30&gt;Maturity,"-",EXP(-QuantoHazardRate*AC29)-EXP(-QuantoHazardRate*AC30))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ30" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK30" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL30" s="25" t="str">
@@ -22388,31 +22388,31 @@
         <v>-</v>
       </c>
       <c r="AN30" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="AO30" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP30" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ30" s="23" t="str">
-        <f>IF(AN30&gt;Maturity,"-",EXP(-DomesticHazardRate*AN29)-EXP(-DomesticHazardRate*AN30))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR30" s="23" t="str">
-        <f>IF(AN30&gt;Maturity,"-",EXP(-QuantoHazardRate*AN29)-EXP(-QuantoHazardRate*AN30))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS30" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT30" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU30" s="25" t="str">
@@ -22430,15 +22430,15 @@
       </c>
       <c r="D31" s="14">
         <f>-QuantoProtectionLegTotalPV-QuantoAccruedInterestTotalPV</f>
-        <v>-71281.365697062778</v>
+        <v>-71873.945888408314</v>
       </c>
       <c r="E31" s="14">
         <f>D31-C31</f>
-        <v>-6181.1361993377723</v>
+        <v>-6773.7163906833084</v>
       </c>
       <c r="P31" s="3"/>
       <c r="R31" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7.25</v>
       </c>
       <c r="S31" s="22" t="str">
@@ -22478,39 +22478,39 @@
         <v>-</v>
       </c>
       <c r="AC31" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.25</v>
       </c>
       <c r="AD31" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE31" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF31" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG31" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH31" s="23" t="str">
-        <f>IF(AC31&gt;Maturity,"-",EXP(-DomesticHazardRate*AC30)-EXP(-DomesticHazardRate*AC31))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI31" s="23" t="str">
-        <f>IF(AC31&gt;Maturity,"-",EXP(-QuantoHazardRate*AC30)-EXP(-QuantoHazardRate*AC31))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ31" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK31" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL31" s="25" t="str">
@@ -22518,31 +22518,31 @@
         <v>-</v>
       </c>
       <c r="AN31" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.25</v>
       </c>
       <c r="AO31" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP31" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ31" s="23" t="str">
-        <f>IF(AN31&gt;Maturity,"-",EXP(-DomesticHazardRate*AN30)-EXP(-DomesticHazardRate*AN31))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR31" s="23" t="str">
-        <f>IF(AN31&gt;Maturity,"-",EXP(-QuantoHazardRate*AN30)-EXP(-QuantoHazardRate*AN31))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS31" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT31" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU31" s="25" t="str">
@@ -22560,15 +22560,15 @@
       </c>
       <c r="D32" s="52">
         <f>SUMPRODUCT(S3:S44,U3:U44,X3:X44,Y3:Y44)</f>
-        <v>-3591072.590670079</v>
+        <v>-3588566.8868234493</v>
       </c>
       <c r="E32" s="15">
         <f>D32-C32</f>
-        <v>26077.688559057657</v>
+        <v>28583.392405687366</v>
       </c>
       <c r="P32" s="3"/>
       <c r="R32" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7.5</v>
       </c>
       <c r="S32" s="22" t="str">
@@ -22608,39 +22608,39 @@
         <v>-</v>
       </c>
       <c r="AC32" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
       <c r="AD32" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE32" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF32" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG32" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH32" s="23" t="str">
-        <f>IF(AC32&gt;Maturity,"-",EXP(-DomesticHazardRate*AC31)-EXP(-DomesticHazardRate*AC32))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI32" s="23" t="str">
-        <f>IF(AC32&gt;Maturity,"-",EXP(-QuantoHazardRate*AC31)-EXP(-QuantoHazardRate*AC32))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ32" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK32" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL32" s="25" t="str">
@@ -22648,31 +22648,31 @@
         <v>-</v>
       </c>
       <c r="AN32" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.5</v>
       </c>
       <c r="AO32" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP32" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ32" s="23" t="str">
-        <f>IF(AN32&gt;Maturity,"-",EXP(-DomesticHazardRate*AN31)-EXP(-DomesticHazardRate*AN32))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR32" s="23" t="str">
-        <f>IF(AN32&gt;Maturity,"-",EXP(-QuantoHazardRate*AN31)-EXP(-QuantoHazardRate*AN32))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS32" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT32" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU32" s="25" t="str">
@@ -22683,7 +22683,7 @@
     <row r="33" spans="8:47">
       <c r="P33" s="3"/>
       <c r="R33" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7.75</v>
       </c>
       <c r="S33" s="22" t="str">
@@ -22723,39 +22723,39 @@
         <v>-</v>
       </c>
       <c r="AC33" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.75</v>
       </c>
       <c r="AD33" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE33" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF33" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG33" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH33" s="23" t="str">
-        <f>IF(AC33&gt;Maturity,"-",EXP(-DomesticHazardRate*AC32)-EXP(-DomesticHazardRate*AC33))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI33" s="23" t="str">
-        <f>IF(AC33&gt;Maturity,"-",EXP(-QuantoHazardRate*AC32)-EXP(-QuantoHazardRate*AC33))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ33" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK33" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL33" s="25" t="str">
@@ -22763,31 +22763,31 @@
         <v>-</v>
       </c>
       <c r="AN33" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.75</v>
       </c>
       <c r="AO33" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP33" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ33" s="23" t="str">
-        <f>IF(AN33&gt;Maturity,"-",EXP(-DomesticHazardRate*AN32)-EXP(-DomesticHazardRate*AN33))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR33" s="23" t="str">
-        <f>IF(AN33&gt;Maturity,"-",EXP(-QuantoHazardRate*AN32)-EXP(-QuantoHazardRate*AN33))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS33" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT33" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU33" s="25" t="str">
@@ -22798,7 +22798,7 @@
     <row r="34" spans="8:47">
       <c r="P34" s="3"/>
       <c r="R34" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="S34" s="22" t="str">
@@ -22838,39 +22838,39 @@
         <v>-</v>
       </c>
       <c r="AC34" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="AD34" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE34" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF34" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG34" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH34" s="23" t="str">
-        <f>IF(AC34&gt;Maturity,"-",EXP(-DomesticHazardRate*AC33)-EXP(-DomesticHazardRate*AC34))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI34" s="23" t="str">
-        <f>IF(AC34&gt;Maturity,"-",EXP(-QuantoHazardRate*AC33)-EXP(-QuantoHazardRate*AC34))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ34" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK34" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL34" s="25" t="str">
@@ -22878,31 +22878,31 @@
         <v>-</v>
       </c>
       <c r="AN34" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="AO34" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP34" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ34" s="23" t="str">
-        <f>IF(AN34&gt;Maturity,"-",EXP(-DomesticHazardRate*AN33)-EXP(-DomesticHazardRate*AN34))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR34" s="23" t="str">
-        <f>IF(AN34&gt;Maturity,"-",EXP(-QuantoHazardRate*AN33)-EXP(-QuantoHazardRate*AN34))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS34" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT34" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU34" s="25" t="str">
@@ -22913,7 +22913,7 @@
     <row r="35" spans="8:47">
       <c r="P35" s="3"/>
       <c r="R35" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8.25</v>
       </c>
       <c r="S35" s="22" t="str">
@@ -22953,39 +22953,39 @@
         <v>-</v>
       </c>
       <c r="AC35" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.25</v>
       </c>
       <c r="AD35" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE35" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF35" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG35" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH35" s="23" t="str">
-        <f>IF(AC35&gt;Maturity,"-",EXP(-DomesticHazardRate*AC34)-EXP(-DomesticHazardRate*AC35))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI35" s="23" t="str">
-        <f>IF(AC35&gt;Maturity,"-",EXP(-QuantoHazardRate*AC34)-EXP(-QuantoHazardRate*AC35))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ35" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK35" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL35" s="25" t="str">
@@ -22993,31 +22993,31 @@
         <v>-</v>
       </c>
       <c r="AN35" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.25</v>
       </c>
       <c r="AO35" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP35" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ35" s="23" t="str">
-        <f>IF(AN35&gt;Maturity,"-",EXP(-DomesticHazardRate*AN34)-EXP(-DomesticHazardRate*AN35))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR35" s="23" t="str">
-        <f>IF(AN35&gt;Maturity,"-",EXP(-QuantoHazardRate*AN34)-EXP(-QuantoHazardRate*AN35))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS35" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT35" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU35" s="25" t="str">
@@ -23036,7 +23036,7 @@
       <c r="O36" s="44"/>
       <c r="P36" s="3"/>
       <c r="R36" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8.5</v>
       </c>
       <c r="S36" s="22" t="str">
@@ -23076,39 +23076,39 @@
         <v>-</v>
       </c>
       <c r="AC36" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.5</v>
       </c>
       <c r="AD36" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE36" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF36" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG36" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH36" s="23" t="str">
-        <f>IF(AC36&gt;Maturity,"-",EXP(-DomesticHazardRate*AC35)-EXP(-DomesticHazardRate*AC36))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI36" s="23" t="str">
-        <f>IF(AC36&gt;Maturity,"-",EXP(-QuantoHazardRate*AC35)-EXP(-QuantoHazardRate*AC36))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ36" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK36" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL36" s="25" t="str">
@@ -23116,31 +23116,31 @@
         <v>-</v>
       </c>
       <c r="AN36" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5</v>
       </c>
       <c r="AO36" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP36" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ36" s="23" t="str">
-        <f>IF(AN36&gt;Maturity,"-",EXP(-DomesticHazardRate*AN35)-EXP(-DomesticHazardRate*AN36))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR36" s="23" t="str">
-        <f>IF(AN36&gt;Maturity,"-",EXP(-QuantoHazardRate*AN35)-EXP(-QuantoHazardRate*AN36))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS36" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT36" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU36" s="25" t="str">
@@ -23151,7 +23151,7 @@
     <row r="37" spans="8:47">
       <c r="P37" s="3"/>
       <c r="R37" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8.75</v>
       </c>
       <c r="S37" s="22" t="str">
@@ -23191,39 +23191,39 @@
         <v>-</v>
       </c>
       <c r="AC37" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.75</v>
       </c>
       <c r="AD37" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE37" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF37" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG37" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH37" s="23" t="str">
-        <f>IF(AC37&gt;Maturity,"-",EXP(-DomesticHazardRate*AC36)-EXP(-DomesticHazardRate*AC37))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI37" s="23" t="str">
-        <f>IF(AC37&gt;Maturity,"-",EXP(-QuantoHazardRate*AC36)-EXP(-QuantoHazardRate*AC37))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ37" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK37" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL37" s="25" t="str">
@@ -23231,31 +23231,31 @@
         <v>-</v>
       </c>
       <c r="AN37" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.75</v>
       </c>
       <c r="AO37" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP37" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ37" s="23" t="str">
-        <f>IF(AN37&gt;Maturity,"-",EXP(-DomesticHazardRate*AN36)-EXP(-DomesticHazardRate*AN37))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR37" s="23" t="str">
-        <f>IF(AN37&gt;Maturity,"-",EXP(-QuantoHazardRate*AN36)-EXP(-QuantoHazardRate*AN37))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS37" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT37" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU37" s="25" t="str">
@@ -23266,7 +23266,7 @@
     <row r="38" spans="8:47">
       <c r="P38" s="3"/>
       <c r="R38" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="S38" s="22" t="str">
@@ -23306,39 +23306,39 @@
         <v>-</v>
       </c>
       <c r="AC38" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="AD38" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE38" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF38" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG38" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH38" s="23" t="str">
-        <f>IF(AC38&gt;Maturity,"-",EXP(-DomesticHazardRate*AC37)-EXP(-DomesticHazardRate*AC38))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI38" s="23" t="str">
-        <f>IF(AC38&gt;Maturity,"-",EXP(-QuantoHazardRate*AC37)-EXP(-QuantoHazardRate*AC38))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ38" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK38" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL38" s="25" t="str">
@@ -23346,31 +23346,31 @@
         <v>-</v>
       </c>
       <c r="AN38" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AO38" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP38" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ38" s="23" t="str">
-        <f>IF(AN38&gt;Maturity,"-",EXP(-DomesticHazardRate*AN37)-EXP(-DomesticHazardRate*AN38))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR38" s="23" t="str">
-        <f>IF(AN38&gt;Maturity,"-",EXP(-QuantoHazardRate*AN37)-EXP(-QuantoHazardRate*AN38))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS38" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT38" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU38" s="25" t="str">
@@ -23381,7 +23381,7 @@
     <row r="39" spans="8:47">
       <c r="P39" s="3"/>
       <c r="R39" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9.25</v>
       </c>
       <c r="S39" s="22" t="str">
@@ -23421,39 +23421,39 @@
         <v>-</v>
       </c>
       <c r="AC39" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.25</v>
       </c>
       <c r="AD39" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE39" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF39" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG39" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH39" s="23" t="str">
-        <f>IF(AC39&gt;Maturity,"-",EXP(-DomesticHazardRate*AC38)-EXP(-DomesticHazardRate*AC39))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI39" s="23" t="str">
-        <f>IF(AC39&gt;Maturity,"-",EXP(-QuantoHazardRate*AC38)-EXP(-QuantoHazardRate*AC39))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ39" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK39" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL39" s="25" t="str">
@@ -23461,31 +23461,31 @@
         <v>-</v>
       </c>
       <c r="AN39" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.25</v>
       </c>
       <c r="AO39" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP39" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ39" s="23" t="str">
-        <f>IF(AN39&gt;Maturity,"-",EXP(-DomesticHazardRate*AN38)-EXP(-DomesticHazardRate*AN39))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR39" s="23" t="str">
-        <f>IF(AN39&gt;Maturity,"-",EXP(-QuantoHazardRate*AN38)-EXP(-QuantoHazardRate*AN39))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS39" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT39" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU39" s="25" t="str">
@@ -23496,7 +23496,7 @@
     <row r="40" spans="8:47">
       <c r="P40" s="3"/>
       <c r="R40" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9.5</v>
       </c>
       <c r="S40" s="22" t="str">
@@ -23536,39 +23536,39 @@
         <v>-</v>
       </c>
       <c r="AC40" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.5</v>
       </c>
       <c r="AD40" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE40" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF40" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG40" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH40" s="23" t="str">
-        <f>IF(AC40&gt;Maturity,"-",EXP(-DomesticHazardRate*AC39)-EXP(-DomesticHazardRate*AC40))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI40" s="23" t="str">
-        <f>IF(AC40&gt;Maturity,"-",EXP(-QuantoHazardRate*AC39)-EXP(-QuantoHazardRate*AC40))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ40" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK40" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL40" s="25" t="str">
@@ -23576,31 +23576,31 @@
         <v>-</v>
       </c>
       <c r="AN40" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.5</v>
       </c>
       <c r="AO40" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP40" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ40" s="23" t="str">
-        <f>IF(AN40&gt;Maturity,"-",EXP(-DomesticHazardRate*AN39)-EXP(-DomesticHazardRate*AN40))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR40" s="23" t="str">
-        <f>IF(AN40&gt;Maturity,"-",EXP(-QuantoHazardRate*AN39)-EXP(-QuantoHazardRate*AN40))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS40" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT40" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU40" s="25" t="str">
@@ -23611,7 +23611,7 @@
     <row r="41" spans="8:47">
       <c r="P41" s="3"/>
       <c r="R41" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9.75</v>
       </c>
       <c r="S41" s="22" t="str">
@@ -23651,39 +23651,39 @@
         <v>-</v>
       </c>
       <c r="AC41" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.75</v>
       </c>
       <c r="AD41" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE41" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF41" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG41" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH41" s="23" t="str">
-        <f>IF(AC41&gt;Maturity,"-",EXP(-DomesticHazardRate*AC40)-EXP(-DomesticHazardRate*AC41))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI41" s="23" t="str">
-        <f>IF(AC41&gt;Maturity,"-",EXP(-QuantoHazardRate*AC40)-EXP(-QuantoHazardRate*AC41))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ41" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK41" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL41" s="25" t="str">
@@ -23691,31 +23691,31 @@
         <v>-</v>
       </c>
       <c r="AN41" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.75</v>
       </c>
       <c r="AO41" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP41" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ41" s="23" t="str">
-        <f>IF(AN41&gt;Maturity,"-",EXP(-DomesticHazardRate*AN40)-EXP(-DomesticHazardRate*AN41))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR41" s="23" t="str">
-        <f>IF(AN41&gt;Maturity,"-",EXP(-QuantoHazardRate*AN40)-EXP(-QuantoHazardRate*AN41))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS41" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT41" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU41" s="25" t="str">
@@ -23726,7 +23726,7 @@
     <row r="42" spans="8:47">
       <c r="P42" s="3"/>
       <c r="R42" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="S42" s="22" t="str">
@@ -23766,39 +23766,39 @@
         <v>-</v>
       </c>
       <c r="AC42" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="AD42" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE42" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF42" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG42" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH42" s="23" t="str">
-        <f>IF(AC42&gt;Maturity,"-",EXP(-DomesticHazardRate*AC41)-EXP(-DomesticHazardRate*AC42))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI42" s="23" t="str">
-        <f>IF(AC42&gt;Maturity,"-",EXP(-QuantoHazardRate*AC41)-EXP(-QuantoHazardRate*AC42))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ42" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK42" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL42" s="25" t="str">
@@ -23806,31 +23806,31 @@
         <v>-</v>
       </c>
       <c r="AN42" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AO42" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP42" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ42" s="23" t="str">
-        <f>IF(AN42&gt;Maturity,"-",EXP(-DomesticHazardRate*AN41)-EXP(-DomesticHazardRate*AN42))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR42" s="23" t="str">
-        <f>IF(AN42&gt;Maturity,"-",EXP(-QuantoHazardRate*AN41)-EXP(-QuantoHazardRate*AN42))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS42" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT42" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU42" s="25" t="str">
@@ -23841,7 +23841,7 @@
     <row r="43" spans="8:47">
       <c r="P43" s="3"/>
       <c r="R43" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10.25</v>
       </c>
       <c r="S43" s="22" t="str">
@@ -23881,39 +23881,39 @@
         <v>-</v>
       </c>
       <c r="AC43" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10.25</v>
       </c>
       <c r="AD43" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE43" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF43" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG43" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH43" s="23" t="str">
-        <f>IF(AC43&gt;Maturity,"-",EXP(-DomesticHazardRate*AC42)-EXP(-DomesticHazardRate*AC43))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI43" s="23" t="str">
-        <f>IF(AC43&gt;Maturity,"-",EXP(-QuantoHazardRate*AC42)-EXP(-QuantoHazardRate*AC43))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ43" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK43" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL43" s="25" t="str">
@@ -23921,31 +23921,31 @@
         <v>-</v>
       </c>
       <c r="AN43" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>10.25</v>
       </c>
       <c r="AO43" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP43" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ43" s="23" t="str">
-        <f>IF(AN43&gt;Maturity,"-",EXP(-DomesticHazardRate*AN42)-EXP(-DomesticHazardRate*AN43))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR43" s="23" t="str">
-        <f>IF(AN43&gt;Maturity,"-",EXP(-QuantoHazardRate*AN42)-EXP(-QuantoHazardRate*AN43))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS43" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT43" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU43" s="25" t="str">
@@ -23956,7 +23956,7 @@
     <row r="44" spans="8:47">
       <c r="P44" s="3"/>
       <c r="R44" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10.5</v>
       </c>
       <c r="S44" s="27" t="str">
@@ -23996,39 +23996,39 @@
         <v>-</v>
       </c>
       <c r="AC44" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10.5</v>
       </c>
       <c r="AD44" s="27" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-</v>
       </c>
       <c r="AE44" s="29" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="AF44" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="AG44" s="27" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-</v>
       </c>
       <c r="AH44" s="28" t="str">
-        <f>IF(AC44&gt;Maturity,"-",EXP(-DomesticHazardRate*AC43)-EXP(-DomesticHazardRate*AC44))</f>
+        <f t="shared" si="27"/>
         <v>-</v>
       </c>
       <c r="AI44" s="28" t="str">
-        <f>IF(AC44&gt;Maturity,"-",EXP(-QuantoHazardRate*AC43)-EXP(-QuantoHazardRate*AC44))</f>
+        <f t="shared" si="28"/>
         <v>-</v>
       </c>
       <c r="AJ44" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-</v>
       </c>
       <c r="AK44" s="27" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AL44" s="30" t="str">
@@ -24036,31 +24036,31 @@
         <v>-</v>
       </c>
       <c r="AN44" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>10.5</v>
       </c>
       <c r="AO44" s="27" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-</v>
       </c>
       <c r="AP44" s="27" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ44" s="28" t="str">
-        <f>IF(AN44&gt;Maturity,"-",EXP(-DomesticHazardRate*AN43)-EXP(-DomesticHazardRate*AN44))</f>
+        <f t="shared" si="30"/>
         <v>-</v>
       </c>
       <c r="AR44" s="28" t="str">
-        <f>IF(AN44&gt;Maturity,"-",EXP(-QuantoHazardRate*AN43)-EXP(-QuantoHazardRate*AN44))</f>
+        <f t="shared" si="31"/>
         <v>-</v>
       </c>
       <c r="AS44" s="28" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="AT44" s="27" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU44" s="30" t="str">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="AA47" s="43">
         <f>SUM(AA3:AA44)</f>
-        <v>-66793.950186463466</v>
+        <v>-66747.344094916145</v>
       </c>
       <c r="AK47" s="43">
         <f>SUM(AK3:AK44)</f>
@@ -24102,7 +24102,7 @@
       </c>
       <c r="AL47" s="43">
         <f>SUM(AL3:AL44)</f>
-        <v>-277.28979001241635</v>
+        <v>-279.5949708295467</v>
       </c>
       <c r="AT47" s="43">
         <f>SUM(AT3:AT44)</f>
@@ -24110,7 +24110,7 @@
       </c>
       <c r="AU47" s="43">
         <f>SUM(AU3:AU44)</f>
-        <v>71558.655487075201</v>
+        <v>72153.540859237866</v>
       </c>
     </row>
     <row r="48" spans="8:47">

--- a/Quanto CDS/Quanto CDS.xlsx
+++ b/Quanto CDS/Quanto CDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburg\Documents\MY_DOCUMENTS\QUANT\PAPERS\.QUANT_RESEARCH\Quanto CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F5F77-5E2E-4FF7-8EFD-9D7B91950A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5652EF-D500-47A2-829B-DA079D25C03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="2550" windowWidth="29415" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="YearFraction">CDS!$C$10</definedName>
     <definedName name="ZeroRate">CDS!$C$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -384,9 +384,6 @@
     <t>Domestic PV</t>
   </si>
   <si>
-    <t>Quanto Effect</t>
-  </si>
-  <si>
     <t>Correlation</t>
   </si>
   <si>
@@ -432,12 +429,15 @@
   <si>
     <t>Quanto Parameters &amp; Hazard Rate Adjustment</t>
   </si>
+  <si>
+    <t>Quanto Basis (Bps)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="17">
+  <numFmts count="18">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -455,8 +455,9 @@
     <numFmt numFmtId="175" formatCode="0.00_)"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy;dd\-mmm\-yy;"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="##.##"/>
   </numFmts>
-  <fonts count="95">
+  <fonts count="96">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1050,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10609,7 +10618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10755,10 +10764,6 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="93" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10769,9 +10774,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="89" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="91" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="91" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10787,8 +10789,20 @@
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18530,7 +18544,8 @@
     <col min="3" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="15" width="12.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="15" width="12.7109375" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" customWidth="1"/>
     <col min="18" max="27" width="15.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -18548,7 +18563,7 @@
   <sheetData>
     <row r="1" spans="2:48" s="1" customFormat="1">
       <c r="P1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R1" s="2"/>
       <c r="W1" s="1" t="s">
@@ -18581,10 +18596,10 @@
     </row>
     <row r="2" spans="2:48">
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>9</v>
@@ -18704,19 +18719,19 @@
       </c>
       <c r="X3" s="49">
         <f t="shared" ref="X3:X44" si="4">IF(R3&gt;Maturity,"-",EXP(-QuantoHazardRate*R3))</f>
-        <v>0.99169189218159381</v>
+        <v>0.99443274243747659</v>
       </c>
       <c r="Y3" s="18">
         <f t="shared" ref="Y3:Y44" si="5">IF(R3&gt;Maturity,"-",EXP(-ZeroRate*R3))</f>
-        <v>0.97530991202833262</v>
+        <v>0.98757780049388144</v>
       </c>
       <c r="Z3" s="17">
         <f t="shared" ref="Z3:Z44" si="6">IF(R3&gt;Maturity,"-",V3*W3*Y3)</f>
-        <v>-4501.3043917155728</v>
+        <v>-4557.9238308764125</v>
       </c>
       <c r="AA3" s="20">
         <f t="shared" ref="AA3:AA44" si="7">IF(R3&gt;Maturity,"-",Z3*EXP(-(QuantoHazardRate-DomesticHazardRate)*R3))</f>
-        <v>-4497.5122343712101</v>
+        <v>-4566.6706073970836</v>
       </c>
       <c r="AC3" s="16">
         <f>YearFraction</f>
@@ -18744,19 +18759,19 @@
       </c>
       <c r="AI3" s="18">
         <f t="shared" ref="AI3" si="13">IF(AC3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AC3))</f>
-        <v>8.3081078184061852E-3</v>
+        <v>5.5672575625234089E-3</v>
       </c>
       <c r="AJ3" s="18">
         <f t="shared" ref="AJ3:AJ22" si="14">IF(AC3&gt;Maturity,"-",EXP(-ZeroRate*AC3))</f>
-        <v>0.97530991202833262</v>
+        <v>0.98757780049388144</v>
       </c>
       <c r="AK3" s="17">
         <f t="shared" ref="AK3:AK22" si="15">IF(AC3&gt;Maturity,"-",AG3*AH3*AJ3)</f>
-        <v>-16.943349608086926</v>
+        <v>-17.156470710068277</v>
       </c>
       <c r="AL3" s="20">
         <f t="shared" ref="AL3:AL44" si="16">IF(AC3&gt;Maturity,"-",AK3/AH3*AI3)</f>
-        <v>-18.839428280268059</v>
+        <v>-12.783082449733026</v>
       </c>
       <c r="AN3" s="16">
         <f>YearFraction</f>
@@ -18776,19 +18791,19 @@
       </c>
       <c r="AR3" s="18">
         <f t="shared" ref="AR3" si="20">IF(AN3&gt;Maturity,"-",1-EXP(-QuantoHazardRate*AN3))</f>
-        <v>8.3081078184061852E-3</v>
+        <v>5.5672575625234089E-3</v>
       </c>
       <c r="AS3" s="18">
         <f t="shared" ref="AS3:AS22" si="21">IF(AN3&gt;Maturity,"-",EXP(-ZeroRate*AN3))</f>
-        <v>0.97530991202833262</v>
+        <v>0.98757780049388144</v>
       </c>
       <c r="AT3" s="17">
         <f t="shared" ref="AT3:AT22" si="22">IF(AN3&gt;Maturity,"-",AP3*AQ3*AS3)</f>
-        <v>4372.4773182159806</v>
+        <v>4427.476312275684</v>
       </c>
       <c r="AU3" s="20">
         <f t="shared" ref="AU3:AU44" si="23">IF(AN3&gt;Maturity,"-",AT3/AQ3*AR3)</f>
-        <v>4861.787943294984</v>
+        <v>3298.8599870278772</v>
       </c>
     </row>
     <row r="4" spans="2:48">
@@ -18799,18 +18814,18 @@
         <f>IF(UPPER(C3)="BUY",1,-1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="67" t="s">
+      <c r="H4" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="3"/>
       <c r="R4" s="35">
         <f t="shared" ref="R4:R10" si="24">R3+YearFraction</f>
@@ -18838,19 +18853,19 @@
       </c>
       <c r="X4" s="50">
         <f t="shared" si="4"/>
-        <v>0.98345280901870991</v>
+        <v>0.98889647923172064</v>
       </c>
       <c r="Y4" s="23">
         <f t="shared" si="5"/>
-        <v>0.95122942450071402</v>
+        <v>0.97530991202833262</v>
       </c>
       <c r="Z4" s="22">
         <f t="shared" si="6"/>
-        <v>-4357.3637047049251</v>
+        <v>-4467.6708920583023</v>
       </c>
       <c r="AA4" s="25">
         <f t="shared" si="7"/>
-        <v>-4350.0250103911221</v>
+        <v>-4484.83450246547</v>
       </c>
       <c r="AC4" s="21">
         <f t="shared" ref="AC4:AC10" si="26">AC3+YearFraction</f>
@@ -18878,19 +18893,19 @@
       </c>
       <c r="AI4" s="23">
         <f t="shared" ref="AI4:AI44" si="28">IF(AC4&gt;Maturity,"-",EXP(-QuantoHazardRate*AC3)-EXP(-QuantoHazardRate*AC4))</f>
-        <v>8.239083162883909E-3</v>
+        <v>5.5362632057559535E-3</v>
       </c>
       <c r="AJ4" s="23">
         <f t="shared" si="14"/>
-        <v>0.95122942450071402</v>
+        <v>0.97530991202833262</v>
       </c>
       <c r="AK4" s="22">
         <f t="shared" si="15"/>
-        <v>-16.401542795968577</v>
+        <v>-16.816749828635096</v>
       </c>
       <c r="AL4" s="25">
         <f t="shared" si="16"/>
-        <v>-18.221625629906331</v>
+        <v>-12.554005783898816</v>
       </c>
       <c r="AN4" s="21">
         <f t="shared" ref="AN4:AN10" si="29">AN3+YearFraction</f>
@@ -18910,19 +18925,19 @@
       </c>
       <c r="AR4" s="23">
         <f t="shared" ref="AR4:AR44" si="31">IF(AN4&gt;Maturity,"-",EXP(-QuantoHazardRate*AN3)-EXP(-QuantoHazardRate*AN4))</f>
-        <v>8.239083162883909E-3</v>
+        <v>5.5362632057559535E-3</v>
       </c>
       <c r="AS4" s="23">
         <f t="shared" si="21"/>
-        <v>0.95122942450071402</v>
+        <v>0.97530991202833262</v>
       </c>
       <c r="AT4" s="22">
         <f t="shared" si="22"/>
-        <v>4232.6562054112455</v>
+        <v>4339.8064073897031</v>
       </c>
       <c r="AU4" s="25">
         <f t="shared" si="23"/>
-        <v>4702.3550012661508</v>
+        <v>3239.7434281029205</v>
       </c>
     </row>
     <row r="5" spans="2:48">
@@ -18932,36 +18947,30 @@
       <c r="C5" s="6">
         <v>1000000</v>
       </c>
-      <c r="H5" s="59">
-        <f>E24</f>
-        <v>7305.3674894290962</v>
-      </c>
-      <c r="I5" s="58">
+      <c r="H5" s="63">
+        <f>E30*10000</f>
+        <v>-46.135011525018939</v>
+      </c>
+      <c r="I5" s="56">
         <v>0</v>
       </c>
-      <c r="J5" s="58">
-        <f t="shared" ref="J5:O5" si="32">I5+5%</f>
-        <v>0.05</v>
-      </c>
-      <c r="K5" s="58">
-        <f t="shared" si="32"/>
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="58">
-        <f t="shared" si="32"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="M5" s="58">
-        <f t="shared" si="32"/>
-        <v>0.2</v>
-      </c>
-      <c r="N5" s="58">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
-      </c>
-      <c r="O5" s="58">
-        <f t="shared" si="32"/>
-        <v>0.3</v>
+      <c r="J5" s="56">
+        <v>-0.1</v>
+      </c>
+      <c r="K5" s="56">
+        <v>-0.15</v>
+      </c>
+      <c r="L5" s="56">
+        <v>-0.2</v>
+      </c>
+      <c r="M5" s="56">
+        <v>-0.25</v>
+      </c>
+      <c r="N5" s="56">
+        <v>-0.3</v>
+      </c>
+      <c r="O5" s="56">
+        <v>-0.5</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="35">
@@ -18990,19 +18999,19 @@
       </c>
       <c r="X5" s="50">
         <f t="shared" si="4"/>
-        <v>0.97528217704706799</v>
+        <v>0.98339103782916515</v>
       </c>
       <c r="Y5" s="23">
         <f t="shared" si="5"/>
-        <v>0.92774348632855286</v>
+        <v>0.96319441772082182</v>
       </c>
       <c r="Z5" s="22">
         <f t="shared" si="6"/>
-        <v>-4218.025888234477</v>
+        <v>-4379.2050811667559</v>
       </c>
       <c r="AA5" s="25">
         <f t="shared" si="7"/>
-        <v>-4207.3743449580261</v>
+        <v>-4404.4649250428783</v>
       </c>
       <c r="AC5" s="21">
         <f t="shared" si="26"/>
@@ -19030,19 +19039,19 @@
       </c>
       <c r="AI5" s="23">
         <f t="shared" si="28"/>
-        <v>8.1706319716419173E-3</v>
+        <v>5.5054414025554888E-3</v>
       </c>
       <c r="AJ5" s="23">
         <f t="shared" si="14"/>
-        <v>0.92774348632855286</v>
+        <v>0.96319441772082182</v>
       </c>
       <c r="AK5" s="22">
         <f t="shared" si="15"/>
-        <v>-15.877061638366524</v>
+        <v>-16.483755871359744</v>
       </c>
       <c r="AL5" s="25">
         <f t="shared" si="16"/>
-        <v>-17.624082623792766</v>
+        <v>-12.329034240521</v>
       </c>
       <c r="AN5" s="21">
         <f t="shared" si="29"/>
@@ -19062,19 +19071,19 @@
       </c>
       <c r="AR5" s="23">
         <f t="shared" si="31"/>
-        <v>8.1706319716419173E-3</v>
+        <v>5.5054414025554888E-3</v>
       </c>
       <c r="AS5" s="23">
         <f t="shared" si="21"/>
-        <v>0.92774348632855286</v>
+        <v>0.96319441772082182</v>
       </c>
       <c r="AT5" s="22">
         <f t="shared" si="22"/>
-        <v>4097.306229255877</v>
+        <v>4253.872482931547</v>
       </c>
       <c r="AU5" s="25">
         <f t="shared" si="23"/>
-        <v>4548.1503545271662</v>
+        <v>3181.6862556183232</v>
       </c>
     </row>
     <row r="6" spans="2:48" ht="17.25">
@@ -19084,33 +19093,34 @@
       <c r="C6" s="8">
         <v>0.03</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="57">
+      <c r="D6" s="44"/>
+      <c r="G6" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="55">
         <v>1</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="64">
         <f t="dataTable" ref="I6:O14" dt2D="1" dtr="1" r1="C15" r2="C16"/>
-        <v>2450.0495273290071</v>
-      </c>
-      <c r="J6" s="53">
-        <v>5819.0876510507587</v>
-      </c>
-      <c r="K6" s="53">
-        <v>9164.8358747583334</v>
-      </c>
-      <c r="L6" s="53">
-        <v>12487.464475857727</v>
-      </c>
-      <c r="M6" s="53">
-        <v>15787.142457408794</v>
-      </c>
-      <c r="N6" s="53">
-        <v>19064.037557776224</v>
-      </c>
-      <c r="O6" s="53">
-        <v>22318.316260206069</v>
+        <v>4.516731536941335</v>
+      </c>
+      <c r="J6" s="64">
+        <v>-13.996487007338459</v>
+      </c>
+      <c r="K6" s="64">
+        <v>-23.247760633107671</v>
+      </c>
+      <c r="L6" s="64">
+        <v>-32.4954789839</v>
+      </c>
+      <c r="M6" s="64">
+        <v>-41.73964342601186</v>
+      </c>
+      <c r="N6" s="64">
+        <v>-50.980255325214443</v>
+      </c>
+      <c r="O6" s="64">
+        <v>-87.907204789987802</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="35">
@@ -19139,19 +19149,19 @@
       </c>
       <c r="X6" s="50">
         <f t="shared" si="4"/>
-        <v>0.96717942756679098</v>
+        <v>0.97791624663689292</v>
       </c>
       <c r="Y6" s="23">
         <f t="shared" si="5"/>
-        <v>0.90483741803595952</v>
+        <v>0.95122942450071402</v>
       </c>
       <c r="Z6" s="22">
         <f t="shared" si="6"/>
-        <v>-4083.14375378061</v>
+        <v>-4292.4910106978559</v>
       </c>
       <c r="AA6" s="25">
         <f t="shared" si="7"/>
-        <v>-4069.4016324792015</v>
+        <v>-4325.5355945171414</v>
       </c>
       <c r="AC6" s="21">
         <f t="shared" si="26"/>
@@ -19179,19 +19189,19 @@
       </c>
       <c r="AI6" s="23">
         <f t="shared" si="28"/>
-        <v>8.102749480277005E-3</v>
+        <v>5.4747911922722325E-3</v>
       </c>
       <c r="AJ6" s="23">
         <f t="shared" si="14"/>
-        <v>0.90483741803595952</v>
+        <v>0.95122942450071402</v>
       </c>
       <c r="AK6" s="22">
         <f t="shared" si="15"/>
-        <v>-15.369352103294197</v>
+        <v>-16.157355636219243</v>
       </c>
       <c r="AL6" s="25">
         <f t="shared" si="16"/>
-        <v>-17.046134886038082</v>
+        <v>-12.108094254576562</v>
       </c>
       <c r="AN6" s="21">
         <f t="shared" si="29"/>
@@ -19211,19 +19221,19 @@
       </c>
       <c r="AR6" s="23">
         <f t="shared" si="31"/>
-        <v>8.102749480277005E-3</v>
+        <v>5.4747911922722325E-3</v>
       </c>
       <c r="AS6" s="23">
         <f t="shared" si="21"/>
-        <v>0.90483741803595952</v>
+        <v>0.95122942450071402</v>
       </c>
       <c r="AT6" s="22">
         <f t="shared" si="22"/>
-        <v>3966.2844137533416</v>
+        <v>4169.640164185611</v>
       </c>
       <c r="AU6" s="25">
         <f t="shared" si="23"/>
-        <v>4399.0025512356351</v>
+        <v>3124.6694850520162</v>
       </c>
     </row>
     <row r="7" spans="2:48">
@@ -19233,31 +19243,31 @@
       <c r="C7" s="39">
         <v>0.4</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7:H13" si="33">H6-0.25</f>
+      <c r="G7" s="69"/>
+      <c r="H7" s="55">
+        <f t="shared" ref="H7:H13" si="32">H6-0.25</f>
         <v>0.75</v>
       </c>
-      <c r="I7" s="53">
-        <v>1838.6890888449489</v>
-      </c>
-      <c r="J7" s="53">
-        <v>5181.5778540973915</v>
-      </c>
-      <c r="K7" s="53">
-        <v>8501.5638489523044</v>
-      </c>
-      <c r="L7" s="53">
-        <v>11798.813018445966</v>
-      </c>
-      <c r="M7" s="53">
-        <v>15073.490076850918</v>
-      </c>
-      <c r="N7" s="53">
-        <v>18325.758516911963</v>
-      </c>
-      <c r="O7" s="53">
-        <v>21555.780619013465</v>
+      <c r="I7" s="64">
+        <v>3.3874692557939525</v>
+      </c>
+      <c r="J7" s="64">
+        <v>-15.012044432461055</v>
+      </c>
+      <c r="K7" s="64">
+        <v>-24.206530727170929</v>
+      </c>
+      <c r="L7" s="64">
+        <v>-33.397505111660962</v>
+      </c>
+      <c r="M7" s="64">
+        <v>-42.584968927334344</v>
+      </c>
+      <c r="N7" s="64">
+        <v>-51.768923515081894</v>
+      </c>
+      <c r="O7" s="64">
+        <v>-88.469676386709665</v>
       </c>
       <c r="P7" s="3"/>
       <c r="R7" s="35">
@@ -19286,19 +19296,19 @@
       </c>
       <c r="X7" s="50">
         <f t="shared" si="4"/>
-        <v>0.95914399660282179</v>
+        <v>0.97247193501728924</v>
       </c>
       <c r="Y7" s="23">
         <f t="shared" si="5"/>
-        <v>0.88249690258459546</v>
+        <v>0.93941306281347581</v>
       </c>
       <c r="Z7" s="22">
         <f t="shared" si="6"/>
-        <v>-3952.5748195481015</v>
+        <v>-4207.4939938672123</v>
       </c>
       <c r="AA7" s="25">
         <f t="shared" si="7"/>
-        <v>-3935.9534685258895</v>
+        <v>-4248.0207012325372</v>
       </c>
       <c r="AC7" s="21">
         <f t="shared" si="26"/>
@@ -19326,19 +19336,19 @@
       </c>
       <c r="AI7" s="23">
         <f t="shared" si="28"/>
-        <v>8.0354309639691923E-3</v>
+        <v>5.4443116196036812E-3</v>
       </c>
       <c r="AJ7" s="23">
         <f t="shared" si="14"/>
-        <v>0.88249690258459546</v>
+        <v>0.93941306281347581</v>
       </c>
       <c r="AK7" s="22">
         <f t="shared" si="15"/>
-        <v>-14.87787787535064</v>
+        <v>-15.837418558767371</v>
       </c>
       <c r="AL7" s="25">
         <f t="shared" si="16"/>
-        <v>-16.487139827676753</v>
+        <v>-11.891113579347717</v>
       </c>
       <c r="AN7" s="21">
         <f t="shared" si="29"/>
@@ -19358,19 +19368,19 @@
       </c>
       <c r="AR7" s="23">
         <f t="shared" si="31"/>
-        <v>8.0354309639691923E-3</v>
+        <v>5.4443116196036812E-3</v>
       </c>
       <c r="AS7" s="23">
         <f t="shared" si="21"/>
-        <v>0.88249690258459546</v>
+        <v>0.93941306281347581</v>
       </c>
       <c r="AT7" s="22">
         <f t="shared" si="22"/>
-        <v>3839.4523549291971</v>
+        <v>4087.0757571012568</v>
       </c>
       <c r="AU7" s="25">
         <f t="shared" si="23"/>
-        <v>4254.7457619810966</v>
+        <v>3068.6744720897336</v>
       </c>
     </row>
     <row r="8" spans="2:48">
@@ -19380,31 +19390,31 @@
       <c r="C8" s="8">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="57">
-        <f t="shared" si="33"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="55">
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="I8" s="53">
-        <v>1226.5613673771222</v>
-      </c>
-      <c r="J8" s="53">
-        <v>4543.2282579866223</v>
-      </c>
-      <c r="K8" s="53">
-        <v>7837.3768169795148</v>
-      </c>
-      <c r="L8" s="53">
-        <v>11109.168726918077</v>
-      </c>
-      <c r="M8" s="53">
-        <v>14358.764482087303</v>
-      </c>
-      <c r="N8" s="53">
-        <v>17586.323397331689</v>
-      </c>
-      <c r="O8" s="53">
-        <v>20792.003616825481</v>
+      <c r="I8" s="64">
+        <v>2.25825990757534</v>
+      </c>
+      <c r="J8" s="64">
+        <v>-16.027559014658472</v>
+      </c>
+      <c r="K8" s="64">
+        <v>-25.165262620999354</v>
+      </c>
+      <c r="L8" s="64">
+        <v>-34.299497414076328</v>
+      </c>
+      <c r="M8" s="64">
+        <v>-43.430264710704584</v>
+      </c>
+      <c r="N8" s="64">
+        <v>-52.557565827198985</v>
+      </c>
+      <c r="O8" s="64">
+        <v>-89.032134800658199</v>
       </c>
       <c r="P8" s="3"/>
       <c r="R8" s="35">
@@ -19433,19 +19443,19 @@
       </c>
       <c r="X8" s="50">
         <f t="shared" si="4"/>
-        <v>0.95117532486566847</v>
+        <v>0.96705793328272249</v>
       </c>
       <c r="Y8" s="23">
         <f t="shared" si="5"/>
-        <v>0.86070797642505781</v>
+        <v>0.92774348632855286</v>
       </c>
       <c r="Z8" s="22">
         <f t="shared" si="6"/>
-        <v>-3826.1811599604862</v>
+        <v>-4124.180030734783</v>
       </c>
       <c r="AA8" s="25">
         <f t="shared" si="7"/>
-        <v>-3806.8814792711814</v>
+        <v>-4171.8948980501009</v>
       </c>
       <c r="AC8" s="21">
         <f t="shared" si="26"/>
@@ -19473,19 +19483,19 @@
       </c>
       <c r="AI8" s="23">
         <f t="shared" si="28"/>
-        <v>7.9686717371533211E-3</v>
+        <v>5.4140017345667424E-3</v>
       </c>
       <c r="AJ8" s="23">
         <f t="shared" si="14"/>
-        <v>0.86070797642505781</v>
+        <v>0.92774348632855286</v>
       </c>
       <c r="AK8" s="22">
         <f t="shared" si="15"/>
-        <v>-14.402119789188045</v>
+        <v>-15.523816659907704</v>
       </c>
       <c r="AL8" s="25">
         <f t="shared" si="16"/>
-        <v>-15.946475932207823</v>
+        <v>-11.678021262801691</v>
       </c>
       <c r="AN8" s="21">
         <f t="shared" si="29"/>
@@ -19505,19 +19515,19 @@
       </c>
       <c r="AR8" s="23">
         <f t="shared" si="31"/>
-        <v>7.9686717371533211E-3</v>
+        <v>5.4140017345667424E-3</v>
       </c>
       <c r="AS8" s="23">
         <f t="shared" si="21"/>
-        <v>0.86070797642505781</v>
+        <v>0.92774348632855286</v>
       </c>
       <c r="AT8" s="22">
         <f t="shared" si="22"/>
-        <v>3716.6760746291739</v>
+        <v>4006.1462348148921</v>
       </c>
       <c r="AU8" s="25">
         <f t="shared" si="23"/>
-        <v>4115.2195954084718</v>
+        <v>3013.6829065294692</v>
       </c>
     </row>
     <row r="9" spans="2:48">
@@ -19527,31 +19537,31 @@
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="57">
-        <f t="shared" si="33"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="55">
+        <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="I9" s="53">
-        <v>613.66534439889801</v>
-      </c>
-      <c r="J9" s="53">
-        <v>3904.0376923530348</v>
-      </c>
-      <c r="K9" s="53">
-        <v>7172.2734431269128</v>
-      </c>
-      <c r="L9" s="53">
-        <v>10418.530086281353</v>
-      </c>
-      <c r="M9" s="53">
-        <v>13642.963964508446</v>
-      </c>
-      <c r="N9" s="53">
-        <v>16845.730282081982</v>
-      </c>
-      <c r="O9" s="53">
-        <v>20026.983113245551</v>
+      <c r="I9" s="64">
+        <v>1.1291034898044603</v>
+      </c>
+      <c r="J9" s="64">
+        <v>-17.043030755738119</v>
+      </c>
+      <c r="K9" s="64">
+        <v>-26.123956316114853</v>
+      </c>
+      <c r="L9" s="64">
+        <v>-35.201455892414614</v>
+      </c>
+      <c r="M9" s="64">
+        <v>-44.275530777167155</v>
+      </c>
+      <c r="N9" s="64">
+        <v>-53.34618226241485</v>
+      </c>
+      <c r="O9" s="64">
+        <v>-89.594580032141934</v>
       </c>
       <c r="P9" s="3"/>
       <c r="R9" s="35">
@@ -19580,19 +19590,19 @@
       </c>
       <c r="X9" s="50">
         <f t="shared" si="4"/>
-        <v>0.94327285771247693</v>
+        <v>0.96167407269025595</v>
       </c>
       <c r="Y9" s="23">
         <f t="shared" si="5"/>
-        <v>0.83945702076920736</v>
+        <v>0.91621887165087756</v>
       </c>
       <c r="Z9" s="22">
         <f t="shared" si="6"/>
-        <v>-3703.8292599633369</v>
+        <v>-4042.5157946044465</v>
       </c>
       <c r="AA9" s="25">
         <f t="shared" si="7"/>
-        <v>-3682.0421565211409</v>
+        <v>-4097.1332920591913</v>
       </c>
       <c r="AC9" s="21">
         <f t="shared" si="26"/>
@@ -19620,19 +19630,19 @@
       </c>
       <c r="AI9" s="23">
         <f t="shared" si="28"/>
-        <v>7.9024671531915391E-3</v>
+        <v>5.3838605924665384E-3</v>
       </c>
       <c r="AJ9" s="23">
         <f t="shared" si="14"/>
-        <v>0.83945702076920736</v>
+        <v>0.91621887165087756</v>
       </c>
       <c r="AK9" s="22">
         <f t="shared" si="15"/>
-        <v>-13.941575281093909</v>
+        <v>-15.216424494699018</v>
       </c>
       <c r="AL9" s="25">
         <f t="shared" si="16"/>
-        <v>-15.423542064561401</v>
+        <v>-11.468747624386113</v>
       </c>
       <c r="AN9" s="21">
         <f t="shared" si="29"/>
@@ -19652,19 +19662,19 @@
       </c>
       <c r="AR9" s="23">
         <f t="shared" si="31"/>
-        <v>7.9024671531915391E-3</v>
+        <v>5.3838605924665384E-3</v>
       </c>
       <c r="AS9" s="23">
         <f t="shared" si="21"/>
-        <v>0.83945702076920736</v>
+        <v>0.91621887165087756</v>
       </c>
       <c r="AT9" s="22">
         <f t="shared" si="22"/>
-        <v>3597.8258789919769</v>
+        <v>3926.8192244384559</v>
       </c>
       <c r="AU9" s="25">
         <f t="shared" si="23"/>
-        <v>3980.2689198868134</v>
+        <v>2959.6768062931897</v>
       </c>
     </row>
     <row r="10" spans="2:48">
@@ -19674,31 +19684,31 @@
       <c r="C10" s="10">
         <v>0.25</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="57">
-        <f t="shared" si="33"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="55">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="64">
         <v>0</v>
       </c>
-      <c r="J10" s="53">
-        <v>3264.0049851614385</v>
-      </c>
-      <c r="K10" s="53">
-        <v>6506.252389685098</v>
-      </c>
-      <c r="L10" s="53">
-        <v>9726.8955791764383</v>
-      </c>
-      <c r="M10" s="53">
-        <v>12926.086812719434</v>
-      </c>
-      <c r="N10" s="53">
-        <v>16103.977250954507</v>
-      </c>
-      <c r="O10" s="53">
-        <v>19260.716964097512</v>
+      <c r="J10" s="64">
+        <v>-18.058459657507438</v>
+      </c>
+      <c r="K10" s="64">
+        <v>-27.082611814039527</v>
+      </c>
+      <c r="L10" s="64">
+        <v>-36.103380547944077</v>
+      </c>
+      <c r="M10" s="64">
+        <v>-45.120767127767131</v>
+      </c>
+      <c r="N10" s="64">
+        <v>-54.134772821578366</v>
+      </c>
+      <c r="O10" s="64">
+        <v>-90.157012081470199</v>
       </c>
       <c r="P10" s="3"/>
       <c r="R10" s="35">
@@ -19727,19 +19737,19 @@
       </c>
       <c r="X10" s="50">
         <f t="shared" si="4"/>
-        <v>0.9354360451084256</v>
+        <v>0.95632018543638841</v>
       </c>
       <c r="Y10" s="23">
         <f t="shared" si="5"/>
-        <v>0.81873075307798182</v>
+        <v>0.90483741803595952</v>
       </c>
       <c r="Z10" s="22">
         <f t="shared" si="6"/>
-        <v>-3585.3898739865831</v>
+        <v>-3962.468618692883</v>
       </c>
       <c r="AA10" s="25">
         <f t="shared" si="7"/>
-        <v>-3561.2966981557829</v>
+        <v>-4023.7114364375834</v>
       </c>
       <c r="AC10" s="21">
         <f t="shared" si="26"/>
@@ -19767,19 +19777,19 @@
       </c>
       <c r="AI10" s="23">
         <f t="shared" si="28"/>
-        <v>7.8368126040513353E-3</v>
+        <v>5.3538872538675397E-3</v>
       </c>
       <c r="AJ10" s="23">
         <f t="shared" si="14"/>
-        <v>0.81873075307798182</v>
+        <v>0.90483741803595952</v>
       </c>
       <c r="AK10" s="22">
         <f t="shared" si="15"/>
-        <v>-13.495757858111883</v>
+        <v>-14.915119102176146</v>
       </c>
       <c r="AL10" s="25">
         <f t="shared" si="16"/>
-        <v>-14.91775680273188</v>
+        <v>-11.263224232244948</v>
       </c>
       <c r="AN10" s="21">
         <f t="shared" si="29"/>
@@ -19799,19 +19809,19 @@
       </c>
       <c r="AR10" s="23">
         <f t="shared" si="31"/>
-        <v>7.8368126040513353E-3</v>
+        <v>5.3538872538675397E-3</v>
       </c>
       <c r="AS10" s="23">
         <f t="shared" si="21"/>
-        <v>0.81873075307798182</v>
+        <v>0.90483741803595952</v>
       </c>
       <c r="AT10" s="22">
         <f t="shared" si="22"/>
-        <v>3482.7762214482277</v>
+        <v>3849.0629941099724</v>
       </c>
       <c r="AU10" s="25">
         <f t="shared" si="23"/>
-        <v>3849.7436910275819</v>
+        <v>2906.6385115470825</v>
       </c>
     </row>
     <row r="11" spans="2:48">
@@ -19821,37 +19831,37 @@
       <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="57">
-        <f t="shared" si="33"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="55">
+        <f t="shared" si="32"/>
         <v>-0.25</v>
       </c>
-      <c r="I11" s="53">
-        <v>-614.43568711610715</v>
-      </c>
-      <c r="J11" s="53">
-        <v>2623.1289627044825</v>
-      </c>
-      <c r="K11" s="53">
-        <v>5839.3123169454702</v>
-      </c>
-      <c r="L11" s="53">
-        <v>9034.263685873033</v>
-      </c>
-      <c r="M11" s="53">
-        <v>12208.131312535224</v>
-      </c>
-      <c r="N11" s="53">
-        <v>15361.062380480253</v>
-      </c>
-      <c r="O11" s="53">
-        <v>18493.203021418689</v>
+      <c r="I11" s="64">
+        <v>-1.1290505643187301</v>
+      </c>
+      <c r="J11" s="64">
+        <v>-19.073845721773591</v>
+      </c>
+      <c r="K11" s="64">
+        <v>-28.041229116294915</v>
+      </c>
+      <c r="L11" s="64">
+        <v>-37.005271381933184</v>
+      </c>
+      <c r="M11" s="64">
+        <v>-45.965973763548824</v>
+      </c>
+      <c r="N11" s="64">
+        <v>-54.923337505538846</v>
+      </c>
+      <c r="O11" s="64">
+        <v>-90.719430948951683</v>
       </c>
       <c r="P11" s="3"/>
       <c r="R11" s="35">
-        <f t="shared" ref="R11:R44" si="34">R10+YearFraction</f>
+        <f t="shared" ref="R11:R44" si="33">R10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="S11" s="22">
@@ -19876,22 +19886,22 @@
       </c>
       <c r="X11" s="50">
         <f t="shared" si="4"/>
-        <v>0.92766434158844124</v>
+        <v>0.95099610465182394</v>
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="5"/>
-        <v>0.79851621875937706</v>
+        <v>0.89359734710851568</v>
       </c>
       <c r="Z11" s="22">
         <f t="shared" si="6"/>
-        <v>-3470.7378894168496</v>
+        <v>-3884.0064830624146</v>
       </c>
       <c r="AA11" s="25">
         <f t="shared" si="7"/>
-        <v>-3444.5108538024579</v>
+        <v>-3951.6053224574202</v>
       </c>
       <c r="AC11" s="21">
-        <f t="shared" ref="AC11:AC44" si="35">AC10+YearFraction</f>
+        <f t="shared" ref="AC11:AC44" si="34">AC10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="AD11" s="22">
@@ -19916,22 +19926,22 @@
       </c>
       <c r="AI11" s="23">
         <f t="shared" si="28"/>
-        <v>7.771703519984352E-3</v>
+        <v>5.3240807845644778E-3</v>
       </c>
       <c r="AJ11" s="23">
         <f t="shared" si="14"/>
-        <v>0.79851621875937706</v>
+        <v>0.89359734710851568</v>
       </c>
       <c r="AK11" s="22">
         <f t="shared" si="15"/>
-        <v>-13.064196584139744</v>
+        <v>-14.6197799561655</v>
       </c>
       <c r="AL11" s="25">
         <f t="shared" si="16"/>
-        <v>-14.428557791325169</v>
+        <v>-11.061383880841912</v>
       </c>
       <c r="AN11" s="21">
-        <f t="shared" ref="AN11:AN44" si="36">AN10+YearFraction</f>
+        <f t="shared" ref="AN11:AN44" si="35">AN10+YearFraction</f>
         <v>2.25</v>
       </c>
       <c r="AO11" s="22">
@@ -19948,19 +19958,19 @@
       </c>
       <c r="AR11" s="23">
         <f t="shared" si="31"/>
-        <v>7.771703519984352E-3</v>
+        <v>5.3240807845644778E-3</v>
       </c>
       <c r="AS11" s="23">
         <f t="shared" si="21"/>
-        <v>0.79851621875937706</v>
+        <v>0.89359734710851568</v>
       </c>
       <c r="AT11" s="22">
         <f t="shared" si="22"/>
-        <v>3371.4055701005786</v>
+        <v>3772.8464403007742</v>
       </c>
       <c r="AU11" s="25">
         <f t="shared" si="23"/>
-        <v>3723.4987848581072</v>
+        <v>2854.5506789269452</v>
       </c>
     </row>
     <row r="12" spans="2:48">
@@ -19968,39 +19978,39 @@
         <v>5</v>
       </c>
       <c r="C12" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="66"/>
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="67"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="57">
-        <f t="shared" si="33"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="55">
+        <f t="shared" si="32"/>
         <v>-0.5</v>
       </c>
-      <c r="I12" s="53">
-        <v>-1229.6427396335494</v>
-      </c>
-      <c r="J12" s="53">
-        <v>1981.408449600327</v>
-      </c>
-      <c r="K12" s="53">
-        <v>5171.4518831969108</v>
-      </c>
-      <c r="L12" s="53">
-        <v>8340.6328842662551</v>
-      </c>
-      <c r="M12" s="53">
-        <v>11489.095746976287</v>
-      </c>
-      <c r="N12" s="53">
-        <v>14616.98374392384</v>
-      </c>
-      <c r="O12" s="53">
-        <v>17724.439133453161</v>
+      <c r="I12" s="64">
+        <v>-2.2580482056326625</v>
+      </c>
+      <c r="J12" s="64">
+        <v>-20.089188950343644</v>
+      </c>
+      <c r="K12" s="64">
+        <v>-28.999808224403292</v>
+      </c>
+      <c r="L12" s="64">
+        <v>-37.907128395650183</v>
+      </c>
+      <c r="M12" s="64">
+        <v>-46.811150685557216</v>
+      </c>
+      <c r="N12" s="64">
+        <v>-55.71187631514492</v>
+      </c>
+      <c r="O12" s="64">
+        <v>-91.28183663489564</v>
       </c>
       <c r="P12" s="3"/>
       <c r="R12" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
       <c r="S12" s="22">
@@ -20025,22 +20035,22 @@
       </c>
       <c r="X12" s="50">
         <f t="shared" si="4"/>
-        <v>0.91995720621923371</v>
+        <v>0.94570166439627079</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="5"/>
-        <v>0.77880078307140488</v>
+        <v>0.88249690258459546</v>
       </c>
       <c r="Z12" s="22">
         <f t="shared" si="6"/>
-        <v>-3359.7521944356358</v>
+        <v>-3807.0980018126156</v>
       </c>
       <c r="AA12" s="25">
         <f t="shared" si="7"/>
-        <v>-3331.5547755701036</v>
+        <v>-3880.791371634446</v>
       </c>
       <c r="AC12" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2.5</v>
       </c>
       <c r="AD12" s="22">
@@ -20065,22 +20075,22 @@
       </c>
       <c r="AI12" s="23">
         <f t="shared" si="28"/>
-        <v>7.7071353692075295E-3</v>
+        <v>5.2944402555531456E-3</v>
       </c>
       <c r="AJ12" s="23">
         <f t="shared" si="14"/>
-        <v>0.77880078307140488</v>
+        <v>0.88249690258459546</v>
       </c>
       <c r="AK12" s="22">
         <f t="shared" si="15"/>
-        <v>-12.646435582456604</v>
+        <v>-14.33028891706997</v>
       </c>
       <c r="AL12" s="25">
         <f t="shared" si="16"/>
-        <v>-13.955401116304536</v>
+        <v>-10.863160568984265</v>
       </c>
       <c r="AN12" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.5</v>
       </c>
       <c r="AO12" s="22">
@@ -20097,53 +20107,53 @@
       </c>
       <c r="AR12" s="23">
         <f t="shared" si="31"/>
-        <v>7.7071353692075295E-3</v>
+        <v>5.2944402555531456E-3</v>
       </c>
       <c r="AS12" s="23">
         <f t="shared" si="21"/>
-        <v>0.77880078307140488</v>
+        <v>0.88249690258459546</v>
       </c>
       <c r="AT12" s="22">
         <f t="shared" si="22"/>
-        <v>3263.5962793436397</v>
+        <v>3698.1390753728956</v>
       </c>
       <c r="AU12" s="25">
         <f t="shared" si="23"/>
-        <v>3601.3938364656869</v>
+        <v>2803.3962758669068</v>
       </c>
     </row>
     <row r="13" spans="2:48">
-      <c r="E13" s="66"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="57">
-        <f t="shared" si="33"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="55">
+        <f t="shared" si="32"/>
         <v>-0.75</v>
       </c>
-      <c r="I13" s="53">
-        <v>-1845.6221816261532</v>
-      </c>
-      <c r="J13" s="53">
-        <v>1338.8422687901257</v>
-      </c>
-      <c r="K13" s="53">
-        <v>4502.6697447231345</v>
-      </c>
-      <c r="L13" s="53">
-        <v>7646.0016498733385</v>
-      </c>
-      <c r="M13" s="53">
-        <v>10768.978396263883</v>
-      </c>
-      <c r="N13" s="53">
-        <v>13871.739411277922</v>
-      </c>
-      <c r="O13" s="53">
-        <v>16954.423144645094</v>
+      <c r="I13" s="64">
+        <v>-3.3869929264225203</v>
+      </c>
+      <c r="J13" s="64">
+        <v>-21.104489345024831</v>
+      </c>
+      <c r="K13" s="64">
+        <v>-29.958349139886064</v>
+      </c>
+      <c r="L13" s="64">
+        <v>-38.808951590363243</v>
+      </c>
+      <c r="M13" s="64">
+        <v>-47.656297894836612</v>
+      </c>
+      <c r="N13" s="64">
+        <v>-56.500389251245878</v>
+      </c>
+      <c r="O13" s="64">
+        <v>-91.844229139610562</v>
       </c>
       <c r="P13" s="3"/>
       <c r="R13" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2.75</v>
       </c>
       <c r="S13" s="22">
@@ -20168,22 +20178,22 @@
       </c>
       <c r="X13" s="50">
         <f t="shared" si="4"/>
-        <v>0.91231410256164458</v>
+        <v>0.9404366996532697</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="5"/>
-        <v>0.75957212322496848</v>
+        <v>0.87153434999715784</v>
       </c>
       <c r="Z13" s="22">
         <f t="shared" si="6"/>
-        <v>-3252.3155500836906</v>
+        <v>-3731.7124105255248</v>
       </c>
       <c r="AA13" s="25">
         <f t="shared" si="7"/>
-        <v>-3222.3028736783599</v>
+        <v>-3811.2464280178992</v>
       </c>
       <c r="AC13" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2.75</v>
       </c>
       <c r="AD13" s="22">
@@ -20208,22 +20218,22 @@
       </c>
       <c r="AI13" s="23">
         <f t="shared" si="28"/>
-        <v>7.6431036575891342E-3</v>
+        <v>5.2649647430010882E-3</v>
       </c>
       <c r="AJ13" s="23">
         <f t="shared" si="14"/>
-        <v>0.75957212322496848</v>
+        <v>0.87153434999715784</v>
       </c>
       <c r="AK13" s="22">
         <f t="shared" si="15"/>
-        <v>-12.242033554163445</v>
+        <v>-14.046530184614486</v>
       </c>
       <c r="AL13" s="25">
         <f t="shared" si="16"/>
-        <v>-13.49776070024464</v>
+        <v>-10.668489478239868</v>
       </c>
       <c r="AN13" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.75</v>
       </c>
       <c r="AO13" s="22">
@@ -20240,56 +20250,56 @@
       </c>
       <c r="AR13" s="23">
         <f t="shared" si="31"/>
-        <v>7.6431036575891342E-3</v>
+        <v>5.2649647430010882E-3</v>
       </c>
       <c r="AS13" s="23">
         <f t="shared" si="21"/>
-        <v>0.75957212322496848</v>
+        <v>0.87153434999715784</v>
       </c>
       <c r="AT13" s="22">
         <f t="shared" si="22"/>
-        <v>3159.2344655905663</v>
+        <v>3624.9110153843835</v>
       </c>
       <c r="AU13" s="25">
         <f t="shared" si="23"/>
-        <v>3483.2930839341002</v>
+        <v>2753.158575029644</v>
       </c>
     </row>
     <row r="14" spans="2:48">
       <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="66"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="67"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="57">
+      <c r="G14" s="69"/>
+      <c r="H14" s="55">
         <f>H13-0.25</f>
         <v>-1</v>
       </c>
-      <c r="I14" s="53">
-        <v>-2462.3750385594758</v>
-      </c>
-      <c r="J14" s="53">
-        <v>695.4292415356249</v>
-      </c>
-      <c r="K14" s="53">
-        <v>3832.9645557994736</v>
-      </c>
-      <c r="L14" s="53">
-        <v>6950.3684558290624</v>
-      </c>
-      <c r="M14" s="53">
-        <v>10047.777537815309</v>
-      </c>
-      <c r="N14" s="53">
-        <v>13125.327449257857</v>
-      </c>
-      <c r="O14" s="53">
-        <v>16183.152895631916</v>
+      <c r="I14" s="64">
+        <v>-4.5158847291689241</v>
+      </c>
+      <c r="J14" s="64">
+        <v>-22.119746907624076</v>
+      </c>
+      <c r="K14" s="64">
+        <v>-30.916851864265151</v>
+      </c>
+      <c r="L14" s="64">
+        <v>-39.710740967340513</v>
+      </c>
+      <c r="M14" s="64">
+        <v>-48.501415392431817</v>
+      </c>
+      <c r="N14" s="64">
+        <v>-57.288876314690576</v>
+      </c>
+      <c r="O14" s="64">
+        <v>-92.406608463405632</v>
       </c>
       <c r="P14" s="3"/>
       <c r="R14" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="S14" s="22">
@@ -20314,22 +20324,22 @@
       </c>
       <c r="X14" s="50">
         <f t="shared" si="4"/>
-        <v>0.90473449863331001</v>
+        <v>0.93520104632505052</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="5"/>
-        <v>0.74081822068171788</v>
+        <v>0.86070797642505781</v>
       </c>
       <c r="Z14" s="22">
         <f t="shared" si="6"/>
-        <v>-3148.3144664164661</v>
+        <v>-3657.8195539594735</v>
       </c>
       <c r="AA14" s="25">
         <f t="shared" si="7"/>
-        <v>-3116.6336768210608</v>
+        <v>-3742.947750618594</v>
       </c>
       <c r="AC14" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AD14" s="22">
@@ -20354,22 +20364,22 @@
       </c>
       <c r="AI14" s="23">
         <f t="shared" si="28"/>
-        <v>7.5796039283345662E-3</v>
+        <v>5.2356533282191808E-3</v>
       </c>
       <c r="AJ14" s="23">
         <f t="shared" si="14"/>
-        <v>0.74081822068171788</v>
+        <v>0.86070797642505781</v>
       </c>
       <c r="AK14" s="22">
         <f t="shared" si="15"/>
-        <v>-11.850563312018329</v>
+        <v>-13.768390251522391</v>
       </c>
       <c r="AL14" s="25">
         <f t="shared" si="16"/>
-        <v>-13.055127717411761</v>
+        <v>-10.477306951742563</v>
       </c>
       <c r="AN14" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="AO14" s="22">
@@ -20386,65 +20396,65 @@
       </c>
       <c r="AR14" s="23">
         <f t="shared" si="31"/>
-        <v>7.5796039283345662E-3</v>
+        <v>5.2356533282191808E-3</v>
       </c>
       <c r="AS14" s="23">
         <f t="shared" si="21"/>
-        <v>0.74081822068171788</v>
+        <v>0.86070797642505781</v>
       </c>
       <c r="AT14" s="22">
         <f t="shared" si="22"/>
-        <v>3058.2098869724723</v>
+        <v>3553.1329681348102</v>
       </c>
       <c r="AU14" s="25">
         <f t="shared" si="23"/>
-        <v>3369.0652173965836</v>
+        <v>2703.8211488367901</v>
       </c>
     </row>
     <row r="15" spans="2:48" ht="18">
       <c r="B15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="66"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="53">
+        <v>-0.25</v>
+      </c>
+      <c r="E15" s="67"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="64" t="s">
-        <v>47</v>
+      <c r="H15" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:O15" si="37">I6-I14</f>
-        <v>4912.4245658884829</v>
+        <f t="shared" ref="I15:O15" si="36">I6-I14</f>
+        <v>9.03261626611026</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="37"/>
-        <v>5123.6584095151338</v>
+        <f t="shared" si="36"/>
+        <v>8.1232599002856176</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="37"/>
-        <v>5331.8713189588598</v>
+        <f t="shared" si="36"/>
+        <v>7.6690912311574806</v>
       </c>
       <c r="L15" s="65">
-        <f t="shared" si="37"/>
-        <v>5537.0960200286645</v>
+        <f t="shared" si="36"/>
+        <v>7.2152619834405129</v>
       </c>
       <c r="M15" s="65">
-        <f t="shared" si="37"/>
-        <v>5739.364919593485</v>
+        <f t="shared" si="36"/>
+        <v>6.7617719664199569</v>
       </c>
       <c r="N15" s="65">
-        <f t="shared" si="37"/>
-        <v>5938.7101085183676</v>
+        <f t="shared" si="36"/>
+        <v>6.3086209894761325</v>
       </c>
       <c r="O15" s="65">
-        <f t="shared" si="37"/>
-        <v>6135.1633645741531</v>
+        <f t="shared" si="36"/>
+        <v>4.4994036734178309</v>
       </c>
       <c r="P15" s="3"/>
       <c r="R15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3.25</v>
       </c>
       <c r="S15" s="22">
@@ -20469,22 +20479,22 @@
       </c>
       <c r="X15" s="50">
         <f t="shared" si="4"/>
-        <v>0.89721786687163274</v>
+        <v>0.92999454122741754</v>
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="5"/>
-        <v>0.72252735364207221</v>
+        <v>0.85001609022539815</v>
       </c>
       <c r="Z15" s="22">
         <f t="shared" si="6"/>
-        <v>-3047.6390826198085</v>
+        <v>-3585.3898739865831</v>
       </c>
       <c r="AA15" s="25">
         <f t="shared" si="7"/>
-        <v>-3014.4296971088283</v>
+        <v>-3675.8730059726786</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3.25</v>
       </c>
       <c r="AD15" s="22">
@@ -20509,22 +20519,22 @@
       </c>
       <c r="AI15" s="23">
         <f t="shared" si="28"/>
-        <v>7.5166317616772726E-3</v>
+        <v>5.2065050976329852E-3</v>
       </c>
       <c r="AJ15" s="23">
         <f t="shared" si="14"/>
-        <v>0.72252735364207221</v>
+        <v>0.85001609022539815</v>
       </c>
       <c r="AK15" s="22">
         <f t="shared" si="15"/>
-        <v>-11.471611329181041</v>
+        <v>-13.495757858111981</v>
       </c>
       <c r="AL15" s="25">
         <f t="shared" si="16"/>
-        <v>-12.627010028029908</v>
+        <v>-10.289550473376483</v>
       </c>
       <c r="AN15" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="AO15" s="22">
@@ -20541,34 +20551,34 @@
       </c>
       <c r="AR15" s="23">
         <f t="shared" si="31"/>
-        <v>7.5166317616772726E-3</v>
+        <v>5.2065050976329852E-3</v>
       </c>
       <c r="AS15" s="23">
         <f t="shared" si="21"/>
-        <v>0.72252735364207221</v>
+        <v>0.85001609022539815</v>
       </c>
       <c r="AT15" s="22">
         <f t="shared" si="22"/>
-        <v>2960.4158268854299</v>
+        <v>3482.7762214482532</v>
       </c>
       <c r="AU15" s="25">
         <f t="shared" si="23"/>
-        <v>3258.5832330399762</v>
+        <v>2655.3678640971571</v>
       </c>
     </row>
     <row r="16" spans="2:48" ht="18">
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="66"/>
+      <c r="C16" s="54">
+        <v>-0.3</v>
+      </c>
+      <c r="E16" s="67"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="P16" s="3"/>
       <c r="R16" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3.5</v>
       </c>
       <c r="S16" s="22">
@@ -20593,22 +20603,22 @@
       </c>
       <c r="X16" s="50">
         <f t="shared" si="4"/>
-        <v>0.88976368409706286</v>
+        <v>0.92481702208466376</v>
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="5"/>
-        <v>0.70468808971871344</v>
+        <v>0.83945702076920736</v>
       </c>
       <c r="Z16" s="22">
         <f t="shared" si="6"/>
-        <v>-2950.1830509592614</v>
+        <v>-3514.3943977691238</v>
       </c>
       <c r="AA16" s="25">
         <f t="shared" si="7"/>
-        <v>-2915.5772994406148</v>
+        <v>-3610.0002608386658</v>
       </c>
       <c r="AC16" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3.5</v>
       </c>
       <c r="AD16" s="22">
@@ -20633,22 +20643,22 @@
       </c>
       <c r="AI16" s="23">
         <f t="shared" si="28"/>
-        <v>7.4541827745698841E-3</v>
+        <v>5.1775191427537726E-3</v>
       </c>
       <c r="AJ16" s="23">
         <f t="shared" si="14"/>
-        <v>0.70468808971871344</v>
+        <v>0.83945702076920736</v>
       </c>
       <c r="AK16" s="22">
         <f t="shared" si="15"/>
-        <v>-11.104777302386358</v>
+        <v>-13.228523947790537</v>
       </c>
       <c r="AL16" s="25">
         <f t="shared" si="16"/>
-        <v>-12.212931631094962</v>
+        <v>-10.105158647332521</v>
       </c>
       <c r="AN16" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.5</v>
       </c>
       <c r="AO16" s="22">
@@ -20665,19 +20675,19 @@
       </c>
       <c r="AR16" s="23">
         <f t="shared" si="31"/>
-        <v>7.4541827745698841E-3</v>
+        <v>5.1775191427537726E-3</v>
       </c>
       <c r="AS16" s="23">
         <f t="shared" si="21"/>
-        <v>0.70468808971871344</v>
+        <v>0.83945702076920736</v>
       </c>
       <c r="AT16" s="22">
         <f t="shared" si="22"/>
-        <v>2865.7489812609956</v>
+        <v>3413.8126316878806</v>
       </c>
       <c r="AU16" s="25">
         <f t="shared" si="23"/>
-        <v>3151.7242918954744</v>
+        <v>2607.7828767309734</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="18">
@@ -20685,14 +20695,14 @@
         <v>39</v>
       </c>
       <c r="C17" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="67"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="P17" s="3"/>
       <c r="R17" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3.75</v>
       </c>
       <c r="S17" s="22">
@@ -20717,22 +20727,22 @@
       </c>
       <c r="X17" s="50">
         <f t="shared" si="4"/>
-        <v>0.88237143147668207</v>
+        <v>0.91966832752451255</v>
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="5"/>
-        <v>0.68728927879097224</v>
+        <v>0.82902911818040037</v>
       </c>
       <c r="Z17" s="22">
         <f t="shared" si="6"/>
-        <v>-2855.8434244403807</v>
+        <v>-3444.804726169988</v>
       </c>
       <c r="AA17" s="25">
         <f t="shared" si="7"/>
-        <v>-2819.9665751589546</v>
+        <v>-3545.3079750253191</v>
       </c>
       <c r="AC17" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3.75</v>
       </c>
       <c r="AD17" s="22">
@@ -20757,22 +20767,22 @@
       </c>
       <c r="AI17" s="23">
         <f t="shared" si="28"/>
-        <v>7.3922526203807903E-3</v>
+        <v>5.1486945601512124E-3</v>
       </c>
       <c r="AJ17" s="23">
         <f t="shared" si="14"/>
-        <v>0.68728927879097224</v>
+        <v>0.82902911818040037</v>
       </c>
       <c r="AK17" s="22">
         <f t="shared" si="15"/>
-        <v>-10.749673729087116</v>
+        <v>-12.966581623430914</v>
       </c>
       <c r="AL17" s="25">
         <f t="shared" si="16"/>
-        <v>-11.812432135137589</v>
+        <v>-9.9240711780340423</v>
       </c>
       <c r="AN17" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.75</v>
       </c>
       <c r="AO17" s="22">
@@ -20789,19 +20799,19 @@
       </c>
       <c r="AR17" s="23">
         <f t="shared" si="31"/>
-        <v>7.3922526203807903E-3</v>
+        <v>5.1486945601512124E-3</v>
       </c>
       <c r="AS17" s="23">
         <f t="shared" si="21"/>
-        <v>0.68728927879097224</v>
+        <v>0.82902911818040037</v>
       </c>
       <c r="AT17" s="22">
         <f t="shared" si="22"/>
-        <v>2774.109349441836</v>
+        <v>3346.2146124983001</v>
       </c>
       <c r="AU17" s="25">
         <f t="shared" si="23"/>
-        <v>3048.3695832613125</v>
+        <v>2561.0506265894301</v>
       </c>
     </row>
     <row r="18" spans="2:47" ht="18">
@@ -20811,12 +20821,12 @@
       <c r="C18" s="45">
         <v>0.1</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="P18" s="3"/>
       <c r="R18" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="S18" s="22">
@@ -20841,22 +20851,22 @@
       </c>
       <c r="X18" s="50">
         <f t="shared" si="4"/>
-        <v>0.87504059448809246</v>
+        <v>0.91454829707308838</v>
       </c>
       <c r="Y18" s="23">
         <f t="shared" si="5"/>
-        <v>0.67032004603563933</v>
+        <v>0.81873075307798182</v>
       </c>
       <c r="Z18" s="22">
         <f t="shared" si="6"/>
-        <v>-2764.5205480614036</v>
+        <v>-3376.5930223926625</v>
       </c>
       <c r="AA18" s="25">
         <f t="shared" si="7"/>
-        <v>-2727.4912198484476</v>
+        <v>-3481.7749943480853</v>
       </c>
       <c r="AC18" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="AD18" s="22">
@@ -20881,22 +20891,22 @@
       </c>
       <c r="AI18" s="23">
         <f t="shared" si="28"/>
-        <v>7.3308369885896063E-3</v>
+        <v>5.1200304514241735E-3</v>
       </c>
       <c r="AJ18" s="23">
         <f t="shared" si="14"/>
-        <v>0.67032004603563933</v>
+        <v>0.81873075307798182</v>
       </c>
       <c r="AK18" s="22">
         <f t="shared" si="15"/>
-        <v>-10.405925498118238</v>
+        <v>-12.709826104610853</v>
       </c>
       <c r="AL18" s="25">
         <f t="shared" si="16"/>
-        <v>-11.425066246335431</v>
+        <v>-9.7462288504183565</v>
       </c>
       <c r="AN18" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="AO18" s="22">
@@ -20913,35 +20923,35 @@
       </c>
       <c r="AR18" s="23">
         <f t="shared" si="31"/>
-        <v>7.3308369885896063E-3</v>
+        <v>5.1200304514241735E-3</v>
       </c>
       <c r="AS18" s="23">
         <f t="shared" si="21"/>
-        <v>0.67032004603563933</v>
+        <v>0.81873075307798182</v>
       </c>
       <c r="AT18" s="22">
         <f t="shared" si="22"/>
-        <v>2685.400128546642</v>
+        <v>3279.9551237705427</v>
       </c>
       <c r="AU18" s="25">
         <f t="shared" si="23"/>
-        <v>2948.4041926026916</v>
+        <v>2515.1558323660279</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="17.25">
       <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="57">
         <f>(1+FX_Jump)*(1+0.5*Correlation*Volatility_Credit*Volatility_FX*Maturity)*DomesticHazardRate</f>
-        <v>3.3371250000000005E-2</v>
-      </c>
-      <c r="E19" s="66"/>
+        <v>2.233125E-2</v>
+      </c>
+      <c r="E19" s="67"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="P19" s="3"/>
       <c r="R19" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>4.25</v>
       </c>
       <c r="S19" s="22">
@@ -20966,22 +20976,22 @@
       </c>
       <c r="X19" s="50">
         <f t="shared" si="4"/>
-        <v>0.86777066288360305</v>
+        <v>0.90945677114991541</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="5"/>
-        <v>0.65376978512984729</v>
+        <v>0.80856031632145242</v>
       </c>
       <c r="Z19" s="22">
         <f t="shared" si="6"/>
-        <v>-2676.1179535433853</v>
+        <v>-3309.7320008461352</v>
       </c>
       <c r="AA19" s="25">
         <f t="shared" si="7"/>
-        <v>-2638.0484151416026</v>
+        <v>-3419.3805437117298</v>
       </c>
       <c r="AC19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4.25</v>
       </c>
       <c r="AD19" s="22">
@@ -21006,22 +21016,22 @@
       </c>
       <c r="AI19" s="23">
         <f t="shared" si="28"/>
-        <v>7.2699316044894102E-3</v>
+        <v>5.0915259231729681E-3</v>
       </c>
       <c r="AJ19" s="23">
         <f t="shared" si="14"/>
-        <v>0.65376978512984729</v>
+        <v>0.80856031632145242</v>
       </c>
       <c r="AK19" s="22">
         <f t="shared" si="15"/>
-        <v>-10.073169493450269</v>
+        <v>-12.458154685698876</v>
       </c>
       <c r="AL19" s="25">
         <f t="shared" si="16"/>
-        <v>-11.050403273418565</v>
+        <v>-9.571573510574094</v>
       </c>
       <c r="AN19" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.25</v>
       </c>
       <c r="AO19" s="22">
@@ -21038,25 +21048,25 @@
       </c>
       <c r="AR19" s="23">
         <f t="shared" si="31"/>
-        <v>7.2699316044894102E-3</v>
+        <v>5.0915259231729681E-3</v>
       </c>
       <c r="AS19" s="23">
         <f t="shared" si="21"/>
-        <v>0.65376978512984729</v>
+        <v>0.80856031632145242</v>
       </c>
       <c r="AT19" s="22">
         <f t="shared" si="22"/>
-        <v>2599.5276112129727</v>
+        <v>3215.0076608255167</v>
       </c>
       <c r="AU19" s="25">
         <f t="shared" si="23"/>
-        <v>2851.7169737854365</v>
+        <v>2470.0834865997663</v>
       </c>
     </row>
     <row r="20" spans="2:47">
       <c r="P20" s="3"/>
       <c r="R20" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>4.5</v>
       </c>
       <c r="S20" s="22">
@@ -21081,22 +21091,22 @@
       </c>
       <c r="X20" s="50">
         <f t="shared" si="4"/>
-        <v>0.86056113065471629</v>
+        <v>0.90439359106294293</v>
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="5"/>
-        <v>0.63762815162177333</v>
+        <v>0.79851621875937706</v>
       </c>
       <c r="Z20" s="22">
         <f t="shared" si="6"/>
-        <v>-2590.5422574266086</v>
+        <v>-3244.1949162302944</v>
       </c>
       <c r="AA20" s="25">
         <f t="shared" si="7"/>
-        <v>-2551.5387144006318</v>
+        <v>-3358.1042203169486</v>
       </c>
       <c r="AC20" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="AD20" s="22">
@@ -21121,22 +21131,22 @@
       </c>
       <c r="AI20" s="23">
         <f t="shared" si="28"/>
-        <v>7.2095322288867614E-3</v>
+        <v>5.0631800869724852E-3</v>
       </c>
       <c r="AJ20" s="23">
         <f t="shared" si="14"/>
-        <v>0.63762815162177333</v>
+        <v>0.79851621875937706</v>
       </c>
       <c r="AK20" s="22">
         <f t="shared" si="15"/>
-        <v>-9.7510542106159246</v>
+        <v>-12.211466694772652</v>
       </c>
       <c r="AL20" s="25">
         <f t="shared" si="16"/>
-        <v>-10.688026648803206</v>
+        <v>-9.4000480467268748</v>
       </c>
       <c r="AN20" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="AO20" s="22">
@@ -21153,25 +21163,25 @@
       </c>
       <c r="AR20" s="23">
         <f t="shared" si="31"/>
-        <v>7.2095322288867614E-3</v>
+        <v>5.0631800869724852E-3</v>
       </c>
       <c r="AS20" s="23">
         <f t="shared" si="21"/>
-        <v>0.63762815162177333</v>
+        <v>0.79851621875937706</v>
       </c>
       <c r="AT20" s="22">
         <f t="shared" si="22"/>
-        <v>2516.4010866105614</v>
+        <v>3151.3462438122965</v>
       </c>
       <c r="AU20" s="25">
         <f t="shared" si="23"/>
-        <v>2758.2004254976018</v>
+        <v>2425.8188507682253</v>
       </c>
     </row>
     <row r="21" spans="2:47">
       <c r="P21" s="3"/>
       <c r="R21" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>4.75</v>
       </c>
       <c r="S21" s="22">
@@ -21196,22 +21206,22 @@
       </c>
       <c r="X21" s="50">
         <f t="shared" si="4"/>
-        <v>0.85341149599690735</v>
+        <v>0.89935859900360005</v>
       </c>
       <c r="Y21" s="23">
         <f t="shared" si="5"/>
-        <v>0.62188505646502001</v>
+        <v>0.78859689098107666</v>
       </c>
       <c r="Z21" s="22">
         <f t="shared" si="6"/>
-        <v>-2507.7030624256272</v>
+        <v>-3179.9555528374549</v>
       </c>
       <c r="AA21" s="25">
         <f t="shared" si="7"/>
-        <v>-2467.8659321480927</v>
+        <v>-3297.9259869887114</v>
       </c>
       <c r="AC21" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4.75</v>
       </c>
       <c r="AD21" s="22">
@@ -21236,22 +21246,22 @@
       </c>
       <c r="AI21" s="23">
         <f t="shared" si="28"/>
-        <v>7.1496346578089343E-3</v>
+        <v>5.0349920593428799E-3</v>
       </c>
       <c r="AJ21" s="23">
         <f t="shared" si="14"/>
-        <v>0.62188505646502001</v>
+        <v>0.78859689098107666</v>
       </c>
       <c r="AK21" s="22">
         <f t="shared" si="15"/>
-        <v>-9.4392393853982419</v>
+        <v>-11.969663453345708</v>
       </c>
       <c r="AL21" s="25">
         <f t="shared" si="16"/>
-        <v>-10.337533465436174</v>
+        <v>-9.2315963705608741</v>
       </c>
       <c r="AN21" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.75</v>
       </c>
       <c r="AO21" s="22">
@@ -21268,25 +21278,25 @@
       </c>
       <c r="AR21" s="23">
         <f t="shared" si="31"/>
-        <v>7.1496346578089343E-3</v>
+        <v>5.0349920593428799E-3</v>
       </c>
       <c r="AS21" s="23">
         <f t="shared" si="21"/>
-        <v>0.62188505646502001</v>
+        <v>0.78859689098107666</v>
       </c>
       <c r="AT21" s="22">
         <f t="shared" si="22"/>
-        <v>2435.9327446189009</v>
+        <v>3088.9454073150214</v>
       </c>
       <c r="AU21" s="25">
         <f t="shared" si="23"/>
-        <v>2667.7505717254635</v>
+        <v>2382.3474504673222</v>
       </c>
     </row>
     <row r="22" spans="2:47">
       <c r="P22" s="3"/>
       <c r="R22" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="S22" s="22">
@@ -21311,22 +21321,22 @@
       </c>
       <c r="X22" s="50">
         <f t="shared" si="4"/>
-        <v>0.84632126127469776</v>
+        <v>0.89435163804187678</v>
       </c>
       <c r="Y22" s="23">
         <f t="shared" si="5"/>
-        <v>0.60653065971263342</v>
+        <v>0.77880078307140488</v>
       </c>
       <c r="Z22" s="22">
         <f t="shared" si="6"/>
-        <v>-2427.5128619387247</v>
+        <v>-3116.9882140657228</v>
       </c>
       <c r="AA22" s="25">
         <f t="shared" si="7"/>
-        <v>-2386.9370371234322</v>
+        <v>-3238.8261656241639</v>
       </c>
       <c r="AC22" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AD22" s="22">
@@ -21351,22 +21361,22 @@
       </c>
       <c r="AI22" s="23">
         <f t="shared" si="28"/>
-        <v>7.0902347222095985E-3</v>
+        <v>5.0069609617232613E-3</v>
       </c>
       <c r="AJ22" s="23">
         <f t="shared" si="14"/>
-        <v>0.60653065971263342</v>
+        <v>0.77880078307140488</v>
       </c>
       <c r="AK22" s="22">
         <f t="shared" si="15"/>
-        <v>-9.1373956343972704</v>
+        <v>-11.732648236897706</v>
       </c>
       <c r="AL22" s="25">
         <f t="shared" si="16"/>
-        <v>-9.9985340288216591</v>
+        <v>-9.0661633988804216</v>
       </c>
       <c r="AN22" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="AO22" s="22">
@@ -21383,125 +21393,125 @@
       </c>
       <c r="AR22" s="23">
         <f t="shared" si="31"/>
-        <v>7.0902347222095985E-3</v>
+        <v>5.0069609617232613E-3</v>
       </c>
       <c r="AS22" s="23">
         <f t="shared" si="21"/>
-        <v>0.60653065971263342</v>
+        <v>0.77880078307140488</v>
       </c>
       <c r="AT22" s="22">
         <f t="shared" si="22"/>
-        <v>2358.0375830702633</v>
+        <v>3027.7801901671496</v>
       </c>
       <c r="AU22" s="25">
         <f t="shared" si="23"/>
-        <v>2580.2668461475246</v>
+        <v>2339.655070678818</v>
       </c>
     </row>
     <row r="23" spans="2:47">
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>36</v>
       </c>
       <c r="P23" s="3"/>
       <c r="R23" s="35">
+        <f t="shared" si="33"/>
+        <v>5.25</v>
+      </c>
+      <c r="S23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T23" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U23" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V23" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W23" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X23" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y23" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z23" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA23" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC23" s="21">
         <f t="shared" si="34"/>
         <v>5.25</v>
       </c>
-      <c r="S23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T23" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V23" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W23" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X23" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y23" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z23" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA23" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC23" s="21">
+      <c r="AD23" s="22" t="str">
+        <f t="shared" ref="AD23:AD44" si="37">IF(AC23&gt;Maturity,"-",-Phi*Notional)</f>
+        <v>-</v>
+      </c>
+      <c r="AE23" s="24" t="str">
+        <f t="shared" ref="AE23:AE44" si="38">IF(AC23&gt;Maturity,"-",Premium)</f>
+        <v>-</v>
+      </c>
+      <c r="AF23" s="41" t="str">
+        <f t="shared" ref="AF23:AF44" si="39">IF(AC23&gt;Maturity,"-",YearFraction/2)</f>
+        <v>-</v>
+      </c>
+      <c r="AG23" s="22" t="str">
+        <f t="shared" ref="AG23:AG44" si="40">IF(AC23&gt;Maturity,"-",AD23*AE23*AF23)</f>
+        <v>-</v>
+      </c>
+      <c r="AH23" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI23" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ23" s="23" t="str">
+        <f t="shared" ref="AJ23:AJ44" si="41">IF(AC23&gt;Maturity,"-",EXP(-ZeroRate*AC23))</f>
+        <v>-</v>
+      </c>
+      <c r="AK23" s="22" t="str">
+        <f t="shared" ref="AK23:AK44" si="42">IF(AC23&gt;Maturity,"-",AG23*AH23*AJ23)</f>
+        <v>-</v>
+      </c>
+      <c r="AL23" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN23" s="21">
         <f t="shared" si="35"/>
         <v>5.25</v>
       </c>
-      <c r="AD23" s="22" t="str">
-        <f t="shared" ref="AD23:AD44" si="38">IF(AC23&gt;Maturity,"-",-Phi*Notional)</f>
-        <v>-</v>
-      </c>
-      <c r="AE23" s="24" t="str">
-        <f t="shared" ref="AE23:AE44" si="39">IF(AC23&gt;Maturity,"-",Premium)</f>
-        <v>-</v>
-      </c>
-      <c r="AF23" s="41" t="str">
-        <f t="shared" ref="AF23:AF44" si="40">IF(AC23&gt;Maturity,"-",YearFraction/2)</f>
-        <v>-</v>
-      </c>
-      <c r="AG23" s="22" t="str">
-        <f t="shared" ref="AG23:AG44" si="41">IF(AC23&gt;Maturity,"-",AD23*AE23*AF23)</f>
-        <v>-</v>
-      </c>
-      <c r="AH23" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI23" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ23" s="23" t="str">
-        <f t="shared" ref="AJ23:AJ44" si="42">IF(AC23&gt;Maturity,"-",EXP(-ZeroRate*AC23))</f>
-        <v>-</v>
-      </c>
-      <c r="AK23" s="22" t="str">
-        <f t="shared" ref="AK23:AK44" si="43">IF(AC23&gt;Maturity,"-",AG23*AH23*AJ23)</f>
-        <v>-</v>
-      </c>
-      <c r="AL23" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN23" s="21">
-        <f t="shared" si="36"/>
-        <v>5.25</v>
-      </c>
       <c r="AO23" s="22" t="str">
-        <f t="shared" ref="AO23:AO44" si="44">IF(AN23&gt;Maturity,"-",Phi*Notional)</f>
+        <f t="shared" ref="AO23:AO44" si="43">IF(AN23&gt;Maturity,"-",Phi*Notional)</f>
         <v>-</v>
       </c>
       <c r="AP23" s="22" t="str">
-        <f t="shared" ref="AP23:AP44" si="45">IF(AN23&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
+        <f t="shared" ref="AP23:AP44" si="44">IF(AN23&gt;Maturity,"-",Phi*Notional*(1-RecoveryRate))</f>
         <v>-</v>
       </c>
       <c r="AQ23" s="23" t="str">
@@ -21513,11 +21523,11 @@
         <v>-</v>
       </c>
       <c r="AS23" s="23" t="str">
-        <f t="shared" ref="AS23:AS44" si="46">IF(AN23&gt;Maturity,"-",EXP(-ZeroRate*AN23))</f>
+        <f t="shared" ref="AS23:AS44" si="45">IF(AN23&gt;Maturity,"-",EXP(-ZeroRate*AN23))</f>
         <v>-</v>
       </c>
       <c r="AT23" s="22" t="str">
-        <f t="shared" ref="AT23:AT44" si="47">IF(AN23&gt;Maturity,"-",AP23*AQ23*AS23)</f>
+        <f t="shared" ref="AT23:AT44" si="46">IF(AN23&gt;Maturity,"-",AP23*AQ23*AS23)</f>
         <v>-</v>
       </c>
       <c r="AU23" s="25" t="str">
@@ -21529,109 +21539,109 @@
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="58">
         <f>SUM(C25:C27)</f>
-        <v>-2178.7656959369269</v>
-      </c>
-      <c r="D24" s="61">
+        <v>-2457.5159611675626</v>
+      </c>
+      <c r="D24" s="58">
         <f>SUM(D25:D27)</f>
-        <v>5126.6017934921692</v>
-      </c>
-      <c r="E24" s="61">
+        <v>-21686.709448321257</v>
+      </c>
+      <c r="E24" s="58">
         <f>D24-C24</f>
-        <v>7305.3674894290962</v>
+        <v>-19229.193487153694</v>
       </c>
       <c r="P24" s="3"/>
       <c r="R24" s="35">
+        <f t="shared" si="33"/>
+        <v>5.5</v>
+      </c>
+      <c r="S24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T24" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U24" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V24" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W24" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X24" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y24" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z24" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA24" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC24" s="21">
         <f t="shared" si="34"/>
         <v>5.5</v>
       </c>
-      <c r="S24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T24" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V24" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W24" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X24" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y24" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z24" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA24" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC24" s="21">
+      <c r="AD24" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE24" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF24" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG24" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH24" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI24" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ24" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK24" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL24" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN24" s="21">
         <f t="shared" si="35"/>
         <v>5.5</v>
       </c>
-      <c r="AD24" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE24" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF24" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG24" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH24" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI24" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ24" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK24" s="22" t="str">
+      <c r="AO24" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL24" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN24" s="21">
-        <f t="shared" si="36"/>
-        <v>5.5</v>
-      </c>
-      <c r="AO24" s="22" t="str">
+      <c r="AP24" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP24" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ24" s="23" t="str">
@@ -21643,11 +21653,11 @@
         <v>-</v>
       </c>
       <c r="AS24" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT24" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT24" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU24" s="25" t="str">
@@ -21661,108 +21671,108 @@
       </c>
       <c r="C25" s="14">
         <f>PremiumLegTotalPV</f>
-        <v>-67278.995193661933</v>
+        <v>-75886.638406356651</v>
       </c>
       <c r="D25" s="14">
         <f>QuantoPremiumLegTotalPV</f>
-        <v>-66747.344094916145</v>
+        <v>-77336.049982756653</v>
       </c>
       <c r="E25" s="14">
         <f>D25-C25</f>
-        <v>531.65109874578775</v>
+        <v>-1449.4115764000016</v>
       </c>
       <c r="I25" s="47"/>
       <c r="P25" s="3"/>
       <c r="R25" s="35">
+        <f t="shared" si="33"/>
+        <v>5.75</v>
+      </c>
+      <c r="S25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U25" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V25" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W25" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X25" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y25" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z25" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA25" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC25" s="21">
         <f t="shared" si="34"/>
         <v>5.75</v>
       </c>
-      <c r="S25" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U25" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V25" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W25" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X25" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y25" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z25" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA25" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC25" s="21">
+      <c r="AD25" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE25" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF25" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG25" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH25" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI25" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ25" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK25" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL25" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN25" s="21">
         <f t="shared" si="35"/>
         <v>5.75</v>
       </c>
-      <c r="AD25" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE25" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF25" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG25" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH25" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI25" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ25" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK25" s="22" t="str">
+      <c r="AO25" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL25" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN25" s="21">
-        <f t="shared" si="36"/>
-        <v>5.75</v>
-      </c>
-      <c r="AO25" s="22" t="str">
+      <c r="AP25" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP25" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ25" s="23" t="str">
@@ -21774,11 +21784,11 @@
         <v>-</v>
       </c>
       <c r="AS25" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT25" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT25" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU25" s="25" t="str">
@@ -21792,108 +21802,108 @@
       </c>
       <c r="C26" s="14">
         <f>AccruedInterestTotalPV</f>
-        <v>-253.24471256487331</v>
+        <v>-285.64472277586418</v>
       </c>
       <c r="D26" s="14">
         <f>QuantoAccruedInterestTotalPV</f>
-        <v>-279.5949708295467</v>
+        <v>-216.48005478322222</v>
       </c>
       <c r="E26" s="14">
         <f>D26-C26</f>
-        <v>-26.350258264673386</v>
+        <v>69.164667992641967</v>
       </c>
       <c r="I26" s="44"/>
       <c r="P26" s="3"/>
       <c r="R26" s="35">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="S26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T26" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U26" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V26" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W26" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X26" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y26" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z26" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA26" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC26" s="21">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="S26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T26" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U26" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V26" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W26" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X26" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y26" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z26" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA26" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC26" s="21">
+      <c r="AD26" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE26" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF26" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG26" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH26" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI26" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ26" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK26" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL26" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN26" s="21">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="AD26" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE26" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF26" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG26" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH26" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI26" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ26" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK26" s="22" t="str">
+      <c r="AO26" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL26" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN26" s="21">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AO26" s="22" t="str">
+      <c r="AP26" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP26" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ26" s="23" t="str">
@@ -21905,11 +21915,11 @@
         <v>-</v>
       </c>
       <c r="AS26" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT26" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT26" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU26" s="25" t="str">
@@ -21923,108 +21933,108 @@
       </c>
       <c r="C27" s="15">
         <f>ProtectionLegTotalPV</f>
-        <v>65353.474210289882</v>
+        <v>73714.76716796495</v>
       </c>
       <c r="D27" s="15">
         <f>QuantoProtectionLegTotalPV</f>
-        <v>72153.540859237866</v>
+        <v>55865.820589218623</v>
       </c>
       <c r="E27" s="15">
         <f>D27-C27</f>
-        <v>6800.0666489479845</v>
-      </c>
-      <c r="I27" s="63"/>
+        <v>-17848.946578746327</v>
+      </c>
+      <c r="I27" s="60"/>
       <c r="P27" s="3"/>
       <c r="R27" s="35">
+        <f t="shared" si="33"/>
+        <v>6.25</v>
+      </c>
+      <c r="S27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T27" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U27" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V27" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W27" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X27" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y27" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z27" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC27" s="21">
         <f t="shared" si="34"/>
         <v>6.25</v>
       </c>
-      <c r="S27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T27" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U27" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V27" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W27" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X27" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y27" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z27" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA27" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC27" s="21">
+      <c r="AD27" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE27" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF27" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG27" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH27" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI27" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ27" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK27" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL27" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN27" s="21">
         <f t="shared" si="35"/>
         <v>6.25</v>
       </c>
-      <c r="AD27" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE27" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF27" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG27" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH27" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI27" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ27" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK27" s="22" t="str">
+      <c r="AO27" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL27" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN27" s="21">
-        <f t="shared" si="36"/>
-        <v>6.25</v>
-      </c>
-      <c r="AO27" s="22" t="str">
+      <c r="AP27" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP27" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ27" s="23" t="str">
@@ -22036,11 +22046,11 @@
         <v>-</v>
       </c>
       <c r="AS27" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT27" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT27" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU27" s="25" t="str">
@@ -22051,95 +22061,95 @@
     <row r="28" spans="2:47">
       <c r="P28" s="3"/>
       <c r="R28" s="35">
+        <f t="shared" si="33"/>
+        <v>6.5</v>
+      </c>
+      <c r="S28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U28" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V28" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W28" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X28" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y28" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z28" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA28" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC28" s="21">
         <f t="shared" si="34"/>
         <v>6.5</v>
       </c>
-      <c r="S28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T28" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U28" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V28" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W28" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X28" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y28" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z28" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA28" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC28" s="21">
+      <c r="AD28" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE28" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF28" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG28" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH28" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI28" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ28" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK28" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL28" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN28" s="21">
         <f t="shared" si="35"/>
         <v>6.5</v>
       </c>
-      <c r="AD28" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE28" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF28" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG28" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH28" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI28" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ28" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK28" s="22" t="str">
+      <c r="AO28" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL28" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN28" s="21">
-        <f t="shared" si="36"/>
-        <v>6.5</v>
-      </c>
-      <c r="AO28" s="22" t="str">
+      <c r="AP28" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP28" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ28" s="23" t="str">
@@ -22151,11 +22161,11 @@
         <v>-</v>
       </c>
       <c r="AS28" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT28" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT28" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU28" s="25" t="str">
@@ -22165,108 +22175,108 @@
     </row>
     <row r="29" spans="2:47">
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>36</v>
       </c>
       <c r="P29" s="3"/>
       <c r="R29" s="35">
+        <f t="shared" si="33"/>
+        <v>6.75</v>
+      </c>
+      <c r="S29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U29" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V29" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X29" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y29" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA29" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC29" s="21">
         <f t="shared" si="34"/>
         <v>6.75</v>
       </c>
-      <c r="S29" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T29" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U29" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V29" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W29" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X29" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y29" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z29" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA29" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC29" s="21">
+      <c r="AD29" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE29" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF29" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG29" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH29" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI29" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ29" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK29" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL29" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN29" s="21">
         <f t="shared" si="35"/>
         <v>6.75</v>
       </c>
-      <c r="AD29" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE29" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF29" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG29" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH29" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI29" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ29" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK29" s="22" t="str">
+      <c r="AO29" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL29" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN29" s="21">
-        <f t="shared" si="36"/>
-        <v>6.75</v>
-      </c>
-      <c r="AO29" s="22" t="str">
+      <c r="AP29" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP29" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ29" s="23" t="str">
@@ -22278,11 +22288,11 @@
         <v>-</v>
       </c>
       <c r="AS29" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT29" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT29" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU29" s="25" t="str">
@@ -22294,109 +22304,113 @@
       <c r="B30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="59">
         <f>C31/C32</f>
-        <v>1.7997656849247288E-2</v>
-      </c>
-      <c r="D30" s="62">
+        <v>1.7997656849247284E-2</v>
+      </c>
+      <c r="D30" s="59">
         <f>D31/D32</f>
-        <v>2.0028593072158162E-2</v>
-      </c>
-      <c r="E30" s="62">
+        <v>1.3384155696745391E-2</v>
+      </c>
+      <c r="E30" s="59">
         <f>D30-C30</f>
-        <v>2.0309362229108743E-3</v>
+        <v>-4.6135011525018938E-3</v>
+      </c>
+      <c r="F30" s="62" t="str">
+        <f>ROUND(E30*10000,2)&amp;" Bps"</f>
+        <v>-46.14 Bps</v>
       </c>
       <c r="P30" s="3"/>
       <c r="R30" s="35">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="S30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T30" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U30" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V30" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W30" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X30" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y30" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z30" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA30" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC30" s="21">
         <f t="shared" si="34"/>
         <v>7</v>
       </c>
-      <c r="S30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T30" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U30" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V30" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W30" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X30" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y30" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z30" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA30" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC30" s="21">
+      <c r="AD30" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE30" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF30" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG30" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH30" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI30" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ30" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK30" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL30" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN30" s="21">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="AD30" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE30" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF30" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG30" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH30" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI30" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ30" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK30" s="22" t="str">
+      <c r="AO30" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL30" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN30" s="21">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
-      <c r="AO30" s="22" t="str">
+      <c r="AP30" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP30" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ30" s="23" t="str">
@@ -22408,11 +22422,11 @@
         <v>-</v>
       </c>
       <c r="AS30" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT30" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT30" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU30" s="25" t="str">
@@ -22426,107 +22440,107 @@
       </c>
       <c r="C31" s="14">
         <f>-ProtectionLegTotalPV-AccruedInterestTotalPV</f>
-        <v>-65100.229497725006</v>
+        <v>-73429.122445189088</v>
       </c>
       <c r="D31" s="14">
         <f>-QuantoProtectionLegTotalPV-QuantoAccruedInterestTotalPV</f>
-        <v>-71873.945888408314</v>
+        <v>-55649.340534435403</v>
       </c>
       <c r="E31" s="14">
         <f>D31-C31</f>
-        <v>-6773.7163906833084</v>
+        <v>17779.781910753685</v>
       </c>
       <c r="P31" s="3"/>
       <c r="R31" s="35">
+        <f t="shared" si="33"/>
+        <v>7.25</v>
+      </c>
+      <c r="S31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T31" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U31" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V31" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W31" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X31" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y31" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z31" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA31" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC31" s="21">
         <f t="shared" si="34"/>
         <v>7.25</v>
       </c>
-      <c r="S31" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T31" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U31" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V31" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W31" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X31" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y31" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z31" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA31" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC31" s="21">
+      <c r="AD31" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE31" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF31" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG31" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH31" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI31" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ31" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK31" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL31" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN31" s="21">
         <f t="shared" si="35"/>
         <v>7.25</v>
       </c>
-      <c r="AD31" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE31" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF31" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG31" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH31" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI31" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ31" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK31" s="22" t="str">
+      <c r="AO31" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL31" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN31" s="21">
-        <f t="shared" si="36"/>
-        <v>7.25</v>
-      </c>
-      <c r="AO31" s="22" t="str">
+      <c r="AP31" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP31" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ31" s="23" t="str">
@@ -22538,11 +22552,11 @@
         <v>-</v>
       </c>
       <c r="AS31" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT31" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT31" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU31" s="25" t="str">
@@ -22556,107 +22570,107 @@
       </c>
       <c r="C32" s="52">
         <f>SUMPRODUCT(S3:S44,U3:U44,W3:W44,Y3:Y44)</f>
-        <v>-3617150.2792291366</v>
+        <v>-4079926.7960406807</v>
       </c>
       <c r="D32" s="52">
         <f>SUMPRODUCT(S3:S44,U3:U44,X3:X44,Y3:Y44)</f>
-        <v>-3588566.8868234493</v>
+        <v>-4157852.149610572</v>
       </c>
       <c r="E32" s="15">
         <f>D32-C32</f>
-        <v>28583.392405687366</v>
+        <v>-77925.353569891304</v>
       </c>
       <c r="P32" s="3"/>
       <c r="R32" s="35">
+        <f t="shared" si="33"/>
+        <v>7.5</v>
+      </c>
+      <c r="S32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T32" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U32" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V32" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W32" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X32" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y32" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z32" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA32" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC32" s="21">
         <f t="shared" si="34"/>
         <v>7.5</v>
       </c>
-      <c r="S32" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T32" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U32" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V32" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W32" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X32" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y32" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z32" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA32" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC32" s="21">
+      <c r="AD32" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE32" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF32" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG32" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH32" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI32" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ32" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK32" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL32" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN32" s="21">
         <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
-      <c r="AD32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE32" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF32" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG32" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH32" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI32" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ32" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK32" s="22" t="str">
+      <c r="AO32" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL32" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN32" s="21">
-        <f t="shared" si="36"/>
-        <v>7.5</v>
-      </c>
-      <c r="AO32" s="22" t="str">
+      <c r="AP32" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP32" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ32" s="23" t="str">
@@ -22668,11 +22682,11 @@
         <v>-</v>
       </c>
       <c r="AS32" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT32" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT32" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU32" s="25" t="str">
@@ -22683,95 +22697,95 @@
     <row r="33" spans="8:47">
       <c r="P33" s="3"/>
       <c r="R33" s="35">
+        <f t="shared" si="33"/>
+        <v>7.75</v>
+      </c>
+      <c r="S33" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T33" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U33" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V33" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W33" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X33" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y33" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z33" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA33" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC33" s="21">
         <f t="shared" si="34"/>
         <v>7.75</v>
       </c>
-      <c r="S33" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T33" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U33" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V33" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W33" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X33" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y33" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z33" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA33" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC33" s="21">
+      <c r="AD33" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE33" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF33" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG33" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH33" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI33" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ33" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK33" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL33" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN33" s="21">
         <f t="shared" si="35"/>
         <v>7.75</v>
       </c>
-      <c r="AD33" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE33" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF33" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG33" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH33" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI33" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ33" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK33" s="22" t="str">
+      <c r="AO33" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL33" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN33" s="21">
-        <f t="shared" si="36"/>
-        <v>7.75</v>
-      </c>
-      <c r="AO33" s="22" t="str">
+      <c r="AP33" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP33" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ33" s="23" t="str">
@@ -22783,11 +22797,11 @@
         <v>-</v>
       </c>
       <c r="AS33" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT33" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT33" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU33" s="25" t="str">
@@ -22798,95 +22812,95 @@
     <row r="34" spans="8:47">
       <c r="P34" s="3"/>
       <c r="R34" s="35">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="S34" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T34" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U34" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V34" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W34" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X34" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y34" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z34" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA34" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC34" s="21">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="S34" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T34" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U34" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V34" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W34" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X34" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y34" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z34" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA34" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC34" s="21">
+      <c r="AD34" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE34" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF34" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG34" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH34" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI34" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ34" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK34" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL34" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN34" s="21">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="AD34" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE34" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF34" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG34" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH34" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI34" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ34" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK34" s="22" t="str">
+      <c r="AO34" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL34" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN34" s="21">
-        <f t="shared" si="36"/>
-        <v>8</v>
-      </c>
-      <c r="AO34" s="22" t="str">
+      <c r="AP34" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP34" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ34" s="23" t="str">
@@ -22898,11 +22912,11 @@
         <v>-</v>
       </c>
       <c r="AS34" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT34" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT34" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU34" s="25" t="str">
@@ -22913,95 +22927,95 @@
     <row r="35" spans="8:47">
       <c r="P35" s="3"/>
       <c r="R35" s="35">
+        <f t="shared" si="33"/>
+        <v>8.25</v>
+      </c>
+      <c r="S35" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T35" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U35" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V35" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W35" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X35" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y35" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z35" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA35" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC35" s="21">
         <f t="shared" si="34"/>
         <v>8.25</v>
       </c>
-      <c r="S35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T35" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U35" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V35" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W35" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X35" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y35" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z35" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA35" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC35" s="21">
+      <c r="AD35" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE35" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF35" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG35" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH35" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI35" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ35" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK35" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL35" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN35" s="21">
         <f t="shared" si="35"/>
         <v>8.25</v>
       </c>
-      <c r="AD35" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE35" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF35" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG35" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH35" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI35" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ35" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK35" s="22" t="str">
+      <c r="AO35" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL35" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN35" s="21">
-        <f t="shared" si="36"/>
-        <v>8.25</v>
-      </c>
-      <c r="AO35" s="22" t="str">
+      <c r="AP35" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP35" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ35" s="23" t="str">
@@ -23013,11 +23027,11 @@
         <v>-</v>
       </c>
       <c r="AS35" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT35" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT35" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU35" s="25" t="str">
@@ -23036,95 +23050,95 @@
       <c r="O36" s="44"/>
       <c r="P36" s="3"/>
       <c r="R36" s="35">
+        <f t="shared" si="33"/>
+        <v>8.5</v>
+      </c>
+      <c r="S36" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U36" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V36" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W36" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X36" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y36" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z36" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA36" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC36" s="21">
         <f t="shared" si="34"/>
         <v>8.5</v>
       </c>
-      <c r="S36" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U36" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V36" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W36" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X36" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y36" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z36" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA36" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC36" s="21">
+      <c r="AD36" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE36" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF36" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG36" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH36" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI36" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ36" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK36" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL36" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN36" s="21">
         <f t="shared" si="35"/>
         <v>8.5</v>
       </c>
-      <c r="AD36" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE36" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF36" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG36" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH36" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI36" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ36" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK36" s="22" t="str">
+      <c r="AO36" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL36" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN36" s="21">
-        <f t="shared" si="36"/>
-        <v>8.5</v>
-      </c>
-      <c r="AO36" s="22" t="str">
+      <c r="AP36" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP36" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ36" s="23" t="str">
@@ -23136,11 +23150,11 @@
         <v>-</v>
       </c>
       <c r="AS36" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT36" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT36" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU36" s="25" t="str">
@@ -23151,95 +23165,95 @@
     <row r="37" spans="8:47">
       <c r="P37" s="3"/>
       <c r="R37" s="35">
+        <f t="shared" si="33"/>
+        <v>8.75</v>
+      </c>
+      <c r="S37" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T37" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U37" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V37" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W37" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X37" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y37" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z37" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA37" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC37" s="21">
         <f t="shared" si="34"/>
         <v>8.75</v>
       </c>
-      <c r="S37" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T37" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U37" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V37" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W37" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X37" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y37" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z37" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA37" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC37" s="21">
+      <c r="AD37" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE37" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF37" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG37" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH37" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI37" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ37" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK37" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL37" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN37" s="21">
         <f t="shared" si="35"/>
         <v>8.75</v>
       </c>
-      <c r="AD37" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE37" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF37" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG37" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH37" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI37" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ37" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK37" s="22" t="str">
+      <c r="AO37" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL37" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN37" s="21">
-        <f t="shared" si="36"/>
-        <v>8.75</v>
-      </c>
-      <c r="AO37" s="22" t="str">
+      <c r="AP37" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP37" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ37" s="23" t="str">
@@ -23251,11 +23265,11 @@
         <v>-</v>
       </c>
       <c r="AS37" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT37" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT37" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU37" s="25" t="str">
@@ -23266,95 +23280,95 @@
     <row r="38" spans="8:47">
       <c r="P38" s="3"/>
       <c r="R38" s="35">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="S38" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T38" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U38" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V38" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X38" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y38" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z38" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA38" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC38" s="21">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="S38" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T38" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U38" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V38" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X38" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y38" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z38" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA38" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC38" s="21">
+      <c r="AD38" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE38" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF38" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG38" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH38" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI38" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ38" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK38" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL38" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN38" s="21">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="AD38" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE38" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF38" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG38" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH38" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI38" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ38" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK38" s="22" t="str">
+      <c r="AO38" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL38" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN38" s="21">
-        <f t="shared" si="36"/>
-        <v>9</v>
-      </c>
-      <c r="AO38" s="22" t="str">
+      <c r="AP38" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP38" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ38" s="23" t="str">
@@ -23366,11 +23380,11 @@
         <v>-</v>
       </c>
       <c r="AS38" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT38" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT38" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU38" s="25" t="str">
@@ -23381,95 +23395,95 @@
     <row r="39" spans="8:47">
       <c r="P39" s="3"/>
       <c r="R39" s="35">
+        <f t="shared" si="33"/>
+        <v>9.25</v>
+      </c>
+      <c r="S39" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T39" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U39" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V39" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W39" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X39" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y39" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z39" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA39" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC39" s="21">
         <f t="shared" si="34"/>
         <v>9.25</v>
       </c>
-      <c r="S39" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T39" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U39" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V39" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W39" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X39" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y39" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z39" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA39" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC39" s="21">
+      <c r="AD39" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE39" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF39" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG39" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH39" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI39" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ39" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK39" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL39" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN39" s="21">
         <f t="shared" si="35"/>
         <v>9.25</v>
       </c>
-      <c r="AD39" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE39" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF39" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG39" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH39" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI39" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ39" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK39" s="22" t="str">
+      <c r="AO39" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL39" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN39" s="21">
-        <f t="shared" si="36"/>
-        <v>9.25</v>
-      </c>
-      <c r="AO39" s="22" t="str">
+      <c r="AP39" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP39" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ39" s="23" t="str">
@@ -23481,11 +23495,11 @@
         <v>-</v>
       </c>
       <c r="AS39" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT39" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT39" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU39" s="25" t="str">
@@ -23496,95 +23510,95 @@
     <row r="40" spans="8:47">
       <c r="P40" s="3"/>
       <c r="R40" s="35">
+        <f t="shared" si="33"/>
+        <v>9.5</v>
+      </c>
+      <c r="S40" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T40" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U40" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V40" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W40" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X40" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y40" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z40" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA40" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC40" s="21">
         <f t="shared" si="34"/>
         <v>9.5</v>
       </c>
-      <c r="S40" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T40" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U40" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V40" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W40" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X40" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y40" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z40" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA40" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC40" s="21">
+      <c r="AD40" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE40" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF40" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG40" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH40" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI40" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ40" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK40" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL40" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN40" s="21">
         <f t="shared" si="35"/>
         <v>9.5</v>
       </c>
-      <c r="AD40" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE40" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF40" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG40" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH40" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI40" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ40" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK40" s="22" t="str">
+      <c r="AO40" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL40" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN40" s="21">
-        <f t="shared" si="36"/>
-        <v>9.5</v>
-      </c>
-      <c r="AO40" s="22" t="str">
+      <c r="AP40" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP40" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ40" s="23" t="str">
@@ -23596,11 +23610,11 @@
         <v>-</v>
       </c>
       <c r="AS40" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT40" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT40" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU40" s="25" t="str">
@@ -23611,95 +23625,95 @@
     <row r="41" spans="8:47">
       <c r="P41" s="3"/>
       <c r="R41" s="35">
+        <f t="shared" si="33"/>
+        <v>9.75</v>
+      </c>
+      <c r="S41" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T41" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U41" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V41" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W41" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X41" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y41" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z41" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA41" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC41" s="21">
         <f t="shared" si="34"/>
         <v>9.75</v>
       </c>
-      <c r="S41" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T41" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U41" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V41" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W41" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X41" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y41" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z41" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA41" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC41" s="21">
+      <c r="AD41" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE41" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF41" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG41" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH41" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI41" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ41" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK41" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL41" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN41" s="21">
         <f t="shared" si="35"/>
         <v>9.75</v>
       </c>
-      <c r="AD41" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE41" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF41" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG41" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH41" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI41" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ41" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK41" s="22" t="str">
+      <c r="AO41" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL41" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN41" s="21">
-        <f t="shared" si="36"/>
-        <v>9.75</v>
-      </c>
-      <c r="AO41" s="22" t="str">
+      <c r="AP41" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP41" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ41" s="23" t="str">
@@ -23711,11 +23725,11 @@
         <v>-</v>
       </c>
       <c r="AS41" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT41" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT41" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU41" s="25" t="str">
@@ -23726,95 +23740,95 @@
     <row r="42" spans="8:47">
       <c r="P42" s="3"/>
       <c r="R42" s="35">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="S42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T42" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U42" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V42" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W42" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X42" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y42" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z42" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA42" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC42" s="21">
         <f t="shared" si="34"/>
         <v>10</v>
       </c>
-      <c r="S42" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T42" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U42" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V42" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W42" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X42" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y42" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z42" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA42" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC42" s="21">
+      <c r="AD42" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE42" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF42" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG42" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH42" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI42" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ42" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK42" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL42" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN42" s="21">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="AD42" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE42" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF42" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG42" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH42" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI42" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ42" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK42" s="22" t="str">
+      <c r="AO42" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL42" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN42" s="21">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="AO42" s="22" t="str">
+      <c r="AP42" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP42" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ42" s="23" t="str">
@@ -23826,11 +23840,11 @@
         <v>-</v>
       </c>
       <c r="AS42" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT42" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT42" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU42" s="25" t="str">
@@ -23841,95 +23855,95 @@
     <row r="43" spans="8:47">
       <c r="P43" s="3"/>
       <c r="R43" s="35">
+        <f t="shared" si="33"/>
+        <v>10.25</v>
+      </c>
+      <c r="S43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T43" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U43" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V43" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W43" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X43" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y43" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z43" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA43" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC43" s="21">
         <f t="shared" si="34"/>
         <v>10.25</v>
       </c>
-      <c r="S43" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T43" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U43" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V43" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W43" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X43" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y43" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z43" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA43" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC43" s="21">
+      <c r="AD43" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE43" s="24" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF43" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG43" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH43" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI43" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ43" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK43" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL43" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN43" s="21">
         <f t="shared" si="35"/>
         <v>10.25</v>
       </c>
-      <c r="AD43" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE43" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF43" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG43" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH43" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI43" s="23" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ43" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK43" s="22" t="str">
+      <c r="AO43" s="22" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL43" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN43" s="21">
-        <f t="shared" si="36"/>
-        <v>10.25</v>
-      </c>
-      <c r="AO43" s="22" t="str">
+      <c r="AP43" s="22" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP43" s="22" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ43" s="23" t="str">
@@ -23941,11 +23955,11 @@
         <v>-</v>
       </c>
       <c r="AS43" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT43" s="22" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT43" s="22" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU43" s="25" t="str">
@@ -23956,95 +23970,95 @@
     <row r="44" spans="8:47">
       <c r="P44" s="3"/>
       <c r="R44" s="37">
+        <f t="shared" si="33"/>
+        <v>10.5</v>
+      </c>
+      <c r="S44" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T44" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="U44" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="V44" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="W44" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="X44" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y44" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Z44" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AA44" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC44" s="26">
         <f t="shared" si="34"/>
         <v>10.5</v>
       </c>
-      <c r="S44" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T44" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="U44" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V44" s="27" t="str">
-        <f t="shared" si="25"/>
-        <v>-</v>
-      </c>
-      <c r="W44" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="X44" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Y44" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="Z44" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="AA44" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="AC44" s="26">
+      <c r="AD44" s="27" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AE44" s="29" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AF44" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AG44" s="27" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AH44" s="28" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AI44" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AJ44" s="28" t="str">
+        <f t="shared" si="41"/>
+        <v>-</v>
+      </c>
+      <c r="AK44" s="27" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="AL44" s="30" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AN44" s="26">
         <f t="shared" si="35"/>
         <v>10.5</v>
       </c>
-      <c r="AD44" s="27" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
-      </c>
-      <c r="AE44" s="29" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-      <c r="AF44" s="42" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AG44" s="27" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="AH44" s="28" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
-      </c>
-      <c r="AI44" s="28" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="AJ44" s="28" t="str">
-        <f t="shared" si="42"/>
-        <v>-</v>
-      </c>
-      <c r="AK44" s="27" t="str">
+      <c r="AO44" s="27" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="AL44" s="30" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="AN44" s="26">
-        <f t="shared" si="36"/>
-        <v>10.5</v>
-      </c>
-      <c r="AO44" s="27" t="str">
+      <c r="AP44" s="27" t="str">
         <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="AP44" s="27" t="str">
-        <f t="shared" si="45"/>
         <v>-</v>
       </c>
       <c r="AQ44" s="28" t="str">
@@ -24056,11 +24070,11 @@
         <v>-</v>
       </c>
       <c r="AS44" s="28" t="str">
+        <f t="shared" si="45"/>
+        <v>-</v>
+      </c>
+      <c r="AT44" s="27" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="AT44" s="27" t="str">
-        <f t="shared" si="47"/>
         <v>-</v>
       </c>
       <c r="AU44" s="30" t="str">
@@ -24090,27 +24104,27 @@
       <c r="P47" s="3"/>
       <c r="Z47" s="43">
         <f>SUM(Z3:Z44)</f>
-        <v>-67278.995193661933</v>
+        <v>-75886.638406356651</v>
       </c>
       <c r="AA47" s="43">
         <f>SUM(AA3:AA44)</f>
-        <v>-66747.344094916145</v>
+        <v>-77336.049982756653</v>
       </c>
       <c r="AK47" s="43">
         <f>SUM(AK3:AK44)</f>
-        <v>-253.24471256487331</v>
+        <v>-285.64472277586418</v>
       </c>
       <c r="AL47" s="43">
         <f>SUM(AL3:AL44)</f>
-        <v>-279.5949708295467</v>
+        <v>-216.48005478322222</v>
       </c>
       <c r="AT47" s="43">
         <f>SUM(AT3:AT44)</f>
-        <v>65353.474210289882</v>
+        <v>73714.76716796495</v>
       </c>
       <c r="AU47" s="43">
         <f>SUM(AU3:AU44)</f>
-        <v>72153.540859237866</v>
+        <v>55865.820589218623</v>
       </c>
     </row>
     <row r="48" spans="8:47">
@@ -24188,7 +24202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"BUY,SELL"</formula1>
     </dataValidation>
